--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -298,6 +298,15 @@
     <t>['16', '87']</t>
   </si>
   <si>
+    <t>['18', '22']</t>
+  </si>
+  <si>
+    <t>['16', '34']</t>
+  </si>
+  <si>
+    <t>['16', '50', '54', '89']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -343,7 +352,13 @@
     <t>['17', '28']</t>
   </si>
   <si>
-    <t>['14', '45+1', '83']</t>
+    <t>['14', '45+1', '84']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['79', '90']</t>
   </si>
 </sst>
 </file>
@@ -705,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK22"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +964,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1036,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -1331,7 +1346,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1522,7 +1537,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1803,7 +1818,7 @@
         <v>2.33</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1904,7 +1919,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2095,7 +2110,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2185,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2286,7 +2301,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2373,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9">
         <v>3</v>
@@ -2477,7 +2492,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2859,7 +2874,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3050,7 +3065,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3241,7 +3256,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3331,7 +3346,7 @@
         <v>3</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU14">
         <v>1.18</v>
@@ -3432,7 +3447,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3623,7 +3638,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3710,7 +3725,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16">
         <v>3</v>
@@ -3814,7 +3829,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4005,7 +4020,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4095,7 +4110,7 @@
         <v>1.5</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4578,7 +4593,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -4769,7 +4784,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -4911,6 +4926,579 @@
       </c>
       <c r="BK22">
         <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3216022</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44864.04166666666</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q23">
+        <v>7</v>
+      </c>
+      <c r="R23">
+        <v>8</v>
+      </c>
+      <c r="S23">
+        <v>15</v>
+      </c>
+      <c r="T23">
+        <v>2.3</v>
+      </c>
+      <c r="U23">
+        <v>2.3</v>
+      </c>
+      <c r="V23">
+        <v>4.75</v>
+      </c>
+      <c r="W23">
+        <v>1.33</v>
+      </c>
+      <c r="X23">
+        <v>3.25</v>
+      </c>
+      <c r="Y23">
+        <v>2.63</v>
+      </c>
+      <c r="Z23">
+        <v>1.44</v>
+      </c>
+      <c r="AA23">
+        <v>7</v>
+      </c>
+      <c r="AB23">
+        <v>1.1</v>
+      </c>
+      <c r="AC23">
+        <v>1.77</v>
+      </c>
+      <c r="AD23">
+        <v>3.57</v>
+      </c>
+      <c r="AE23">
+        <v>4.45</v>
+      </c>
+      <c r="AF23">
+        <v>1.03</v>
+      </c>
+      <c r="AG23">
+        <v>13</v>
+      </c>
+      <c r="AH23">
+        <v>1.22</v>
+      </c>
+      <c r="AI23">
+        <v>4</v>
+      </c>
+      <c r="AJ23">
+        <v>1.7</v>
+      </c>
+      <c r="AK23">
+        <v>2.03</v>
+      </c>
+      <c r="AL23">
+        <v>1.75</v>
+      </c>
+      <c r="AM23">
+        <v>2</v>
+      </c>
+      <c r="AN23">
+        <v>1.19</v>
+      </c>
+      <c r="AO23">
+        <v>1.27</v>
+      </c>
+      <c r="AP23">
+        <v>2.05</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>3</v>
+      </c>
+      <c r="AT23">
+        <v>0.75</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>1.43</v>
+      </c>
+      <c r="AW23">
+        <v>1.43</v>
+      </c>
+      <c r="AX23">
+        <v>1.28</v>
+      </c>
+      <c r="AY23">
+        <v>10</v>
+      </c>
+      <c r="AZ23">
+        <v>5</v>
+      </c>
+      <c r="BA23">
+        <v>1.14</v>
+      </c>
+      <c r="BB23">
+        <v>1.28</v>
+      </c>
+      <c r="BC23">
+        <v>1.55</v>
+      </c>
+      <c r="BD23">
+        <v>1.93</v>
+      </c>
+      <c r="BE23">
+        <v>2.5</v>
+      </c>
+      <c r="BF23">
+        <v>7</v>
+      </c>
+      <c r="BG23">
+        <v>3</v>
+      </c>
+      <c r="BH23">
+        <v>13</v>
+      </c>
+      <c r="BI23">
+        <v>8</v>
+      </c>
+      <c r="BJ23">
+        <v>20</v>
+      </c>
+      <c r="BK23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3216023</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44864.125</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>95</v>
+      </c>
+      <c r="P24" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>9</v>
+      </c>
+      <c r="T24">
+        <v>2.1</v>
+      </c>
+      <c r="U24">
+        <v>2.4</v>
+      </c>
+      <c r="V24">
+        <v>5.5</v>
+      </c>
+      <c r="W24">
+        <v>1.3</v>
+      </c>
+      <c r="X24">
+        <v>3.4</v>
+      </c>
+      <c r="Y24">
+        <v>2.38</v>
+      </c>
+      <c r="Z24">
+        <v>1.53</v>
+      </c>
+      <c r="AA24">
+        <v>6</v>
+      </c>
+      <c r="AB24">
+        <v>1.13</v>
+      </c>
+      <c r="AC24">
+        <v>1.44</v>
+      </c>
+      <c r="AD24">
+        <v>4.67</v>
+      </c>
+      <c r="AE24">
+        <v>6.2</v>
+      </c>
+      <c r="AF24">
+        <v>1.02</v>
+      </c>
+      <c r="AG24">
+        <v>17</v>
+      </c>
+      <c r="AH24">
+        <v>1.2</v>
+      </c>
+      <c r="AI24">
+        <v>4.5</v>
+      </c>
+      <c r="AJ24">
+        <v>1.6</v>
+      </c>
+      <c r="AK24">
+        <v>2.3</v>
+      </c>
+      <c r="AL24">
+        <v>1.7</v>
+      </c>
+      <c r="AM24">
+        <v>2.05</v>
+      </c>
+      <c r="AN24">
+        <v>1.15</v>
+      </c>
+      <c r="AO24">
+        <v>1.21</v>
+      </c>
+      <c r="AP24">
+        <v>2.35</v>
+      </c>
+      <c r="AQ24">
+        <v>3</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>2</v>
+      </c>
+      <c r="AT24">
+        <v>0.5</v>
+      </c>
+      <c r="AU24">
+        <v>2.71</v>
+      </c>
+      <c r="AV24">
+        <v>2.45</v>
+      </c>
+      <c r="AW24">
+        <v>5.16</v>
+      </c>
+      <c r="AX24">
+        <v>1.27</v>
+      </c>
+      <c r="AY24">
+        <v>10</v>
+      </c>
+      <c r="AZ24">
+        <v>5.1</v>
+      </c>
+      <c r="BA24">
+        <v>1.17</v>
+      </c>
+      <c r="BB24">
+        <v>1.26</v>
+      </c>
+      <c r="BC24">
+        <v>1.5</v>
+      </c>
+      <c r="BD24">
+        <v>1.86</v>
+      </c>
+      <c r="BE24">
+        <v>2.38</v>
+      </c>
+      <c r="BF24">
+        <v>5</v>
+      </c>
+      <c r="BG24">
+        <v>5</v>
+      </c>
+      <c r="BH24">
+        <v>6</v>
+      </c>
+      <c r="BI24">
+        <v>7</v>
+      </c>
+      <c r="BJ24">
+        <v>11</v>
+      </c>
+      <c r="BK24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3216024</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44869.23958333334</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>9</v>
+      </c>
+      <c r="T25">
+        <v>2.29</v>
+      </c>
+      <c r="U25">
+        <v>2.23</v>
+      </c>
+      <c r="V25">
+        <v>4.47</v>
+      </c>
+      <c r="W25">
+        <v>1.36</v>
+      </c>
+      <c r="X25">
+        <v>3.04</v>
+      </c>
+      <c r="Y25">
+        <v>2.67</v>
+      </c>
+      <c r="Z25">
+        <v>1.45</v>
+      </c>
+      <c r="AA25">
+        <v>6.6</v>
+      </c>
+      <c r="AB25">
+        <v>1.1</v>
+      </c>
+      <c r="AC25">
+        <v>1.75</v>
+      </c>
+      <c r="AD25">
+        <v>3.5</v>
+      </c>
+      <c r="AE25">
+        <v>4</v>
+      </c>
+      <c r="AF25">
+        <v>1.04</v>
+      </c>
+      <c r="AG25">
+        <v>13.75</v>
+      </c>
+      <c r="AH25">
+        <v>1.24</v>
+      </c>
+      <c r="AI25">
+        <v>3.92</v>
+      </c>
+      <c r="AJ25">
+        <v>1.73</v>
+      </c>
+      <c r="AK25">
+        <v>2.05</v>
+      </c>
+      <c r="AL25">
+        <v>1.71</v>
+      </c>
+      <c r="AM25">
+        <v>2.02</v>
+      </c>
+      <c r="AN25">
+        <v>1.23</v>
+      </c>
+      <c r="AO25">
+        <v>1.26</v>
+      </c>
+      <c r="AP25">
+        <v>1.99</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>1.35</v>
+      </c>
+      <c r="AV25">
+        <v>0.87</v>
+      </c>
+      <c r="AW25">
+        <v>2.22</v>
+      </c>
+      <c r="AX25">
+        <v>1.28</v>
+      </c>
+      <c r="AY25">
+        <v>7.5</v>
+      </c>
+      <c r="AZ25">
+        <v>4.35</v>
+      </c>
+      <c r="BA25">
+        <v>1.11</v>
+      </c>
+      <c r="BB25">
+        <v>1.24</v>
+      </c>
+      <c r="BC25">
+        <v>1.43</v>
+      </c>
+      <c r="BD25">
+        <v>1.7</v>
+      </c>
+      <c r="BE25">
+        <v>2.1</v>
+      </c>
+      <c r="BF25">
+        <v>9</v>
+      </c>
+      <c r="BG25">
+        <v>2</v>
+      </c>
+      <c r="BH25">
+        <v>7</v>
+      </c>
+      <c r="BI25">
+        <v>8</v>
+      </c>
+      <c r="BJ25">
+        <v>16</v>
+      </c>
+      <c r="BK25">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -307,6 +307,30 @@
     <t>['16', '50', '54', '89']</t>
   </si>
   <si>
+    <t>['49', '75', '82', '90+5']</t>
+  </si>
+  <si>
+    <t>['45+3', '65', '67', '75']</t>
+  </si>
+  <si>
+    <t>['6', '12', '72']</t>
+  </si>
+  <si>
+    <t>['53', '90+1']</t>
+  </si>
+  <si>
+    <t>['37', '86', '90+1']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['22', '59']</t>
+  </si>
+  <si>
+    <t>['65', '72']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -359,6 +383,27 @@
   </si>
   <si>
     <t>['79', '90']</t>
+  </si>
+  <si>
+    <t>['66', '72', '81']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['9', '22', '31', '79']</t>
+  </si>
+  <si>
+    <t>['20', '57']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['64', '84', '90+5']</t>
+  </si>
+  <si>
+    <t>['14', '48', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -720,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,7 +1009,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1051,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1242,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1346,7 +1391,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1433,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT4">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1537,7 +1582,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1624,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT5">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1815,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT6">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1919,7 +1964,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2006,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT7">
         <v>3</v>
@@ -2110,7 +2155,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2197,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2301,7 +2346,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2492,7 +2537,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2579,10 +2624,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU10">
         <v>0.8100000000000001</v>
@@ -2773,7 +2818,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2874,7 +2919,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -2961,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3065,7 +3110,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3152,10 +3197,10 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU13">
         <v>1.69</v>
@@ -3256,7 +3301,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3343,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14">
         <v>0.5</v>
@@ -3447,7 +3492,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3534,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT15">
         <v>1</v>
@@ -3638,7 +3683,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3829,7 +3874,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -3916,10 +3961,10 @@
         <v>0.5</v>
       </c>
       <c r="AS17">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT17">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU17">
         <v>1.74</v>
@@ -4020,7 +4065,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4107,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT18">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4298,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -4489,10 +4534,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU20">
         <v>1.25</v>
@@ -4593,7 +4638,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -4680,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <v>1.32</v>
@@ -4784,7 +4829,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -4874,7 +4919,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU22">
         <v>1.29</v>
@@ -4975,7 +5020,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5065,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="AT23">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5166,7 +5211,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5253,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT24">
         <v>0.5</v>
@@ -5499,6 +5544,1916 @@
       </c>
       <c r="BK25">
         <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3216025</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44870.125</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>1.91</v>
+      </c>
+      <c r="U26">
+        <v>2.5</v>
+      </c>
+      <c r="V26">
+        <v>6.5</v>
+      </c>
+      <c r="W26">
+        <v>1.29</v>
+      </c>
+      <c r="X26">
+        <v>3.5</v>
+      </c>
+      <c r="Y26">
+        <v>2.25</v>
+      </c>
+      <c r="Z26">
+        <v>1.57</v>
+      </c>
+      <c r="AA26">
+        <v>5.5</v>
+      </c>
+      <c r="AB26">
+        <v>1.14</v>
+      </c>
+      <c r="AC26">
+        <v>1.39</v>
+      </c>
+      <c r="AD26">
+        <v>4.8</v>
+      </c>
+      <c r="AE26">
+        <v>7.25</v>
+      </c>
+      <c r="AF26">
+        <v>1.03</v>
+      </c>
+      <c r="AG26">
+        <v>11</v>
+      </c>
+      <c r="AH26">
+        <v>1.17</v>
+      </c>
+      <c r="AI26">
+        <v>4.5</v>
+      </c>
+      <c r="AJ26">
+        <v>1.56</v>
+      </c>
+      <c r="AK26">
+        <v>2.35</v>
+      </c>
+      <c r="AL26">
+        <v>1.8</v>
+      </c>
+      <c r="AM26">
+        <v>1.95</v>
+      </c>
+      <c r="AN26">
+        <v>1.09</v>
+      </c>
+      <c r="AO26">
+        <v>1.17</v>
+      </c>
+      <c r="AP26">
+        <v>2.95</v>
+      </c>
+      <c r="AQ26">
+        <v>2</v>
+      </c>
+      <c r="AR26">
+        <v>0.75</v>
+      </c>
+      <c r="AS26">
+        <v>2.33</v>
+      </c>
+      <c r="AT26">
+        <v>0.6</v>
+      </c>
+      <c r="AU26">
+        <v>2.03</v>
+      </c>
+      <c r="AV26">
+        <v>1.4</v>
+      </c>
+      <c r="AW26">
+        <v>3.43</v>
+      </c>
+      <c r="AX26">
+        <v>1.08</v>
+      </c>
+      <c r="AY26">
+        <v>15</v>
+      </c>
+      <c r="AZ26">
+        <v>11</v>
+      </c>
+      <c r="BA26">
+        <v>1.14</v>
+      </c>
+      <c r="BB26">
+        <v>1.28</v>
+      </c>
+      <c r="BC26">
+        <v>1.5</v>
+      </c>
+      <c r="BD26">
+        <v>2</v>
+      </c>
+      <c r="BE26">
+        <v>2.45</v>
+      </c>
+      <c r="BF26">
+        <v>8</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>11</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>19</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3216026</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44870.23958333334</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>11</v>
+      </c>
+      <c r="S27">
+        <v>12</v>
+      </c>
+      <c r="T27">
+        <v>2.6</v>
+      </c>
+      <c r="U27">
+        <v>2.3</v>
+      </c>
+      <c r="V27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>1.33</v>
+      </c>
+      <c r="X27">
+        <v>3.25</v>
+      </c>
+      <c r="Y27">
+        <v>2.63</v>
+      </c>
+      <c r="Z27">
+        <v>1.44</v>
+      </c>
+      <c r="AA27">
+        <v>6.5</v>
+      </c>
+      <c r="AB27">
+        <v>1.11</v>
+      </c>
+      <c r="AC27">
+        <v>2.02</v>
+      </c>
+      <c r="AD27">
+        <v>3.25</v>
+      </c>
+      <c r="AE27">
+        <v>3.35</v>
+      </c>
+      <c r="AF27">
+        <v>1.04</v>
+      </c>
+      <c r="AG27">
+        <v>10</v>
+      </c>
+      <c r="AH27">
+        <v>1.25</v>
+      </c>
+      <c r="AI27">
+        <v>3.75</v>
+      </c>
+      <c r="AJ27">
+        <v>1.7</v>
+      </c>
+      <c r="AK27">
+        <v>2</v>
+      </c>
+      <c r="AL27">
+        <v>1.62</v>
+      </c>
+      <c r="AM27">
+        <v>2.2</v>
+      </c>
+      <c r="AN27">
+        <v>1.28</v>
+      </c>
+      <c r="AO27">
+        <v>1.27</v>
+      </c>
+      <c r="AP27">
+        <v>1.8</v>
+      </c>
+      <c r="AQ27">
+        <v>2.33</v>
+      </c>
+      <c r="AR27">
+        <v>1</v>
+      </c>
+      <c r="AS27">
+        <v>1.75</v>
+      </c>
+      <c r="AT27">
+        <v>2</v>
+      </c>
+      <c r="AU27">
+        <v>1.3</v>
+      </c>
+      <c r="AV27">
+        <v>1.37</v>
+      </c>
+      <c r="AW27">
+        <v>2.67</v>
+      </c>
+      <c r="AX27">
+        <v>1.51</v>
+      </c>
+      <c r="AY27">
+        <v>9</v>
+      </c>
+      <c r="AZ27">
+        <v>3.06</v>
+      </c>
+      <c r="BA27">
+        <v>1.14</v>
+      </c>
+      <c r="BB27">
+        <v>1.25</v>
+      </c>
+      <c r="BC27">
+        <v>1.35</v>
+      </c>
+      <c r="BD27">
+        <v>1.61</v>
+      </c>
+      <c r="BE27">
+        <v>2</v>
+      </c>
+      <c r="BF27">
+        <v>2</v>
+      </c>
+      <c r="BG27">
+        <v>9</v>
+      </c>
+      <c r="BH27">
+        <v>8</v>
+      </c>
+      <c r="BI27">
+        <v>9</v>
+      </c>
+      <c r="BJ27">
+        <v>10</v>
+      </c>
+      <c r="BK27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3216027</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44870.95833333334</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
+      </c>
+      <c r="T28">
+        <v>2.6</v>
+      </c>
+      <c r="U28">
+        <v>2.2</v>
+      </c>
+      <c r="V28">
+        <v>3.5</v>
+      </c>
+      <c r="W28">
+        <v>1.3</v>
+      </c>
+      <c r="X28">
+        <v>3.2</v>
+      </c>
+      <c r="Y28">
+        <v>2.35</v>
+      </c>
+      <c r="Z28">
+        <v>1.51</v>
+      </c>
+      <c r="AA28">
+        <v>5.5</v>
+      </c>
+      <c r="AB28">
+        <v>1.12</v>
+      </c>
+      <c r="AC28">
+        <v>2.3</v>
+      </c>
+      <c r="AD28">
+        <v>3.4</v>
+      </c>
+      <c r="AE28">
+        <v>3</v>
+      </c>
+      <c r="AF28">
+        <v>1.02</v>
+      </c>
+      <c r="AG28">
+        <v>15</v>
+      </c>
+      <c r="AH28">
+        <v>1.2</v>
+      </c>
+      <c r="AI28">
+        <v>4.33</v>
+      </c>
+      <c r="AJ28">
+        <v>1.75</v>
+      </c>
+      <c r="AK28">
+        <v>2.05</v>
+      </c>
+      <c r="AL28">
+        <v>1.55</v>
+      </c>
+      <c r="AM28">
+        <v>2.25</v>
+      </c>
+      <c r="AN28">
+        <v>1.34</v>
+      </c>
+      <c r="AO28">
+        <v>1.27</v>
+      </c>
+      <c r="AP28">
+        <v>1.7</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>1</v>
+      </c>
+      <c r="AS28">
+        <v>1.25</v>
+      </c>
+      <c r="AT28">
+        <v>1.25</v>
+      </c>
+      <c r="AU28">
+        <v>1.39</v>
+      </c>
+      <c r="AV28">
+        <v>1.4</v>
+      </c>
+      <c r="AW28">
+        <v>2.79</v>
+      </c>
+      <c r="AX28">
+        <v>1.9</v>
+      </c>
+      <c r="AY28">
+        <v>8</v>
+      </c>
+      <c r="AZ28">
+        <v>2.29</v>
+      </c>
+      <c r="BA28">
+        <v>1.12</v>
+      </c>
+      <c r="BB28">
+        <v>1.2</v>
+      </c>
+      <c r="BC28">
+        <v>1.41</v>
+      </c>
+      <c r="BD28">
+        <v>1.7</v>
+      </c>
+      <c r="BE28">
+        <v>2.13</v>
+      </c>
+      <c r="BF28">
+        <v>9</v>
+      </c>
+      <c r="BG28">
+        <v>5</v>
+      </c>
+      <c r="BH28">
+        <v>8</v>
+      </c>
+      <c r="BI28">
+        <v>7</v>
+      </c>
+      <c r="BJ28">
+        <v>17</v>
+      </c>
+      <c r="BK28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3216028</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44871.04166666666</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29" t="s">
+        <v>99</v>
+      </c>
+      <c r="P29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>3.25</v>
+      </c>
+      <c r="U29">
+        <v>2.15</v>
+      </c>
+      <c r="V29">
+        <v>2.85</v>
+      </c>
+      <c r="W29">
+        <v>1.34</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <v>2.5</v>
+      </c>
+      <c r="Z29">
+        <v>1.46</v>
+      </c>
+      <c r="AA29">
+        <v>6.25</v>
+      </c>
+      <c r="AB29">
+        <v>1.1</v>
+      </c>
+      <c r="AC29">
+        <v>2.4</v>
+      </c>
+      <c r="AD29">
+        <v>3.4</v>
+      </c>
+      <c r="AE29">
+        <v>2.85</v>
+      </c>
+      <c r="AF29">
+        <v>1.03</v>
+      </c>
+      <c r="AG29">
+        <v>13</v>
+      </c>
+      <c r="AH29">
+        <v>1.22</v>
+      </c>
+      <c r="AI29">
+        <v>4</v>
+      </c>
+      <c r="AJ29">
+        <v>1.75</v>
+      </c>
+      <c r="AK29">
+        <v>2.05</v>
+      </c>
+      <c r="AL29">
+        <v>1.61</v>
+      </c>
+      <c r="AM29">
+        <v>2.15</v>
+      </c>
+      <c r="AN29">
+        <v>1.57</v>
+      </c>
+      <c r="AO29">
+        <v>1.29</v>
+      </c>
+      <c r="AP29">
+        <v>1.41</v>
+      </c>
+      <c r="AQ29">
+        <v>0.67</v>
+      </c>
+      <c r="AR29">
+        <v>3</v>
+      </c>
+      <c r="AS29">
+        <v>1.25</v>
+      </c>
+      <c r="AT29">
+        <v>2</v>
+      </c>
+      <c r="AU29">
+        <v>1.22</v>
+      </c>
+      <c r="AV29">
+        <v>2.26</v>
+      </c>
+      <c r="AW29">
+        <v>3.48</v>
+      </c>
+      <c r="AX29">
+        <v>2.35</v>
+      </c>
+      <c r="AY29">
+        <v>8</v>
+      </c>
+      <c r="AZ29">
+        <v>1.89</v>
+      </c>
+      <c r="BA29">
+        <v>1.17</v>
+      </c>
+      <c r="BB29">
+        <v>1.26</v>
+      </c>
+      <c r="BC29">
+        <v>1.5</v>
+      </c>
+      <c r="BD29">
+        <v>1.86</v>
+      </c>
+      <c r="BE29">
+        <v>2.38</v>
+      </c>
+      <c r="BF29">
+        <v>8</v>
+      </c>
+      <c r="BG29">
+        <v>3</v>
+      </c>
+      <c r="BH29">
+        <v>8</v>
+      </c>
+      <c r="BI29">
+        <v>16</v>
+      </c>
+      <c r="BJ29">
+        <v>16</v>
+      </c>
+      <c r="BK29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3216029</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44871.125</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>11</v>
+      </c>
+      <c r="T30">
+        <v>2.85</v>
+      </c>
+      <c r="U30">
+        <v>2.15</v>
+      </c>
+      <c r="V30">
+        <v>3.2</v>
+      </c>
+      <c r="W30">
+        <v>1.33</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>2.5</v>
+      </c>
+      <c r="Z30">
+        <v>1.47</v>
+      </c>
+      <c r="AA30">
+        <v>6</v>
+      </c>
+      <c r="AB30">
+        <v>1.11</v>
+      </c>
+      <c r="AC30">
+        <v>2.25</v>
+      </c>
+      <c r="AD30">
+        <v>3.4</v>
+      </c>
+      <c r="AE30">
+        <v>3.1</v>
+      </c>
+      <c r="AF30">
+        <v>1.03</v>
+      </c>
+      <c r="AG30">
+        <v>13</v>
+      </c>
+      <c r="AH30">
+        <v>1.25</v>
+      </c>
+      <c r="AI30">
+        <v>3.75</v>
+      </c>
+      <c r="AJ30">
+        <v>1.83</v>
+      </c>
+      <c r="AK30">
+        <v>1.95</v>
+      </c>
+      <c r="AL30">
+        <v>1.61</v>
+      </c>
+      <c r="AM30">
+        <v>2.15</v>
+      </c>
+      <c r="AN30">
+        <v>1.42</v>
+      </c>
+      <c r="AO30">
+        <v>1.28</v>
+      </c>
+      <c r="AP30">
+        <v>1.55</v>
+      </c>
+      <c r="AQ30">
+        <v>0.5</v>
+      </c>
+      <c r="AR30">
+        <v>0.67</v>
+      </c>
+      <c r="AS30">
+        <v>0.33</v>
+      </c>
+      <c r="AT30">
+        <v>1.25</v>
+      </c>
+      <c r="AU30">
+        <v>2.13</v>
+      </c>
+      <c r="AV30">
+        <v>2.15</v>
+      </c>
+      <c r="AW30">
+        <v>4.28</v>
+      </c>
+      <c r="AX30">
+        <v>2.22</v>
+      </c>
+      <c r="AY30">
+        <v>8.1</v>
+      </c>
+      <c r="AZ30">
+        <v>1.95</v>
+      </c>
+      <c r="BA30">
+        <v>1.08</v>
+      </c>
+      <c r="BB30">
+        <v>1.19</v>
+      </c>
+      <c r="BC30">
+        <v>1.38</v>
+      </c>
+      <c r="BD30">
+        <v>1.67</v>
+      </c>
+      <c r="BE30">
+        <v>2.12</v>
+      </c>
+      <c r="BF30">
+        <v>9</v>
+      </c>
+      <c r="BG30">
+        <v>6</v>
+      </c>
+      <c r="BH30">
+        <v>14</v>
+      </c>
+      <c r="BI30">
+        <v>5</v>
+      </c>
+      <c r="BJ30">
+        <v>23</v>
+      </c>
+      <c r="BK30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3216030</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44876.23958333334</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>8</v>
+      </c>
+      <c r="T31">
+        <v>3.25</v>
+      </c>
+      <c r="U31">
+        <v>2.25</v>
+      </c>
+      <c r="V31">
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>1.33</v>
+      </c>
+      <c r="X31">
+        <v>3.25</v>
+      </c>
+      <c r="Y31">
+        <v>2.63</v>
+      </c>
+      <c r="Z31">
+        <v>1.44</v>
+      </c>
+      <c r="AA31">
+        <v>7</v>
+      </c>
+      <c r="AB31">
+        <v>1.1</v>
+      </c>
+      <c r="AC31">
+        <v>3.1</v>
+      </c>
+      <c r="AD31">
+        <v>3.4</v>
+      </c>
+      <c r="AE31">
+        <v>2.25</v>
+      </c>
+      <c r="AF31">
+        <v>1.03</v>
+      </c>
+      <c r="AG31">
+        <v>15</v>
+      </c>
+      <c r="AH31">
+        <v>1.22</v>
+      </c>
+      <c r="AI31">
+        <v>4</v>
+      </c>
+      <c r="AJ31">
+        <v>1.78</v>
+      </c>
+      <c r="AK31">
+        <v>2</v>
+      </c>
+      <c r="AL31">
+        <v>1.62</v>
+      </c>
+      <c r="AM31">
+        <v>2.2</v>
+      </c>
+      <c r="AN31">
+        <v>1.53</v>
+      </c>
+      <c r="AO31">
+        <v>1.25</v>
+      </c>
+      <c r="AP31">
+        <v>1.5</v>
+      </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
+      <c r="AR31">
+        <v>2</v>
+      </c>
+      <c r="AS31">
+        <v>3</v>
+      </c>
+      <c r="AT31">
+        <v>1.33</v>
+      </c>
+      <c r="AU31">
+        <v>2.2</v>
+      </c>
+      <c r="AV31">
+        <v>2.15</v>
+      </c>
+      <c r="AW31">
+        <v>4.35</v>
+      </c>
+      <c r="AX31">
+        <v>1.79</v>
+      </c>
+      <c r="AY31">
+        <v>7.5</v>
+      </c>
+      <c r="AZ31">
+        <v>2.58</v>
+      </c>
+      <c r="BA31">
+        <v>1.11</v>
+      </c>
+      <c r="BB31">
+        <v>1.22</v>
+      </c>
+      <c r="BC31">
+        <v>1.44</v>
+      </c>
+      <c r="BD31">
+        <v>1.76</v>
+      </c>
+      <c r="BE31">
+        <v>2.2</v>
+      </c>
+      <c r="BF31">
+        <v>6</v>
+      </c>
+      <c r="BG31">
+        <v>4</v>
+      </c>
+      <c r="BH31">
+        <v>5</v>
+      </c>
+      <c r="BI31">
+        <v>7</v>
+      </c>
+      <c r="BJ31">
+        <v>11</v>
+      </c>
+      <c r="BK31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3216031</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44877.125</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>6</v>
+      </c>
+      <c r="S32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <v>4.33</v>
+      </c>
+      <c r="U32">
+        <v>2.3</v>
+      </c>
+      <c r="V32">
+        <v>2.38</v>
+      </c>
+      <c r="W32">
+        <v>1.33</v>
+      </c>
+      <c r="X32">
+        <v>3.25</v>
+      </c>
+      <c r="Y32">
+        <v>2.5</v>
+      </c>
+      <c r="Z32">
+        <v>1.5</v>
+      </c>
+      <c r="AA32">
+        <v>6</v>
+      </c>
+      <c r="AB32">
+        <v>1.13</v>
+      </c>
+      <c r="AC32">
+        <v>4.1</v>
+      </c>
+      <c r="AD32">
+        <v>3.7</v>
+      </c>
+      <c r="AE32">
+        <v>1.83</v>
+      </c>
+      <c r="AF32">
+        <v>1.04</v>
+      </c>
+      <c r="AG32">
+        <v>10</v>
+      </c>
+      <c r="AH32">
+        <v>1.22</v>
+      </c>
+      <c r="AI32">
+        <v>4</v>
+      </c>
+      <c r="AJ32">
+        <v>1.65</v>
+      </c>
+      <c r="AK32">
+        <v>2.16</v>
+      </c>
+      <c r="AL32">
+        <v>1.67</v>
+      </c>
+      <c r="AM32">
+        <v>2.1</v>
+      </c>
+      <c r="AN32">
+        <v>1.91</v>
+      </c>
+      <c r="AO32">
+        <v>1.29</v>
+      </c>
+      <c r="AP32">
+        <v>1.25</v>
+      </c>
+      <c r="AQ32">
+        <v>3</v>
+      </c>
+      <c r="AR32">
+        <v>3</v>
+      </c>
+      <c r="AS32">
+        <v>2</v>
+      </c>
+      <c r="AT32">
+        <v>3</v>
+      </c>
+      <c r="AU32">
+        <v>1.2</v>
+      </c>
+      <c r="AV32">
+        <v>1.78</v>
+      </c>
+      <c r="AW32">
+        <v>2.98</v>
+      </c>
+      <c r="AX32">
+        <v>2.73</v>
+      </c>
+      <c r="AY32">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ32">
+        <v>1.67</v>
+      </c>
+      <c r="BA32">
+        <v>1.17</v>
+      </c>
+      <c r="BB32">
+        <v>1.24</v>
+      </c>
+      <c r="BC32">
+        <v>1.46</v>
+      </c>
+      <c r="BD32">
+        <v>1.79</v>
+      </c>
+      <c r="BE32">
+        <v>2.22</v>
+      </c>
+      <c r="BF32">
+        <v>5</v>
+      </c>
+      <c r="BG32">
+        <v>8</v>
+      </c>
+      <c r="BH32">
+        <v>14</v>
+      </c>
+      <c r="BI32">
+        <v>7</v>
+      </c>
+      <c r="BJ32">
+        <v>19</v>
+      </c>
+      <c r="BK32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3216032</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44877.23958333334</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+      <c r="T33">
+        <v>2.6</v>
+      </c>
+      <c r="U33">
+        <v>2.25</v>
+      </c>
+      <c r="V33">
+        <v>4</v>
+      </c>
+      <c r="W33">
+        <v>1.36</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>2.63</v>
+      </c>
+      <c r="Z33">
+        <v>1.44</v>
+      </c>
+      <c r="AA33">
+        <v>7</v>
+      </c>
+      <c r="AB33">
+        <v>1.1</v>
+      </c>
+      <c r="AC33">
+        <v>2.08</v>
+      </c>
+      <c r="AD33">
+        <v>3.62</v>
+      </c>
+      <c r="AE33">
+        <v>3.32</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>10.25</v>
+      </c>
+      <c r="AH33">
+        <v>1.23</v>
+      </c>
+      <c r="AI33">
+        <v>3.8</v>
+      </c>
+      <c r="AJ33">
+        <v>1.78</v>
+      </c>
+      <c r="AK33">
+        <v>2.04</v>
+      </c>
+      <c r="AL33">
+        <v>1.7</v>
+      </c>
+      <c r="AM33">
+        <v>2.05</v>
+      </c>
+      <c r="AN33">
+        <v>1.28</v>
+      </c>
+      <c r="AO33">
+        <v>1.28</v>
+      </c>
+      <c r="AP33">
+        <v>1.82</v>
+      </c>
+      <c r="AQ33">
+        <v>0.5</v>
+      </c>
+      <c r="AR33">
+        <v>3</v>
+      </c>
+      <c r="AS33">
+        <v>0.33</v>
+      </c>
+      <c r="AT33">
+        <v>3</v>
+      </c>
+      <c r="AU33">
+        <v>2.41</v>
+      </c>
+      <c r="AV33">
+        <v>0.97</v>
+      </c>
+      <c r="AW33">
+        <v>3.38</v>
+      </c>
+      <c r="AX33">
+        <v>1.69</v>
+      </c>
+      <c r="AY33">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ33">
+        <v>2.68</v>
+      </c>
+      <c r="BA33">
+        <v>1.14</v>
+      </c>
+      <c r="BB33">
+        <v>1.29</v>
+      </c>
+      <c r="BC33">
+        <v>1.38</v>
+      </c>
+      <c r="BD33">
+        <v>1.68</v>
+      </c>
+      <c r="BE33">
+        <v>2.1</v>
+      </c>
+      <c r="BF33">
+        <v>3</v>
+      </c>
+      <c r="BG33">
+        <v>5</v>
+      </c>
+      <c r="BH33">
+        <v>9</v>
+      </c>
+      <c r="BI33">
+        <v>11</v>
+      </c>
+      <c r="BJ33">
+        <v>12</v>
+      </c>
+      <c r="BK33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3216033</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44877.95833333334</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34" t="s">
+        <v>103</v>
+      </c>
+      <c r="P34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q34">
+        <v>8</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>12</v>
+      </c>
+      <c r="T34">
+        <v>2.63</v>
+      </c>
+      <c r="U34">
+        <v>2.3</v>
+      </c>
+      <c r="V34">
+        <v>3.75</v>
+      </c>
+      <c r="W34">
+        <v>1.33</v>
+      </c>
+      <c r="X34">
+        <v>3.25</v>
+      </c>
+      <c r="Y34">
+        <v>2.5</v>
+      </c>
+      <c r="Z34">
+        <v>1.5</v>
+      </c>
+      <c r="AA34">
+        <v>6.5</v>
+      </c>
+      <c r="AB34">
+        <v>1.11</v>
+      </c>
+      <c r="AC34">
+        <v>1.79</v>
+      </c>
+      <c r="AD34">
+        <v>4.69</v>
+      </c>
+      <c r="AE34">
+        <v>1.39</v>
+      </c>
+      <c r="AF34">
+        <v>1.04</v>
+      </c>
+      <c r="AG34">
+        <v>10</v>
+      </c>
+      <c r="AH34">
+        <v>1.22</v>
+      </c>
+      <c r="AI34">
+        <v>4</v>
+      </c>
+      <c r="AJ34">
+        <v>1.78</v>
+      </c>
+      <c r="AK34">
+        <v>2</v>
+      </c>
+      <c r="AL34">
+        <v>1.62</v>
+      </c>
+      <c r="AM34">
+        <v>2.2</v>
+      </c>
+      <c r="AN34">
+        <v>1.33</v>
+      </c>
+      <c r="AO34">
+        <v>1.25</v>
+      </c>
+      <c r="AP34">
+        <v>1.7</v>
+      </c>
+      <c r="AQ34">
+        <v>1.67</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>1.25</v>
+      </c>
+      <c r="AT34">
+        <v>1</v>
+      </c>
+      <c r="AU34">
+        <v>1.59</v>
+      </c>
+      <c r="AV34">
+        <v>0.99</v>
+      </c>
+      <c r="AW34">
+        <v>2.58</v>
+      </c>
+      <c r="AX34">
+        <v>1.8</v>
+      </c>
+      <c r="AY34">
+        <v>7.6</v>
+      </c>
+      <c r="AZ34">
+        <v>2.5</v>
+      </c>
+      <c r="BA34">
+        <v>1.14</v>
+      </c>
+      <c r="BB34">
+        <v>1.19</v>
+      </c>
+      <c r="BC34">
+        <v>1.4</v>
+      </c>
+      <c r="BD34">
+        <v>1.69</v>
+      </c>
+      <c r="BE34">
+        <v>2.1</v>
+      </c>
+      <c r="BF34">
+        <v>5</v>
+      </c>
+      <c r="BG34">
+        <v>6</v>
+      </c>
+      <c r="BH34">
+        <v>6</v>
+      </c>
+      <c r="BI34">
+        <v>7</v>
+      </c>
+      <c r="BJ34">
+        <v>11</v>
+      </c>
+      <c r="BK34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3216034</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44878.04166666666</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <v>11</v>
+      </c>
+      <c r="T35">
+        <v>2.25</v>
+      </c>
+      <c r="U35">
+        <v>2.4</v>
+      </c>
+      <c r="V35">
+        <v>4.5</v>
+      </c>
+      <c r="W35">
+        <v>1.29</v>
+      </c>
+      <c r="X35">
+        <v>3.5</v>
+      </c>
+      <c r="Y35">
+        <v>2.38</v>
+      </c>
+      <c r="Z35">
+        <v>1.53</v>
+      </c>
+      <c r="AA35">
+        <v>5.5</v>
+      </c>
+      <c r="AB35">
+        <v>1.14</v>
+      </c>
+      <c r="AC35">
+        <v>1.42</v>
+      </c>
+      <c r="AD35">
+        <v>4.91</v>
+      </c>
+      <c r="AE35">
+        <v>1.72</v>
+      </c>
+      <c r="AF35">
+        <v>1.03</v>
+      </c>
+      <c r="AG35">
+        <v>9</v>
+      </c>
+      <c r="AH35">
+        <v>1.15</v>
+      </c>
+      <c r="AI35">
+        <v>4.7</v>
+      </c>
+      <c r="AJ35">
+        <v>1.78</v>
+      </c>
+      <c r="AK35">
+        <v>2</v>
+      </c>
+      <c r="AL35">
+        <v>1.62</v>
+      </c>
+      <c r="AM35">
+        <v>2.2</v>
+      </c>
+      <c r="AN35">
+        <v>1.13</v>
+      </c>
+      <c r="AO35">
+        <v>1.22</v>
+      </c>
+      <c r="AP35">
+        <v>2.15</v>
+      </c>
+      <c r="AQ35">
+        <v>1.5</v>
+      </c>
+      <c r="AR35">
+        <v>0.67</v>
+      </c>
+      <c r="AS35">
+        <v>1</v>
+      </c>
+      <c r="AT35">
+        <v>1.25</v>
+      </c>
+      <c r="AU35">
+        <v>2.11</v>
+      </c>
+      <c r="AV35">
+        <v>1.41</v>
+      </c>
+      <c r="AW35">
+        <v>3.52</v>
+      </c>
+      <c r="AX35">
+        <v>1.69</v>
+      </c>
+      <c r="AY35">
+        <v>7.7</v>
+      </c>
+      <c r="AZ35">
+        <v>2.73</v>
+      </c>
+      <c r="BA35">
+        <v>1.11</v>
+      </c>
+      <c r="BB35">
+        <v>1.19</v>
+      </c>
+      <c r="BC35">
+        <v>1.4</v>
+      </c>
+      <c r="BD35">
+        <v>1.69</v>
+      </c>
+      <c r="BE35">
+        <v>2.1</v>
+      </c>
+      <c r="BF35">
+        <v>7</v>
+      </c>
+      <c r="BG35">
+        <v>4</v>
+      </c>
+      <c r="BH35">
+        <v>10</v>
+      </c>
+      <c r="BI35">
+        <v>8</v>
+      </c>
+      <c r="BJ35">
+        <v>17</v>
+      </c>
+      <c r="BK35">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK35"/>
+  <dimension ref="A1:BK39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT3" t="n">
         <v>1.25</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>1.33</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
         <v>1.4</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT10" t="n">
         <v>2</v>
@@ -2730,7 +2730,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU16" t="n">
         <v>1.32</v>
@@ -3945,10 +3945,10 @@
         <v>0.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU17" t="n">
         <v>1.74</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT20" t="n">
         <v>1.33</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU21" t="n">
         <v>1.32</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT28" t="n">
         <v>1.25</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT29" t="n">
         <v>2</v>
@@ -6587,7 +6587,7 @@
         <v>0.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU30" t="n">
         <v>2.13</v>
@@ -6993,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU32" t="n">
         <v>1.2</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU33" t="n">
         <v>2.41</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU34" t="n">
         <v>1.59</v>
@@ -7654,6 +7654,818 @@
       </c>
       <c r="BK35" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3216036</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>44904.23958333334</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>7</v>
+      </c>
+      <c r="R36" t="n">
+        <v>10</v>
+      </c>
+      <c r="S36" t="n">
+        <v>17</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>20</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3216037</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>44905.125</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>8</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3216039</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>44905.23958333334</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['23', '61']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3216038</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>44905.35416666666</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['14', '52']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7</v>
+      </c>
+      <c r="S39" t="n">
+        <v>11</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK39"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>1.2</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT18" t="n">
         <v>0.6</v>
@@ -4354,7 +4354,7 @@
         <v>1.75</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.31</v>
@@ -4557,7 +4557,7 @@
         <v>1.2</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU20" t="n">
         <v>1.25</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>2</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.35</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU31" t="n">
         <v>2.2</v>
@@ -7599,7 +7599,7 @@
         <v>0.67</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT35" t="n">
         <v>1.25</v>
@@ -8466,6 +8466,412 @@
       </c>
       <c r="BK39" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3216040</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>44906.04166666666</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['12', '66']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>10</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>14</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3216041</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>44906.125</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>8</v>
+      </c>
+      <c r="T41" t="n">
+        <v>4</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT10" t="n">
         <v>2</v>
@@ -2727,10 +2727,10 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
         <v>1.25</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5</v>
@@ -3542,7 +3542,7 @@
         <v>1.75</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="n">
         <v>1.28</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>1.74</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.75</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU19" t="n">
         <v>1.31</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.29</v>
@@ -5166,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU25" t="n">
         <v>1.35</v>
@@ -5775,7 +5775,7 @@
         <v>2.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>2.03</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>1.25</v>
@@ -6384,7 +6384,7 @@
         <v>1.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.22</v>
@@ -6584,10 +6584,10 @@
         <v>0.67</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>2.13</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT32" t="n">
         <v>2.25</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU33" t="n">
         <v>2.41</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT34" t="n">
         <v>0.75</v>
@@ -7599,7 +7599,7 @@
         <v>0.67</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
         <v>1.25</v>
@@ -7805,7 +7805,7 @@
         <v>1.2</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.43</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU37" t="n">
         <v>1.53</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT40" t="n">
         <v>0.75</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>2.04</v>
@@ -8817,7 +8817,7 @@
         <v>1.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1.75</v>
@@ -8872,6 +8872,1224 @@
       </c>
       <c r="BK41" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3216042</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>44911.23958333334</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7</v>
+      </c>
+      <c r="S42" t="n">
+        <v>11</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3216043</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>44911.95833333334</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['2', '37', '61']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>16</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>17</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3216044</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>44912.125</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['36', '39']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>11</v>
+      </c>
+      <c r="S44" t="n">
+        <v>15</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3216046</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>44913.04166666666</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3216047</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>44913.125</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>6</v>
+      </c>
+      <c r="S46" t="n">
+        <v>10</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3216002</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>44916.20833333334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['22', '63', '87']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>9</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>13</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK47"/>
+  <dimension ref="A1:BK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT7" t="n">
         <v>2.25</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT12" t="n">
         <v>1.5</v>
@@ -3133,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU13" t="n">
         <v>1.69</v>
@@ -3339,7 +3339,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU14" t="n">
         <v>1.18</v>
@@ -3945,7 +3945,7 @@
         <v>0.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU20" t="n">
         <v>1.25</v>
@@ -5369,7 +5369,7 @@
         <v>2.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU24" t="n">
         <v>2.71</v>
@@ -6181,7 +6181,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU28" t="n">
         <v>1.39</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT29" t="n">
         <v>1.5</v>
@@ -6584,7 +6584,7 @@
         <v>0.67</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU31" t="n">
         <v>2.2</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU33" t="n">
         <v>2.41</v>
@@ -7602,7 +7602,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU35" t="n">
         <v>2.11</v>
@@ -7802,7 +7802,7 @@
         <v>1.25</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8008,7 +8008,7 @@
         <v>1.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU37" t="n">
         <v>1.53</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT38" t="n">
         <v>2.25</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
         <v>0.75</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU41" t="n">
         <v>1.32</v>
@@ -9629,10 +9629,10 @@
         <v>2.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU45" t="n">
         <v>2.27</v>
@@ -10090,6 +10090,818 @@
       </c>
       <c r="BK47" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3216049</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44918.23958333334</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>8</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3216048</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44918.35416666666</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>7</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3216050</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44919.125</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['45+1', '71', '89']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>7</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7</v>
+      </c>
+      <c r="S50" t="n">
+        <v>14</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V50" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3216051</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44921.16666666666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6</v>
+      </c>
+      <c r="S51" t="n">
+        <v>11</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK51"/>
+  <dimension ref="A1:BK53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT2" t="n">
         <v>0.75</v>
@@ -2527,7 +2527,7 @@
         <v>1.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0.8100000000000001</v>
@@ -4354,7 +4354,7 @@
         <v>1.75</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU19" t="n">
         <v>1.31</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>0.5</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT24" t="n">
         <v>0.67</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU25" t="n">
         <v>1.35</v>
@@ -5772,7 +5772,7 @@
         <v>0.75</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT26" t="n">
         <v>0.5</v>
@@ -5978,7 +5978,7 @@
         <v>1.75</v>
       </c>
       <c r="AT27" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT31" t="n">
         <v>1.4</v>
@@ -8617,7 +8617,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU40" t="n">
         <v>2.04</v>
@@ -10038,7 +10038,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU47" t="n">
         <v>1.83</v>
@@ -10902,6 +10902,412 @@
       </c>
       <c r="BK51" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3216052</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>44922.14583333334</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3216053</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>44922.26041666666</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -11169,13 +11169,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S53" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T53" t="n">
         <v>2.4</v>
@@ -11292,22 +11292,22 @@
         <v>2.15</v>
       </c>
       <c r="BF53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI53" t="n">
         <v>4</v>
       </c>
-      <c r="BG53" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH53" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI53" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ53" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BK53" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK53"/>
+  <dimension ref="A1:BK54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT12" t="n">
         <v>1.5</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1.6</v>
@@ -3542,7 +3542,7 @@
         <v>1.75</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU15" t="n">
         <v>1.28</v>
@@ -6584,7 +6584,7 @@
         <v>0.67</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU42" t="n">
         <v>1.49</v>
@@ -9629,7 +9629,7 @@
         <v>2.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT45" t="n">
         <v>1.6</v>
@@ -10847,7 +10847,7 @@
         <v>1.75</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT51" t="n">
         <v>1.4</v>
@@ -11308,6 +11308,209 @@
       </c>
       <c r="BK53" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3216054</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44925.23958333334</v>
+      </c>
+      <c r="F54" t="n">
+        <v>10</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>8</v>
+      </c>
+      <c r="S54" t="n">
+        <v>14</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK54"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>0.8</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT18" t="n">
         <v>0.5</v>
@@ -4557,7 +4557,7 @@
         <v>1.17</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU20" t="n">
         <v>1.25</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -6790,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU31" t="n">
         <v>2.2</v>
@@ -7599,7 +7599,7 @@
         <v>0.67</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT35" t="n">
         <v>1.6</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT40" t="n">
         <v>1.2</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU41" t="n">
         <v>1.32</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT44" t="n">
         <v>1.5</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT47" t="n">
         <v>1.2</v>
@@ -10850,7 +10850,7 @@
         <v>1.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU51" t="n">
         <v>2.02</v>
@@ -11511,6 +11511,209 @@
       </c>
       <c r="BK54" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3216055</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>44926.20833333334</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['11', '53']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>10</v>
+      </c>
+      <c r="S55" t="n">
+        <v>15</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK55"/>
+  <dimension ref="A1:BK57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.17</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT8" t="n">
         <v>0.5</v>
@@ -2933,7 +2933,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU13" t="n">
         <v>1.69</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT14" t="n">
         <v>0.67</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>1.67</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
         <v>1.2</v>
@@ -4963,7 +4963,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU22" t="n">
         <v>1.29</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
         <v>1.33</v>
@@ -6181,7 +6181,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU28" t="n">
         <v>1.39</v>
@@ -6384,7 +6384,7 @@
         <v>1.17</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU29" t="n">
         <v>1.22</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT32" t="n">
         <v>2.25</v>
@@ -7602,7 +7602,7 @@
         <v>1.71</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU35" t="n">
         <v>2.11</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT42" t="n">
         <v>1.67</v>
@@ -9429,7 +9429,7 @@
         <v>1.71</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU44" t="n">
         <v>1.95</v>
@@ -10647,7 +10647,7 @@
         <v>0.8</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU50" t="n">
         <v>2.05</v>
@@ -11714,6 +11714,412 @@
       </c>
       <c r="BK55" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3216056</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>44927.04166666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['37', '41']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>8</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3216057</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>44927.125</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>4</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['16', '18', '70', '88']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6</v>
+      </c>
+      <c r="S57" t="n">
+        <v>9</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V57" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK57"/>
+  <dimension ref="A1:BK59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.17</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU7" t="n">
         <v>1.4</v>
@@ -2121,7 +2121,7 @@
         <v>1.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT10" t="n">
         <v>1.33</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU16" t="n">
         <v>1.32</v>
@@ -4151,7 +4151,7 @@
         <v>1.71</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>2.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU26" t="n">
         <v>2.03</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT28" t="n">
         <v>1.33</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT31" t="n">
         <v>1.17</v>
@@ -6993,7 +6993,7 @@
         <v>1.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU32" t="n">
         <v>1.2</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT34" t="n">
         <v>0.75</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT37" t="n">
         <v>1.6</v>
@@ -8211,7 +8211,7 @@
         <v>0.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU38" t="n">
         <v>2.06</v>
@@ -9223,7 +9223,7 @@
         <v>1.2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU46" t="n">
         <v>1.51</v>
@@ -11253,7 +11253,7 @@
         <v>0.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT53" t="n">
         <v>1.2</v>
@@ -12120,6 +12120,412 @@
       </c>
       <c r="BK57" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3216058</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>44927.95833333334</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['18', '51', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>9</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>13</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3216059</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>44928.23958333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['40', '72']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>9</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>11</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -12387,13 +12387,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S59" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T59" t="n">
         <v>2.3</v>
@@ -12510,22 +12510,22 @@
         <v>2.26</v>
       </c>
       <c r="BF59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH59" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BI59" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BJ59" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BK59" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK59"/>
+  <dimension ref="A1:BK61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="n">
         <v>1.28</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT16" t="n">
         <v>2.4</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT25" t="n">
         <v>1.2</v>
@@ -7196,7 +7196,7 @@
         <v>0.8</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU33" t="n">
         <v>2.41</v>
@@ -8008,7 +8008,7 @@
         <v>1.29</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.53</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT39" t="n">
         <v>0.75</v>
@@ -9023,7 +9023,7 @@
         <v>1.2</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU42" t="n">
         <v>1.49</v>
@@ -9632,7 +9632,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU45" t="n">
         <v>2.27</v>
@@ -10241,7 +10241,7 @@
         <v>1.17</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU48" t="n">
         <v>1.51</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT49" t="n">
         <v>0.67</v>
@@ -11459,7 +11459,7 @@
         <v>1.33</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU54" t="n">
         <v>1.82</v>
@@ -12526,6 +12526,412 @@
       </c>
       <c r="BK59" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3216060</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>44932.23958333334</v>
+      </c>
+      <c r="F60" t="n">
+        <v>11</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6</v>
+      </c>
+      <c r="S60" t="n">
+        <v>8</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V60" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3216061</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>44932.35416666666</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>12</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>17</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK61"/>
+  <dimension ref="A1:BK64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT4" t="n">
         <v>1.17</v>
@@ -1512,7 +1512,7 @@
         <v>1.29</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU14" t="n">
         <v>1.18</v>
@@ -3945,10 +3945,10 @@
         <v>0.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU17" t="n">
         <v>1.74</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT18" t="n">
         <v>0.43</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU21" t="n">
         <v>1.32</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU24" t="n">
         <v>2.71</v>
@@ -5772,7 +5772,7 @@
         <v>0.75</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT26" t="n">
         <v>0.43</v>
@@ -6587,7 +6587,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU30" t="n">
         <v>2.13</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT33" t="n">
         <v>1.33</v>
@@ -7399,7 +7399,7 @@
         <v>1.29</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU34" t="n">
         <v>1.59</v>
@@ -7599,7 +7599,7 @@
         <v>0.67</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT35" t="n">
         <v>1.33</v>
@@ -7805,7 +7805,7 @@
         <v>1.17</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU36" t="n">
         <v>1.43</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT38" t="n">
         <v>2.4</v>
@@ -8414,7 +8414,7 @@
         <v>2.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT40" t="n">
         <v>1.2</v>
@@ -9226,7 +9226,7 @@
         <v>1.29</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU43" t="n">
         <v>1.54</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT44" t="n">
         <v>1.8</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT47" t="n">
         <v>1.2</v>
@@ -10444,7 +10444,7 @@
         <v>2.33</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU49" t="n">
         <v>1.71</v>
@@ -10644,7 +10644,7 @@
         <v>1.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT50" t="n">
         <v>1.33</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT52" t="n">
         <v>1.33</v>
@@ -11659,7 +11659,7 @@
         <v>1.4</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT55" t="n">
         <v>1.17</v>
@@ -12932,6 +12932,615 @@
       </c>
       <c r="BK61" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3216062</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>44933.125</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3216063</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>44933.125</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['31', '48', '55', '58']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>6</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>9</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3216064</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>44933.23958333334</v>
+      </c>
+      <c r="F64" t="n">
+        <v>11</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>4</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['9', '12', '24', '84']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>6</v>
+      </c>
+      <c r="S64" t="n">
+        <v>9</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK64"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT11" t="n">
         <v>0.86</v>
@@ -4354,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.31</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT22" t="n">
         <v>1.8</v>
@@ -5572,7 +5572,7 @@
         <v>0.75</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.35</v>
@@ -8617,7 +8617,7 @@
         <v>1.88</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>2.04</v>
@@ -8817,7 +8817,7 @@
         <v>1.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT41" t="n">
         <v>1.17</v>
@@ -9832,7 +9832,7 @@
         <v>0.6</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT46" t="n">
         <v>0.43</v>
@@ -10038,7 +10038,7 @@
         <v>1.88</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.83</v>
@@ -11256,7 +11256,7 @@
         <v>2.25</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.81</v>
@@ -13541,6 +13541,209 @@
       </c>
       <c r="BK64" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3216065</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>44934.04166666666</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['43', '78']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>10</v>
+      </c>
+      <c r="S65" t="n">
+        <v>15</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -13605,13 +13605,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R65" t="n">
         <v>10</v>
       </c>
       <c r="S65" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T65" t="n">
         <v>2.75</v>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK65"/>
+  <dimension ref="A1:BK66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU15" t="n">
         <v>1.28</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT39" t="n">
         <v>0.6</v>
@@ -9023,7 +9023,7 @@
         <v>1.2</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU42" t="n">
         <v>1.49</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT49" t="n">
         <v>1.25</v>
@@ -11459,7 +11459,7 @@
         <v>1.33</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU54" t="n">
         <v>1.82</v>
@@ -12677,7 +12677,7 @@
         <v>0.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU60" t="n">
         <v>1.55</v>
@@ -12877,7 +12877,7 @@
         <v>1.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT61" t="n">
         <v>1.33</v>
@@ -13744,6 +13744,209 @@
       </c>
       <c r="BK65" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3216035</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>44936.35416666666</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['34', '60']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>6</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK66"/>
+  <dimension ref="A1:BK67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>1.29</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0.8100000000000001</v>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
         <v>0.86</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
         <v>1.8</v>
@@ -5978,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -8817,7 +8817,7 @@
         <v>1.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1.17</v>
@@ -9832,7 +9832,7 @@
         <v>0.6</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT46" t="n">
         <v>0.43</v>
@@ -11053,7 +11053,7 @@
         <v>2.6</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU52" t="n">
         <v>2.05</v>
@@ -13689,7 +13689,7 @@
         <v>1.2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -13947,6 +13947,209 @@
       </c>
       <c r="BK66" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3216066</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>44939.23958333334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>12</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['4', '26']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>9</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7</v>
+      </c>
+      <c r="S67" t="n">
+        <v>16</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X67" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK67"/>
+  <dimension ref="A1:BK70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
         <v>1.33</v>
@@ -1309,7 +1309,7 @@
         <v>0.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
         <v>2.4</v>
@@ -2933,7 +2933,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.2</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU14" t="n">
         <v>1.18</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU20" t="n">
         <v>1.25</v>
@@ -4963,7 +4963,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU22" t="n">
         <v>1.29</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>0.43</v>
@@ -5369,7 +5369,7 @@
         <v>2.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU24" t="n">
         <v>2.71</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU29" t="n">
         <v>1.22</v>
@@ -6787,10 +6787,10 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU31" t="n">
         <v>2.2</v>
@@ -7802,7 +7802,7 @@
         <v>1.25</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
         <v>0.86</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT39" t="n">
         <v>0.6</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU41" t="n">
         <v>1.32</v>
@@ -9429,7 +9429,7 @@
         <v>1.88</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU44" t="n">
         <v>1.95</v>
@@ -10238,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT48" t="n">
         <v>1.33</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU49" t="n">
         <v>1.71</v>
@@ -10850,7 +10850,7 @@
         <v>1.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU51" t="n">
         <v>2.02</v>
@@ -11253,7 +11253,7 @@
         <v>0.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -11662,7 +11662,7 @@
         <v>1.88</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU55" t="n">
         <v>1.95</v>
@@ -11865,7 +11865,7 @@
         <v>1.2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU56" t="n">
         <v>1.44</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT59" t="n">
         <v>0.43</v>
@@ -12877,7 +12877,7 @@
         <v>1.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT61" t="n">
         <v>1.33</v>
@@ -13083,7 +13083,7 @@
         <v>0.67</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU62" t="n">
         <v>1.94</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT66" t="n">
         <v>1.6</v>
@@ -14150,6 +14150,615 @@
       </c>
       <c r="BK67" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3216067</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>44940.125</v>
+      </c>
+      <c r="F68" t="n">
+        <v>12</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>6</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3216068</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>44940.23958333334</v>
+      </c>
+      <c r="F69" t="n">
+        <v>12</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7</v>
+      </c>
+      <c r="S69" t="n">
+        <v>10</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3216069</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>44940.35416666666</v>
+      </c>
+      <c r="F70" t="n">
+        <v>12</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['46', '90+12']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['6', '26']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>8</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7</v>
+      </c>
+      <c r="S70" t="n">
+        <v>15</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK70"/>
+  <dimension ref="A1:BK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT6" t="n">
         <v>0.43</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU7" t="n">
         <v>1.4</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT12" t="n">
         <v>1.67</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT13" t="n">
         <v>1.33</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT15" t="n">
         <v>1.6</v>
@@ -3745,7 +3745,7 @@
         <v>0.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU16" t="n">
         <v>1.32</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT27" t="n">
         <v>1.75</v>
@@ -6584,7 +6584,7 @@
         <v>0.67</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT30" t="n">
         <v>0.86</v>
@@ -6993,7 +6993,7 @@
         <v>1.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU32" t="n">
         <v>1.2</v>
@@ -8211,7 +8211,7 @@
         <v>0.67</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU38" t="n">
         <v>2.06</v>
@@ -9629,7 +9629,7 @@
         <v>2.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT45" t="n">
         <v>1.33</v>
@@ -10847,7 +10847,7 @@
         <v>1.75</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT51" t="n">
         <v>1.14</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT54" t="n">
         <v>1.6</v>
@@ -12065,7 +12065,7 @@
         <v>1.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT57" t="n">
         <v>1.33</v>
@@ -12271,7 +12271,7 @@
         <v>1.29</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -14540,22 +14540,22 @@
         <v>2.37</v>
       </c>
       <c r="BF69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG69" t="n">
         <v>7</v>
       </c>
       <c r="BH69" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI69" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BJ69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK69" t="n">
         <v>13</v>
-      </c>
-      <c r="BK69" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="70">
@@ -14620,13 +14620,13 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R70" t="n">
         <v>7</v>
       </c>
       <c r="S70" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T70" t="n">
         <v>3.97</v>
@@ -14746,19 +14746,425 @@
         <v>5</v>
       </c>
       <c r="BG70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH70" t="n">
         <v>8</v>
       </c>
-      <c r="BH70" t="n">
+      <c r="BI70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ70" t="n">
         <v>13</v>
       </c>
-      <c r="BI70" t="n">
+      <c r="BK70" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3216070</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>44941.04166666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>12</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>15</v>
+      </c>
+      <c r="S71" t="n">
+        <v>15</v>
+      </c>
+      <c r="T71" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>29</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3216071</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>44941.125</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
         <v>10</v>
       </c>
-      <c r="BJ70" t="n">
-        <v>18</v>
-      </c>
-      <c r="BK70" t="n">
-        <v>18</v>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>14</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14540,22 +14540,22 @@
         <v>2.37</v>
       </c>
       <c r="BF69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG69" t="n">
         <v>7</v>
       </c>
       <c r="BH69" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BI69" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ69" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BK69" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
@@ -14746,19 +14746,19 @@
         <v>5</v>
       </c>
       <c r="BG70" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH70" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BI70" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BJ70" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BK70" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK72"/>
+  <dimension ref="A1:BK73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.29</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU13" t="n">
         <v>1.69</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT23" t="n">
         <v>0.43</v>
@@ -6181,7 +6181,7 @@
         <v>1.29</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU28" t="n">
         <v>1.39</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT31" t="n">
         <v>1.14</v>
@@ -7602,7 +7602,7 @@
         <v>1.88</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU35" t="n">
         <v>2.11</v>
@@ -10647,7 +10647,7 @@
         <v>0.67</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU50" t="n">
         <v>2.05</v>
@@ -11253,7 +11253,7 @@
         <v>0.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -12068,7 +12068,7 @@
         <v>1.83</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU57" t="n">
         <v>1.23</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT59" t="n">
         <v>0.43</v>
@@ -14501,7 +14501,7 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT69" t="n">
         <v>1.14</v>
@@ -15165,6 +15165,209 @@
       </c>
       <c r="BK72" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3216072</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>44946.23958333334</v>
+      </c>
+      <c r="F73" t="n">
+        <v>13</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>6</v>
+      </c>
+      <c r="R73" t="n">
+        <v>9</v>
+      </c>
+      <c r="S73" t="n">
+        <v>15</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V73" t="n">
+        <v>4</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK73"/>
+  <dimension ref="A1:BK75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>1.4</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
         <v>1.14</v>
@@ -3745,7 +3745,7 @@
         <v>0.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
         <v>1.32</v>
@@ -4963,7 +4963,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU22" t="n">
         <v>1.29</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU29" t="n">
         <v>1.22</v>
@@ -6584,7 +6584,7 @@
         <v>0.67</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT30" t="n">
         <v>0.86</v>
@@ -6993,7 +6993,7 @@
         <v>1.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU32" t="n">
         <v>1.2</v>
@@ -8211,7 +8211,7 @@
         <v>0.67</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU38" t="n">
         <v>2.06</v>
@@ -9429,7 +9429,7 @@
         <v>1.88</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU44" t="n">
         <v>1.95</v>
@@ -9629,7 +9629,7 @@
         <v>2.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT45" t="n">
         <v>1.33</v>
@@ -10847,7 +10847,7 @@
         <v>1.75</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT51" t="n">
         <v>1.14</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT54" t="n">
         <v>1.6</v>
@@ -11865,7 +11865,7 @@
         <v>1.2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU56" t="n">
         <v>1.44</v>
@@ -12271,7 +12271,7 @@
         <v>1.29</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -14707,7 +14707,7 @@
         <v>2.2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU70" t="n">
         <v>1.51</v>
@@ -14910,7 +14910,7 @@
         <v>1.83</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU71" t="n">
         <v>1.4</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -15368,6 +15368,412 @@
       </c>
       <c r="BK73" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3216073</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>44947.125</v>
+      </c>
+      <c r="F74" t="n">
+        <v>13</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>8</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>13</v>
+      </c>
+      <c r="T74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3216074</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>44947.23958333334</v>
+      </c>
+      <c r="F75" t="n">
+        <v>13</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>9</v>
+      </c>
+      <c r="T75" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK75"/>
+  <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>0.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
         <v>0.86</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT8" t="n">
         <v>0.43</v>
@@ -2324,7 +2324,7 @@
         <v>0.75</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU10" t="n">
         <v>0.8100000000000001</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT14" t="n">
         <v>1.6</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>1.25</v>
@@ -5978,7 +5978,7 @@
         <v>1.83</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>1.14</v>
@@ -6790,7 +6790,7 @@
         <v>2.17</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>2.2</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT32" t="n">
         <v>2</v>
@@ -7196,7 +7196,7 @@
         <v>0.67</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU33" t="n">
         <v>2.41</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT34" t="n">
         <v>0.6</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT37" t="n">
         <v>1.29</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.53</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT39" t="n">
         <v>0.6</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.32</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT42" t="n">
         <v>1.6</v>
@@ -9223,7 +9223,7 @@
         <v>1.2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
         <v>0.86</v>
@@ -9632,7 +9632,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU45" t="n">
         <v>2.27</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU48" t="n">
         <v>1.51</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT49" t="n">
         <v>1.6</v>
@@ -10850,7 +10850,7 @@
         <v>1.5</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>2.02</v>
@@ -11053,7 +11053,7 @@
         <v>2.6</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU52" t="n">
         <v>2.05</v>
@@ -11662,7 +11662,7 @@
         <v>1.88</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.95</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT56" t="n">
         <v>1.43</v>
@@ -12268,7 +12268,7 @@
         <v>2.25</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT58" t="n">
         <v>2</v>
@@ -12877,10 +12877,10 @@
         <v>1.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU61" t="n">
         <v>1.69</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT66" t="n">
         <v>1.6</v>
@@ -14098,7 +14098,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU67" t="n">
         <v>1.5</v>
@@ -14504,7 +14504,7 @@
         <v>2.17</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>1.72</v>
@@ -14704,7 +14704,7 @@
         <v>1.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT70" t="n">
         <v>1.43</v>
@@ -15774,6 +15774,615 @@
       </c>
       <c r="BK75" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3216075</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>44947.35416666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>13</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>4</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['37', '80', '87']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>7</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>12</v>
+      </c>
+      <c r="T76" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3216076</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>44947.95833333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>13</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['32', '40']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>6</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3216077</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>44948.04166666666</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>6</v>
+      </c>
+      <c r="S78" t="n">
+        <v>10</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK78"/>
+  <dimension ref="A1:BK79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT9" t="n">
         <v>1.29</v>
@@ -2933,7 +2933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT16" t="n">
         <v>2</v>
@@ -4963,7 +4963,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU22" t="n">
         <v>1.29</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU29" t="n">
         <v>1.22</v>
@@ -9429,7 +9429,7 @@
         <v>1.88</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU44" t="n">
         <v>1.95</v>
@@ -11865,7 +11865,7 @@
         <v>1.17</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU56" t="n">
         <v>1.44</v>
@@ -12674,7 +12674,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT60" t="n">
         <v>1.6</v>
@@ -14707,7 +14707,7 @@
         <v>2.33</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU70" t="n">
         <v>1.51</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -16383,6 +16383,209 @@
       </c>
       <c r="BK78" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3216078</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>44952.19791666666</v>
+      </c>
+      <c r="F79" t="n">
+        <v>14</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['32', '52']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>9</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>12</v>
+      </c>
+      <c r="T79" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V79" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK79"/>
+  <dimension ref="A1:BK80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT8" t="n">
         <v>0.43</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT14" t="n">
         <v>1.6</v>
@@ -3542,7 +3542,7 @@
         <v>1.83</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU15" t="n">
         <v>1.28</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT32" t="n">
         <v>2</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU42" t="n">
         <v>1.49</v>
@@ -11459,7 +11459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU54" t="n">
         <v>1.82</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT56" t="n">
         <v>1.63</v>
@@ -12677,7 +12677,7 @@
         <v>0.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU60" t="n">
         <v>1.55</v>
@@ -13895,7 +13895,7 @@
         <v>2.33</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU66" t="n">
         <v>1.66</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT78" t="n">
         <v>1.29</v>
@@ -16586,6 +16586,209 @@
       </c>
       <c r="BK79" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3216079</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>44953.23958333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>14</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>4</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['52', '72', '76', '90+4']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>6</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>11</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK80"/>
+  <dimension ref="A1:BK83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT5" t="n">
         <v>0.86</v>
@@ -1715,7 +1715,7 @@
         <v>1.83</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.43</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT10" t="n">
         <v>1.4</v>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT11" t="n">
         <v>0.86</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU21" t="n">
         <v>1.32</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT22" t="n">
         <v>1.63</v>
@@ -5166,7 +5166,7 @@
         <v>2.17</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>2.6</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>2.03</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT28" t="n">
         <v>1.14</v>
@@ -7196,7 +7196,7 @@
         <v>0.67</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>2.41</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU34" t="n">
         <v>1.59</v>
@@ -7599,7 +7599,7 @@
         <v>0.67</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT35" t="n">
         <v>1.14</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU37" t="n">
         <v>1.53</v>
@@ -8414,7 +8414,7 @@
         <v>2.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -8817,7 +8817,7 @@
         <v>1.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9223,7 +9223,7 @@
         <v>1.2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT43" t="n">
         <v>0.86</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT44" t="n">
         <v>1.63</v>
@@ -9632,7 +9632,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU45" t="n">
         <v>2.27</v>
@@ -9832,10 +9832,10 @@
         <v>0.6</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU46" t="n">
         <v>1.51</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU48" t="n">
         <v>1.51</v>
@@ -11659,7 +11659,7 @@
         <v>1.4</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -12268,7 +12268,7 @@
         <v>2.25</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT58" t="n">
         <v>2</v>
@@ -12474,7 +12474,7 @@
         <v>2.17</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU59" t="n">
         <v>1.79</v>
@@ -12880,7 +12880,7 @@
         <v>2.33</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU61" t="n">
         <v>1.69</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT63" t="n">
         <v>0.86</v>
@@ -13489,7 +13489,7 @@
         <v>2.6</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU64" t="n">
         <v>2.04</v>
@@ -13689,7 +13689,7 @@
         <v>1.2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -14095,7 +14095,7 @@
         <v>1.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT67" t="n">
         <v>1.4</v>
@@ -16125,7 +16125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT77" t="n">
         <v>1.4</v>
@@ -16331,7 +16331,7 @@
         <v>1.43</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU78" t="n">
         <v>1.46</v>
@@ -16789,6 +16789,615 @@
       </c>
       <c r="BK80" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3216080</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>44953.95833333334</v>
+      </c>
+      <c r="F81" t="n">
+        <v>14</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="n">
+        <v>4</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['11', '20']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['22', '80']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>7</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V81" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3216081</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>44954.125</v>
+      </c>
+      <c r="F82" t="n">
+        <v>14</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="n">
+        <v>4</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['67', '81']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['60', '89']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>7</v>
+      </c>
+      <c r="S82" t="n">
+        <v>10</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3216082</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>44954.23958333334</v>
+      </c>
+      <c r="F83" t="n">
+        <v>14</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['30', '73']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['35', '60']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>7</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V83" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK83"/>
+  <dimension ref="A1:BK84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT2" t="n">
         <v>0.67</v>
@@ -1512,7 +1512,7 @@
         <v>1.44</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.43</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0.67</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU17" t="n">
         <v>1.74</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT24" t="n">
         <v>1.6</v>
@@ -5772,7 +5772,7 @@
         <v>0.75</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT26" t="n">
         <v>0.5</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU30" t="n">
         <v>2.13</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU36" t="n">
         <v>1.43</v>
@@ -9226,7 +9226,7 @@
         <v>1.44</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU43" t="n">
         <v>1.54</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT52" t="n">
         <v>1.4</v>
@@ -13286,7 +13286,7 @@
         <v>1.78</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU63" t="n">
         <v>1.87</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT64" t="n">
         <v>0.67</v>
@@ -17398,6 +17398,209 @@
       </c>
       <c r="BK83" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3216083</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>44955.04166666666</v>
+      </c>
+      <c r="F84" t="n">
+        <v>14</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3</v>
+      </c>
+      <c r="K84" t="n">
+        <v>4</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="n">
+        <v>6</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['12', '52', '90+1']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['1', '17', '43']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>12</v>
+      </c>
+      <c r="R84" t="n">
+        <v>7</v>
+      </c>
+      <c r="S84" t="n">
+        <v>19</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>30</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -17453,7 +17453,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['12', '52', '90+1']</t>
+          <t>['12', '52', '90+2']</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK84"/>
+  <dimension ref="A1:BK89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT2" t="n">
         <v>0.67</v>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>1.25</v>
@@ -2527,7 +2527,7 @@
         <v>1.44</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU10" t="n">
         <v>0.8100000000000001</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>1.69</v>
@@ -3339,7 +3339,7 @@
         <v>1.43</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU14" t="n">
         <v>1.18</v>
@@ -3542,7 +3542,7 @@
         <v>1.83</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU15" t="n">
         <v>1.28</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
         <v>2</v>
@@ -3945,7 +3945,7 @@
         <v>0.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
         <v>0.88</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT23" t="n">
         <v>0.5</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>2.71</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5772,7 +5772,7 @@
         <v>0.75</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT26" t="n">
         <v>0.5</v>
@@ -5978,7 +5978,7 @@
         <v>1.83</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6181,7 +6181,7 @@
         <v>1.44</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.39</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>1.25</v>
@@ -7602,7 +7602,7 @@
         <v>1.78</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>2.11</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
         <v>2</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT39" t="n">
         <v>0.67</v>
@@ -9023,7 +9023,7 @@
         <v>1.43</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU42" t="n">
         <v>1.49</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>1.71</v>
@@ -10644,10 +10644,10 @@
         <v>1.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>2.05</v>
@@ -11050,10 +11050,10 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU52" t="n">
         <v>2.05</v>
@@ -11253,7 +11253,7 @@
         <v>0.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -11459,7 +11459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU54" t="n">
         <v>1.82</v>
@@ -12068,7 +12068,7 @@
         <v>1.83</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>1.23</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT59" t="n">
         <v>0.5</v>
@@ -12674,10 +12674,10 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU60" t="n">
         <v>1.55</v>
@@ -12877,7 +12877,7 @@
         <v>1.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT61" t="n">
         <v>1.25</v>
@@ -13080,10 +13080,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU62" t="n">
         <v>1.94</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT64" t="n">
         <v>0.67</v>
@@ -13892,10 +13892,10 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU66" t="n">
         <v>1.66</v>
@@ -14098,7 +14098,7 @@
         <v>1.43</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU67" t="n">
         <v>1.5</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU68" t="n">
         <v>1.44</v>
@@ -14501,7 +14501,7 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14704,7 +14704,7 @@
         <v>1.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT70" t="n">
         <v>1.63</v>
@@ -15313,10 +15313,10 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.67</v>
@@ -15922,7 +15922,7 @@
         <v>1.14</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16128,7 +16128,7 @@
         <v>1.44</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU77" t="n">
         <v>1.73</v>
@@ -16531,7 +16531,7 @@
         <v>1.43</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT79" t="n">
         <v>1.63</v>
@@ -16737,7 +16737,7 @@
         <v>1.43</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU80" t="n">
         <v>1.43</v>
@@ -17546,7 +17546,7 @@
         <v>0.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT84" t="n">
         <v>0.88</v>
@@ -17601,6 +17601,1021 @@
       </c>
       <c r="BK84" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3216084</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>44960.23958333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>15</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>4</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['32', '54', '90+1']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>6</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3216086</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>44961.125</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2</v>
+      </c>
+      <c r="K86" t="n">
+        <v>3</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['10', '58', '72']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['20', '33']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>7</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>11</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3216085</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>44961.125</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3</v>
+      </c>
+      <c r="L87" t="n">
+        <v>6</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>7</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['3', '33', '43', '68', '77', '88']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>9</v>
+      </c>
+      <c r="R87" t="n">
+        <v>6</v>
+      </c>
+      <c r="S87" t="n">
+        <v>15</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V87" t="n">
+        <v>6</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3216087</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>44961.23958333334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>15</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>3</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['34', '82']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>7</v>
+      </c>
+      <c r="R88" t="n">
+        <v>9</v>
+      </c>
+      <c r="S88" t="n">
+        <v>16</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V88" t="n">
+        <v>4</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3216088</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>44961.35416666666</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="n">
+        <v>4</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['44', '79']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['59', '88']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>7</v>
+      </c>
+      <c r="R89" t="n">
+        <v>6</v>
+      </c>
+      <c r="S89" t="n">
+        <v>13</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK89"/>
+  <dimension ref="A1:BK90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.43</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>1.14</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4760,7 +4760,7 @@
         <v>1.78</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU21" t="n">
         <v>1.32</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
         <v>1.17</v>
@@ -7399,7 +7399,7 @@
         <v>1.44</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU34" t="n">
         <v>1.59</v>
@@ -8414,7 +8414,7 @@
         <v>2.14</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>1.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -13489,7 +13489,7 @@
         <v>2.43</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU64" t="n">
         <v>2.04</v>
@@ -14907,7 +14907,7 @@
         <v>2.4</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
         <v>2</v>
@@ -17143,7 +17143,7 @@
         <v>1.43</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU82" t="n">
         <v>1.56</v>
@@ -18062,7 +18062,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['3', '33', '43', '68', '77', '88']</t>
+          <t>['3', '33', '43', '68', '77', '87']</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -18265,7 +18265,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>['34', '82']</t>
+          <t>['35', '82']</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -18616,6 +18616,209 @@
       </c>
       <c r="BK89" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3216089</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>44962.04166666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>12</v>
+      </c>
+      <c r="S90" t="n">
+        <v>17</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,9 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -617,6 +620,9 @@
   </si>
   <si>
     <t>['59', '88']</t>
+  </si>
+  <si>
+    <t>['19', '69']</t>
   </si>
 </sst>
 </file>
@@ -978,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK90"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1222,7 +1228,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1500,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1604,7 +1610,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1795,7 +1801,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2177,7 +2183,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2264,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT7">
         <v>2</v>
@@ -2368,7 +2374,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2559,7 +2565,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2750,7 +2756,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2840,7 +2846,7 @@
         <v>1.44</v>
       </c>
       <c r="AT10">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU10">
         <v>0.8100000000000001</v>
@@ -3132,7 +3138,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3323,7 +3329,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3705,7 +3711,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3896,7 +3902,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4087,7 +4093,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4278,7 +4284,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4747,7 +4753,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -4851,7 +4857,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5042,7 +5048,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5233,7 +5239,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5424,7 +5430,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5997,7 +6003,7 @@
         <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6087,7 +6093,7 @@
         <v>2</v>
       </c>
       <c r="AT27">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU27">
         <v>1.3</v>
@@ -6466,7 +6472,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT29">
         <v>1.63</v>
@@ -6570,7 +6576,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6952,7 +6958,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7143,7 +7149,7 @@
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7334,7 +7340,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7525,7 +7531,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7716,7 +7722,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7803,7 +7809,7 @@
         <v>1.25</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT36">
         <v>0.88</v>
@@ -7907,7 +7913,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8289,7 +8295,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8480,7 +8486,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8671,7 +8677,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8862,7 +8868,7 @@
         <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9053,7 +9059,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>16</v>
@@ -9244,7 +9250,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10008,7 +10014,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10095,7 +10101,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT48">
         <v>1.25</v>
@@ -10199,7 +10205,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10390,7 +10396,7 @@
         <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10862,7 +10868,7 @@
         <v>2.43</v>
       </c>
       <c r="AT52">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU52">
         <v>2.05</v>
@@ -10963,7 +10969,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11536,7 +11542,7 @@
         <v>78</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11918,7 +11924,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12300,7 +12306,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12682,7 +12688,7 @@
         <v>78</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13446,7 +13452,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13637,7 +13643,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13727,7 +13733,7 @@
         <v>1.43</v>
       </c>
       <c r="AT67">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU67">
         <v>1.5</v>
@@ -13828,7 +13834,7 @@
         <v>78</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -13915,7 +13921,7 @@
         <v>1.25</v>
       </c>
       <c r="AS68">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT68">
         <v>1.33</v>
@@ -14019,7 +14025,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14210,7 +14216,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14401,7 +14407,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -14592,7 +14598,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15252,7 +15258,7 @@
         <v>2.17</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT75">
         <v>2</v>
@@ -15547,7 +15553,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15637,7 +15643,7 @@
         <v>1.44</v>
       </c>
       <c r="AT77">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU77">
         <v>1.73</v>
@@ -15738,7 +15744,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -15929,7 +15935,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16311,7 +16317,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16502,7 +16508,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16693,7 +16699,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16884,7 +16890,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17266,7 +17272,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17356,7 +17362,7 @@
         <v>1</v>
       </c>
       <c r="AT86">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU86">
         <v>1.89</v>
@@ -17457,7 +17463,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17839,7 +17845,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18172,6 +18178,197 @@
       </c>
       <c r="BK90">
         <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>3216090</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>44967.23958333334</v>
+      </c>
+      <c r="F91">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>66</v>
+      </c>
+      <c r="H91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>148</v>
+      </c>
+      <c r="P91" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q91">
+        <v>7</v>
+      </c>
+      <c r="R91">
+        <v>6</v>
+      </c>
+      <c r="S91">
+        <v>13</v>
+      </c>
+      <c r="T91">
+        <v>3.3</v>
+      </c>
+      <c r="U91">
+        <v>2.05</v>
+      </c>
+      <c r="V91">
+        <v>2.95</v>
+      </c>
+      <c r="W91">
+        <v>1.38</v>
+      </c>
+      <c r="X91">
+        <v>2.8</v>
+      </c>
+      <c r="Y91">
+        <v>2.65</v>
+      </c>
+      <c r="Z91">
+        <v>1.41</v>
+      </c>
+      <c r="AA91">
+        <v>6.75</v>
+      </c>
+      <c r="AB91">
+        <v>1.09</v>
+      </c>
+      <c r="AC91">
+        <v>2.79</v>
+      </c>
+      <c r="AD91">
+        <v>3.52</v>
+      </c>
+      <c r="AE91">
+        <v>2.53</v>
+      </c>
+      <c r="AF91">
+        <v>1.05</v>
+      </c>
+      <c r="AG91">
+        <v>11</v>
+      </c>
+      <c r="AH91">
+        <v>1.28</v>
+      </c>
+      <c r="AI91">
+        <v>3.6</v>
+      </c>
+      <c r="AJ91">
+        <v>1.86</v>
+      </c>
+      <c r="AK91">
+        <v>1.99</v>
+      </c>
+      <c r="AL91">
+        <v>1.66</v>
+      </c>
+      <c r="AM91">
+        <v>2.05</v>
+      </c>
+      <c r="AN91">
+        <v>1.53</v>
+      </c>
+      <c r="AO91">
+        <v>1.32</v>
+      </c>
+      <c r="AP91">
+        <v>1.4</v>
+      </c>
+      <c r="AQ91">
+        <v>1</v>
+      </c>
+      <c r="AR91">
+        <v>1.17</v>
+      </c>
+      <c r="AS91">
+        <v>0.89</v>
+      </c>
+      <c r="AT91">
+        <v>1.43</v>
+      </c>
+      <c r="AU91">
+        <v>1.48</v>
+      </c>
+      <c r="AV91">
+        <v>1.66</v>
+      </c>
+      <c r="AW91">
+        <v>3.14</v>
+      </c>
+      <c r="AX91">
+        <v>1.9</v>
+      </c>
+      <c r="AY91">
+        <v>9.5</v>
+      </c>
+      <c r="AZ91">
+        <v>2.2</v>
+      </c>
+      <c r="BA91">
+        <v>1.12</v>
+      </c>
+      <c r="BB91">
+        <v>1.29</v>
+      </c>
+      <c r="BC91">
+        <v>1.55</v>
+      </c>
+      <c r="BD91">
+        <v>1.9</v>
+      </c>
+      <c r="BE91">
+        <v>2.25</v>
+      </c>
+      <c r="BF91">
+        <v>4</v>
+      </c>
+      <c r="BG91">
+        <v>6</v>
+      </c>
+      <c r="BH91">
+        <v>7</v>
+      </c>
+      <c r="BI91">
+        <v>15</v>
+      </c>
+      <c r="BJ91">
+        <v>11</v>
+      </c>
+      <c r="BK91">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,18 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['43', '48']</t>
+  </si>
+  <si>
+    <t>['25', '71']</t>
+  </si>
+  <si>
+    <t>['37', '58']</t>
+  </si>
+  <si>
+    <t>['32', '49']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -623,6 +635,18 @@
   </si>
   <si>
     <t>['19', '69']</t>
+  </si>
+  <si>
+    <t>['68', '76', '86']</t>
+  </si>
+  <si>
+    <t>['16', '62', '76', '90+2']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1252,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1610,7 +1634,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1700,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1801,7 +1825,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1891,7 +1915,7 @@
         <v>1.44</v>
       </c>
       <c r="AT5">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2079,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT6">
         <v>0.5</v>
@@ -2183,7 +2207,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2273,7 +2297,7 @@
         <v>0.89</v>
       </c>
       <c r="AT7">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU7">
         <v>1.4</v>
@@ -2374,7 +2398,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2461,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT8">
         <v>0.5</v>
@@ -2565,7 +2589,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2756,7 +2780,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3034,10 +3058,10 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT11">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3138,7 +3162,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3225,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3329,7 +3353,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3416,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -3607,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT14">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU14">
         <v>1.18</v>
@@ -3711,7 +3735,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3798,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT15">
         <v>1.14</v>
@@ -3902,7 +3926,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3992,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU16">
         <v>1.32</v>
@@ -4093,7 +4117,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4183,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU17">
         <v>1.74</v>
@@ -4284,7 +4308,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4562,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -4756,7 +4780,7 @@
         <v>0.89</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU20">
         <v>1.25</v>
@@ -4857,7 +4881,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5048,7 +5072,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5135,10 +5159,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT22">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU22">
         <v>1.29</v>
@@ -5239,7 +5263,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5430,7 +5454,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5520,7 +5544,7 @@
         <v>2.43</v>
       </c>
       <c r="AT24">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU24">
         <v>2.71</v>
@@ -6003,7 +6027,7 @@
         <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6090,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT27">
         <v>1.43</v>
@@ -6475,7 +6499,7 @@
         <v>0.89</v>
       </c>
       <c r="AT29">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU29">
         <v>1.22</v>
@@ -6576,7 +6600,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6663,10 +6687,10 @@
         <v>0.67</v>
       </c>
       <c r="AS30">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT30">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU30">
         <v>2.13</v>
@@ -6857,7 +6881,7 @@
         <v>2.29</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU31">
         <v>2.2</v>
@@ -6958,7 +6982,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7045,10 +7069,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU32">
         <v>1.2</v>
@@ -7149,7 +7173,7 @@
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7340,7 +7364,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7531,7 +7555,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7722,7 +7746,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7812,7 +7836,7 @@
         <v>0.89</v>
       </c>
       <c r="AT36">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU36">
         <v>1.43</v>
@@ -7913,7 +7937,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8194,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="AT38">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU38">
         <v>2.06</v>
@@ -8295,7 +8319,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8382,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT39">
         <v>0.57</v>
@@ -8486,7 +8510,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8677,7 +8701,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8764,10 +8788,10 @@
         <v>1.33</v>
       </c>
       <c r="AS41">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU41">
         <v>1.32</v>
@@ -8868,7 +8892,7 @@
         <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8955,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT42">
         <v>1.14</v>
@@ -9059,7 +9083,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>16</v>
@@ -9149,7 +9173,7 @@
         <v>1.44</v>
       </c>
       <c r="AT43">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU43">
         <v>1.54</v>
@@ -9250,7 +9274,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9340,7 +9364,7 @@
         <v>1.78</v>
       </c>
       <c r="AT44">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU44">
         <v>1.95</v>
@@ -9528,7 +9552,7 @@
         <v>2.33</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
         <v>1.25</v>
@@ -9719,7 +9743,7 @@
         <v>0.6</v>
       </c>
       <c r="AS46">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT46">
         <v>0.5</v>
@@ -10014,7 +10038,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10205,7 +10229,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10292,10 +10316,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT49">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU49">
         <v>1.71</v>
@@ -10396,7 +10420,7 @@
         <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10674,10 +10698,10 @@
         <v>1.75</v>
       </c>
       <c r="AS51">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU51">
         <v>2.02</v>
@@ -10969,7 +10993,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11247,7 +11271,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT54">
         <v>1.14</v>
@@ -11441,7 +11465,7 @@
         <v>1.78</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU55">
         <v>1.95</v>
@@ -11542,7 +11566,7 @@
         <v>78</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11629,10 +11653,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT56">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU56">
         <v>1.44</v>
@@ -11820,7 +11844,7 @@
         <v>1.6</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -11924,7 +11948,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12014,7 +12038,7 @@
         <v>1.44</v>
       </c>
       <c r="AT58">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU58">
         <v>1.62</v>
@@ -12306,7 +12330,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12584,7 +12608,7 @@
         <v>1.6</v>
       </c>
       <c r="AS61">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT61">
         <v>1.25</v>
@@ -12688,7 +12712,7 @@
         <v>78</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12778,7 +12802,7 @@
         <v>1</v>
       </c>
       <c r="AT62">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU62">
         <v>1.94</v>
@@ -12969,7 +12993,7 @@
         <v>1.78</v>
       </c>
       <c r="AT63">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU63">
         <v>1.87</v>
@@ -13348,7 +13372,7 @@
         <v>1.2</v>
       </c>
       <c r="AS65">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -13452,7 +13476,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13539,7 +13563,7 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT66">
         <v>1.14</v>
@@ -13643,7 +13667,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13730,7 +13754,7 @@
         <v>1.33</v>
       </c>
       <c r="AS67">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT67">
         <v>1.43</v>
@@ -13834,7 +13858,7 @@
         <v>78</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -13924,7 +13948,7 @@
         <v>0.89</v>
       </c>
       <c r="AT68">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU68">
         <v>1.44</v>
@@ -14025,7 +14049,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14115,7 +14139,7 @@
         <v>2.29</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU69">
         <v>1.72</v>
@@ -14216,7 +14240,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14303,10 +14327,10 @@
         <v>1.8</v>
       </c>
       <c r="AS70">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT70">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU70">
         <v>1.51</v>
@@ -14407,7 +14431,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -14494,10 +14518,10 @@
         <v>2.4</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU71">
         <v>1.4</v>
@@ -14598,7 +14622,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14685,7 +14709,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -15067,10 +15091,10 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT74">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU74">
         <v>1.71</v>
@@ -15261,7 +15285,7 @@
         <v>0.89</v>
       </c>
       <c r="AT75">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU75">
         <v>1.46</v>
@@ -15449,10 +15473,10 @@
         <v>1.14</v>
       </c>
       <c r="AS76">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU76">
         <v>1.57</v>
@@ -15553,7 +15577,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15744,7 +15768,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -15831,7 +15855,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT78">
         <v>1.25</v>
@@ -15935,7 +15959,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16025,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU79">
         <v>1.59</v>
@@ -16213,7 +16237,7 @@
         <v>1.6</v>
       </c>
       <c r="AS80">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT80">
         <v>1.14</v>
@@ -16317,7 +16341,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16508,7 +16532,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16595,7 +16619,7 @@
         <v>0.6</v>
       </c>
       <c r="AS82">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT82">
         <v>0.57</v>
@@ -16699,7 +16723,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16890,7 +16914,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -16980,7 +17004,7 @@
         <v>2.43</v>
       </c>
       <c r="AT84">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU84">
         <v>1.99</v>
@@ -17171,7 +17195,7 @@
         <v>1</v>
       </c>
       <c r="AT85">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU85">
         <v>1.58</v>
@@ -17272,7 +17296,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17463,7 +17487,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17845,7 +17869,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -17932,7 +17956,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18123,7 +18147,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT90">
         <v>0.57</v>
@@ -18227,7 +18251,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -18369,6 +18393,961 @@
       </c>
       <c r="BK91">
         <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>3216091</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44968.125</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>5</v>
+      </c>
+      <c r="O92" t="s">
+        <v>149</v>
+      </c>
+      <c r="P92" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q92">
+        <v>7</v>
+      </c>
+      <c r="R92">
+        <v>11</v>
+      </c>
+      <c r="S92">
+        <v>18</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+      <c r="U92">
+        <v>2.3</v>
+      </c>
+      <c r="V92">
+        <v>3.25</v>
+      </c>
+      <c r="W92">
+        <v>1.33</v>
+      </c>
+      <c r="X92">
+        <v>3.25</v>
+      </c>
+      <c r="Y92">
+        <v>2.5</v>
+      </c>
+      <c r="Z92">
+        <v>1.5</v>
+      </c>
+      <c r="AA92">
+        <v>6.5</v>
+      </c>
+      <c r="AB92">
+        <v>1.11</v>
+      </c>
+      <c r="AC92">
+        <v>2.84</v>
+      </c>
+      <c r="AD92">
+        <v>3.24</v>
+      </c>
+      <c r="AE92">
+        <v>2.55</v>
+      </c>
+      <c r="AF92">
+        <v>1.03</v>
+      </c>
+      <c r="AG92">
+        <v>15</v>
+      </c>
+      <c r="AH92">
+        <v>1.22</v>
+      </c>
+      <c r="AI92">
+        <v>4.2</v>
+      </c>
+      <c r="AJ92">
+        <v>1.92</v>
+      </c>
+      <c r="AK92">
+        <v>1.88</v>
+      </c>
+      <c r="AL92">
+        <v>1.57</v>
+      </c>
+      <c r="AM92">
+        <v>2.25</v>
+      </c>
+      <c r="AN92">
+        <v>1.44</v>
+      </c>
+      <c r="AO92">
+        <v>1.28</v>
+      </c>
+      <c r="AP92">
+        <v>1.52</v>
+      </c>
+      <c r="AQ92">
+        <v>1.5</v>
+      </c>
+      <c r="AR92">
+        <v>0.88</v>
+      </c>
+      <c r="AS92">
+        <v>1.33</v>
+      </c>
+      <c r="AT92">
+        <v>1.11</v>
+      </c>
+      <c r="AU92">
+        <v>1.7</v>
+      </c>
+      <c r="AV92">
+        <v>1.69</v>
+      </c>
+      <c r="AW92">
+        <v>3.39</v>
+      </c>
+      <c r="AX92">
+        <v>1.82</v>
+      </c>
+      <c r="AY92">
+        <v>10</v>
+      </c>
+      <c r="AZ92">
+        <v>2.35</v>
+      </c>
+      <c r="BA92">
+        <v>1.11</v>
+      </c>
+      <c r="BB92">
+        <v>1.22</v>
+      </c>
+      <c r="BC92">
+        <v>1.37</v>
+      </c>
+      <c r="BD92">
+        <v>1.62</v>
+      </c>
+      <c r="BE92">
+        <v>2.03</v>
+      </c>
+      <c r="BF92">
+        <v>7</v>
+      </c>
+      <c r="BG92">
+        <v>8</v>
+      </c>
+      <c r="BH92">
+        <v>6</v>
+      </c>
+      <c r="BI92">
+        <v>8</v>
+      </c>
+      <c r="BJ92">
+        <v>13</v>
+      </c>
+      <c r="BK92">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3216092</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>44968.23958333334</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>69</v>
+      </c>
+      <c r="H93" t="s">
+        <v>67</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>78</v>
+      </c>
+      <c r="P93" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q93">
+        <v>11</v>
+      </c>
+      <c r="R93">
+        <v>4</v>
+      </c>
+      <c r="S93">
+        <v>15</v>
+      </c>
+      <c r="T93">
+        <v>3.25</v>
+      </c>
+      <c r="U93">
+        <v>2.2</v>
+      </c>
+      <c r="V93">
+        <v>3.2</v>
+      </c>
+      <c r="W93">
+        <v>1.4</v>
+      </c>
+      <c r="X93">
+        <v>2.75</v>
+      </c>
+      <c r="Y93">
+        <v>2.75</v>
+      </c>
+      <c r="Z93">
+        <v>1.4</v>
+      </c>
+      <c r="AA93">
+        <v>8</v>
+      </c>
+      <c r="AB93">
+        <v>1.08</v>
+      </c>
+      <c r="AC93">
+        <v>2.79</v>
+      </c>
+      <c r="AD93">
+        <v>3.24</v>
+      </c>
+      <c r="AE93">
+        <v>2.59</v>
+      </c>
+      <c r="AF93">
+        <v>1.05</v>
+      </c>
+      <c r="AG93">
+        <v>11</v>
+      </c>
+      <c r="AH93">
+        <v>1.3</v>
+      </c>
+      <c r="AI93">
+        <v>3.5</v>
+      </c>
+      <c r="AJ93">
+        <v>1.92</v>
+      </c>
+      <c r="AK93">
+        <v>1.88</v>
+      </c>
+      <c r="AL93">
+        <v>1.7</v>
+      </c>
+      <c r="AM93">
+        <v>2.05</v>
+      </c>
+      <c r="AN93">
+        <v>1.49</v>
+      </c>
+      <c r="AO93">
+        <v>1.31</v>
+      </c>
+      <c r="AP93">
+        <v>1.44</v>
+      </c>
+      <c r="AQ93">
+        <v>2</v>
+      </c>
+      <c r="AR93">
+        <v>1.63</v>
+      </c>
+      <c r="AS93">
+        <v>1.75</v>
+      </c>
+      <c r="AT93">
+        <v>1.78</v>
+      </c>
+      <c r="AU93">
+        <v>1.41</v>
+      </c>
+      <c r="AV93">
+        <v>2.02</v>
+      </c>
+      <c r="AW93">
+        <v>3.43</v>
+      </c>
+      <c r="AX93">
+        <v>2.28</v>
+      </c>
+      <c r="AY93">
+        <v>8.5</v>
+      </c>
+      <c r="AZ93">
+        <v>1.82</v>
+      </c>
+      <c r="BA93">
+        <v>1.12</v>
+      </c>
+      <c r="BB93">
+        <v>1.27</v>
+      </c>
+      <c r="BC93">
+        <v>1.52</v>
+      </c>
+      <c r="BD93">
+        <v>1.93</v>
+      </c>
+      <c r="BE93">
+        <v>2.42</v>
+      </c>
+      <c r="BF93">
+        <v>5</v>
+      </c>
+      <c r="BG93">
+        <v>4</v>
+      </c>
+      <c r="BH93">
+        <v>8</v>
+      </c>
+      <c r="BI93">
+        <v>8</v>
+      </c>
+      <c r="BJ93">
+        <v>13</v>
+      </c>
+      <c r="BK93">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>3216093</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>44968.35416666666</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s">
+        <v>65</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>6</v>
+      </c>
+      <c r="O94" t="s">
+        <v>150</v>
+      </c>
+      <c r="P94" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q94">
+        <v>6</v>
+      </c>
+      <c r="R94">
+        <v>3</v>
+      </c>
+      <c r="S94">
+        <v>9</v>
+      </c>
+      <c r="T94">
+        <v>4.75</v>
+      </c>
+      <c r="U94">
+        <v>2.3</v>
+      </c>
+      <c r="V94">
+        <v>2.3</v>
+      </c>
+      <c r="W94">
+        <v>1.33</v>
+      </c>
+      <c r="X94">
+        <v>3.25</v>
+      </c>
+      <c r="Y94">
+        <v>2.63</v>
+      </c>
+      <c r="Z94">
+        <v>1.44</v>
+      </c>
+      <c r="AA94">
+        <v>7</v>
+      </c>
+      <c r="AB94">
+        <v>1.1</v>
+      </c>
+      <c r="AC94">
+        <v>4.2</v>
+      </c>
+      <c r="AD94">
+        <v>3.83</v>
+      </c>
+      <c r="AE94">
+        <v>1.65</v>
+      </c>
+      <c r="AF94">
+        <v>1.03</v>
+      </c>
+      <c r="AG94">
+        <v>13</v>
+      </c>
+      <c r="AH94">
+        <v>1.25</v>
+      </c>
+      <c r="AI94">
+        <v>3.75</v>
+      </c>
+      <c r="AJ94">
+        <v>1.7</v>
+      </c>
+      <c r="AK94">
+        <v>2.15</v>
+      </c>
+      <c r="AL94">
+        <v>1.75</v>
+      </c>
+      <c r="AM94">
+        <v>2</v>
+      </c>
+      <c r="AN94">
+        <v>2.15</v>
+      </c>
+      <c r="AO94">
+        <v>1.25</v>
+      </c>
+      <c r="AP94">
+        <v>1.17</v>
+      </c>
+      <c r="AQ94">
+        <v>2.14</v>
+      </c>
+      <c r="AR94">
+        <v>2</v>
+      </c>
+      <c r="AS94">
+        <v>1.88</v>
+      </c>
+      <c r="AT94">
+        <v>2.13</v>
+      </c>
+      <c r="AU94">
+        <v>1.67</v>
+      </c>
+      <c r="AV94">
+        <v>1.91</v>
+      </c>
+      <c r="AW94">
+        <v>3.58</v>
+      </c>
+      <c r="AX94">
+        <v>3.06</v>
+      </c>
+      <c r="AY94">
+        <v>9</v>
+      </c>
+      <c r="AZ94">
+        <v>1.51</v>
+      </c>
+      <c r="BA94">
+        <v>1.16</v>
+      </c>
+      <c r="BB94">
+        <v>1.33</v>
+      </c>
+      <c r="BC94">
+        <v>1.6</v>
+      </c>
+      <c r="BD94">
+        <v>2.01</v>
+      </c>
+      <c r="BE94">
+        <v>2.59</v>
+      </c>
+      <c r="BF94">
+        <v>5</v>
+      </c>
+      <c r="BG94">
+        <v>6</v>
+      </c>
+      <c r="BH94">
+        <v>5</v>
+      </c>
+      <c r="BI94">
+        <v>8</v>
+      </c>
+      <c r="BJ94">
+        <v>10</v>
+      </c>
+      <c r="BK94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>3216094</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>44969.04166666666</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>70</v>
+      </c>
+      <c r="H95" t="s">
+        <v>71</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>151</v>
+      </c>
+      <c r="P95" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q95">
+        <v>2</v>
+      </c>
+      <c r="R95">
+        <v>8</v>
+      </c>
+      <c r="S95">
+        <v>10</v>
+      </c>
+      <c r="T95">
+        <v>3.4</v>
+      </c>
+      <c r="U95">
+        <v>2.2</v>
+      </c>
+      <c r="V95">
+        <v>3</v>
+      </c>
+      <c r="W95">
+        <v>1.36</v>
+      </c>
+      <c r="X95">
+        <v>3</v>
+      </c>
+      <c r="Y95">
+        <v>2.75</v>
+      </c>
+      <c r="Z95">
+        <v>1.4</v>
+      </c>
+      <c r="AA95">
+        <v>7</v>
+      </c>
+      <c r="AB95">
+        <v>1.1</v>
+      </c>
+      <c r="AC95">
+        <v>2.39</v>
+      </c>
+      <c r="AD95">
+        <v>3.23</v>
+      </c>
+      <c r="AE95">
+        <v>2.69</v>
+      </c>
+      <c r="AF95">
+        <v>1.04</v>
+      </c>
+      <c r="AG95">
+        <v>12</v>
+      </c>
+      <c r="AH95">
+        <v>1.28</v>
+      </c>
+      <c r="AI95">
+        <v>3.6</v>
+      </c>
+      <c r="AJ95">
+        <v>1.88</v>
+      </c>
+      <c r="AK95">
+        <v>1.83</v>
+      </c>
+      <c r="AL95">
+        <v>1.67</v>
+      </c>
+      <c r="AM95">
+        <v>2.1</v>
+      </c>
+      <c r="AN95">
+        <v>1.6</v>
+      </c>
+      <c r="AO95">
+        <v>1.25</v>
+      </c>
+      <c r="AP95">
+        <v>1.4</v>
+      </c>
+      <c r="AQ95">
+        <v>1.43</v>
+      </c>
+      <c r="AR95">
+        <v>1</v>
+      </c>
+      <c r="AS95">
+        <v>1.63</v>
+      </c>
+      <c r="AT95">
+        <v>0.89</v>
+      </c>
+      <c r="AU95">
+        <v>1.49</v>
+      </c>
+      <c r="AV95">
+        <v>1.81</v>
+      </c>
+      <c r="AW95">
+        <v>3.3</v>
+      </c>
+      <c r="AX95">
+        <v>2.3</v>
+      </c>
+      <c r="AY95">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ95">
+        <v>1.91</v>
+      </c>
+      <c r="BA95">
+        <v>1.12</v>
+      </c>
+      <c r="BB95">
+        <v>1.27</v>
+      </c>
+      <c r="BC95">
+        <v>1.52</v>
+      </c>
+      <c r="BD95">
+        <v>1.88</v>
+      </c>
+      <c r="BE95">
+        <v>2.42</v>
+      </c>
+      <c r="BF95">
+        <v>4</v>
+      </c>
+      <c r="BG95">
+        <v>6</v>
+      </c>
+      <c r="BH95">
+        <v>1</v>
+      </c>
+      <c r="BI95">
+        <v>3</v>
+      </c>
+      <c r="BJ95">
+        <v>5</v>
+      </c>
+      <c r="BK95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>3216095</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44969.125</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" t="s">
+        <v>68</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>152</v>
+      </c>
+      <c r="P96" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q96">
+        <v>3</v>
+      </c>
+      <c r="R96">
+        <v>4</v>
+      </c>
+      <c r="S96">
+        <v>7</v>
+      </c>
+      <c r="T96">
+        <v>3.25</v>
+      </c>
+      <c r="U96">
+        <v>2.3</v>
+      </c>
+      <c r="V96">
+        <v>3</v>
+      </c>
+      <c r="W96">
+        <v>1.3</v>
+      </c>
+      <c r="X96">
+        <v>3.4</v>
+      </c>
+      <c r="Y96">
+        <v>2.5</v>
+      </c>
+      <c r="Z96">
+        <v>1.5</v>
+      </c>
+      <c r="AA96">
+        <v>6</v>
+      </c>
+      <c r="AB96">
+        <v>1.13</v>
+      </c>
+      <c r="AC96">
+        <v>2.36</v>
+      </c>
+      <c r="AD96">
+        <v>3.36</v>
+      </c>
+      <c r="AE96">
+        <v>2.63</v>
+      </c>
+      <c r="AF96">
+        <v>1.03</v>
+      </c>
+      <c r="AG96">
+        <v>15</v>
+      </c>
+      <c r="AH96">
+        <v>1.2</v>
+      </c>
+      <c r="AI96">
+        <v>4.33</v>
+      </c>
+      <c r="AJ96">
+        <v>1.71</v>
+      </c>
+      <c r="AK96">
+        <v>2.08</v>
+      </c>
+      <c r="AL96">
+        <v>1.53</v>
+      </c>
+      <c r="AM96">
+        <v>2.38</v>
+      </c>
+      <c r="AN96">
+        <v>1.55</v>
+      </c>
+      <c r="AO96">
+        <v>1.25</v>
+      </c>
+      <c r="AP96">
+        <v>1.47</v>
+      </c>
+      <c r="AQ96">
+        <v>1.43</v>
+      </c>
+      <c r="AR96">
+        <v>1.33</v>
+      </c>
+      <c r="AS96">
+        <v>1.63</v>
+      </c>
+      <c r="AT96">
+        <v>1.14</v>
+      </c>
+      <c r="AU96">
+        <v>1.49</v>
+      </c>
+      <c r="AV96">
+        <v>1.44</v>
+      </c>
+      <c r="AW96">
+        <v>2.93</v>
+      </c>
+      <c r="AX96">
+        <v>2.25</v>
+      </c>
+      <c r="AY96">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ96">
+        <v>1.92</v>
+      </c>
+      <c r="BA96">
+        <v>1.11</v>
+      </c>
+      <c r="BB96">
+        <v>1.25</v>
+      </c>
+      <c r="BC96">
+        <v>1.48</v>
+      </c>
+      <c r="BD96">
+        <v>1.83</v>
+      </c>
+      <c r="BE96">
+        <v>2.32</v>
+      </c>
+      <c r="BF96">
+        <v>10</v>
+      </c>
+      <c r="BG96">
+        <v>8</v>
+      </c>
+      <c r="BH96">
+        <v>6</v>
+      </c>
+      <c r="BI96">
+        <v>12</v>
+      </c>
+      <c r="BJ96">
+        <v>16</v>
+      </c>
+      <c r="BK96">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['19', '58', '64']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK96"/>
+  <dimension ref="A1:BK97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3249,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT12">
         <v>1.78</v>
@@ -3440,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -3634,7 +3637,7 @@
         <v>1.63</v>
       </c>
       <c r="AT14">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU14">
         <v>1.18</v>
@@ -5544,7 +5547,7 @@
         <v>2.43</v>
       </c>
       <c r="AT24">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU24">
         <v>2.71</v>
@@ -6687,7 +6690,7 @@
         <v>0.67</v>
       </c>
       <c r="AS30">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT30">
         <v>1.11</v>
@@ -9552,7 +9555,7 @@
         <v>2.33</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT45">
         <v>1.25</v>
@@ -10319,7 +10322,7 @@
         <v>1.88</v>
       </c>
       <c r="AT49">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU49">
         <v>1.71</v>
@@ -10698,7 +10701,7 @@
         <v>1.75</v>
       </c>
       <c r="AS51">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT51">
         <v>0.89</v>
@@ -11271,7 +11274,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT54">
         <v>1.14</v>
@@ -12802,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="AT62">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU62">
         <v>1.94</v>
@@ -13948,7 +13951,7 @@
         <v>0.89</v>
       </c>
       <c r="AT68">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU68">
         <v>1.44</v>
@@ -14709,7 +14712,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -15091,7 +15094,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT74">
         <v>1.78</v>
@@ -17195,7 +17198,7 @@
         <v>1</v>
       </c>
       <c r="AT85">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU85">
         <v>1.58</v>
@@ -18529,7 +18532,7 @@
         <v>0.88</v>
       </c>
       <c r="AS92">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT92">
         <v>1.11</v>
@@ -19296,7 +19299,7 @@
         <v>1.63</v>
       </c>
       <c r="AT96">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU96">
         <v>1.49</v>
@@ -19348,6 +19351,197 @@
       </c>
       <c r="BK96">
         <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>3216096</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44974.23958333334</v>
+      </c>
+      <c r="F97">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" t="s">
+        <v>68</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97" t="s">
+        <v>78</v>
+      </c>
+      <c r="P97" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q97">
+        <v>12</v>
+      </c>
+      <c r="R97">
+        <v>6</v>
+      </c>
+      <c r="S97">
+        <v>18</v>
+      </c>
+      <c r="T97">
+        <v>3.2</v>
+      </c>
+      <c r="U97">
+        <v>2.2</v>
+      </c>
+      <c r="V97">
+        <v>3.25</v>
+      </c>
+      <c r="W97">
+        <v>1.34</v>
+      </c>
+      <c r="X97">
+        <v>3</v>
+      </c>
+      <c r="Y97">
+        <v>2.6</v>
+      </c>
+      <c r="Z97">
+        <v>1.44</v>
+      </c>
+      <c r="AA97">
+        <v>6.4</v>
+      </c>
+      <c r="AB97">
+        <v>1.09</v>
+      </c>
+      <c r="AC97">
+        <v>2.5</v>
+      </c>
+      <c r="AD97">
+        <v>3.5</v>
+      </c>
+      <c r="AE97">
+        <v>2.75</v>
+      </c>
+      <c r="AF97">
+        <v>1.04</v>
+      </c>
+      <c r="AG97">
+        <v>13</v>
+      </c>
+      <c r="AH97">
+        <v>1.25</v>
+      </c>
+      <c r="AI97">
+        <v>3.75</v>
+      </c>
+      <c r="AJ97">
+        <v>1.7</v>
+      </c>
+      <c r="AK97">
+        <v>2.15</v>
+      </c>
+      <c r="AL97">
+        <v>1.63</v>
+      </c>
+      <c r="AM97">
+        <v>2.25</v>
+      </c>
+      <c r="AN97">
+        <v>1.5</v>
+      </c>
+      <c r="AO97">
+        <v>1.25</v>
+      </c>
+      <c r="AP97">
+        <v>1.52</v>
+      </c>
+      <c r="AQ97">
+        <v>1.33</v>
+      </c>
+      <c r="AR97">
+        <v>1.14</v>
+      </c>
+      <c r="AS97">
+        <v>1.2</v>
+      </c>
+      <c r="AT97">
+        <v>1.38</v>
+      </c>
+      <c r="AU97">
+        <v>1.71</v>
+      </c>
+      <c r="AV97">
+        <v>1.54</v>
+      </c>
+      <c r="AW97">
+        <v>3.25</v>
+      </c>
+      <c r="AX97">
+        <v>1.95</v>
+      </c>
+      <c r="AY97">
+        <v>8.5</v>
+      </c>
+      <c r="AZ97">
+        <v>2.1</v>
+      </c>
+      <c r="BA97">
+        <v>1.12</v>
+      </c>
+      <c r="BB97">
+        <v>1.26</v>
+      </c>
+      <c r="BC97">
+        <v>1.49</v>
+      </c>
+      <c r="BD97">
+        <v>1.93</v>
+      </c>
+      <c r="BE97">
+        <v>2.37</v>
+      </c>
+      <c r="BF97">
+        <v>5</v>
+      </c>
+      <c r="BG97">
+        <v>8</v>
+      </c>
+      <c r="BH97">
+        <v>7</v>
+      </c>
+      <c r="BI97">
+        <v>6</v>
+      </c>
+      <c r="BJ97">
+        <v>12</v>
+      </c>
+      <c r="BK97">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,9 @@
     <t>['32', '49']</t>
   </si>
   <si>
+    <t>['7', '46', '77']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -650,6 +653,15 @@
   </si>
   <si>
     <t>['19', '58', '64']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['24', '80']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BK100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1267,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1637,7 +1649,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1828,7 +1840,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2210,7 +2222,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2300,7 +2312,7 @@
         <v>0.89</v>
       </c>
       <c r="AT7">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU7">
         <v>1.4</v>
@@ -2401,7 +2413,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2592,7 +2604,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2679,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT9">
         <v>1.25</v>
@@ -2783,7 +2795,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3061,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT11">
         <v>1.11</v>
@@ -3165,7 +3177,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3356,7 +3368,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3738,7 +3750,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3828,7 +3840,7 @@
         <v>1.75</v>
       </c>
       <c r="AT15">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU15">
         <v>1.28</v>
@@ -3929,7 +3941,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4016,10 +4028,10 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT16">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU16">
         <v>1.32</v>
@@ -4120,7 +4132,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4311,7 +4323,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4592,7 +4604,7 @@
         <v>1.75</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU19">
         <v>1.31</v>
@@ -4884,7 +4896,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5075,7 +5087,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5162,7 +5174,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT22">
         <v>1.78</v>
@@ -5266,7 +5278,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5457,7 +5469,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5735,10 +5747,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU25">
         <v>1.35</v>
@@ -6030,7 +6042,7 @@
         <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6603,7 +6615,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6985,7 +6997,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7075,7 +7087,7 @@
         <v>1.63</v>
       </c>
       <c r="AT32">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU32">
         <v>1.2</v>
@@ -7176,7 +7188,7 @@
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7367,7 +7379,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7558,7 +7570,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7749,7 +7761,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7940,7 +7952,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8221,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="AT38">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU38">
         <v>2.06</v>
@@ -8322,7 +8334,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8513,7 +8525,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8603,7 +8615,7 @@
         <v>1.78</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU40">
         <v>2.04</v>
@@ -8704,7 +8716,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8791,7 +8803,7 @@
         <v>1.33</v>
       </c>
       <c r="AS41">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT41">
         <v>0.89</v>
@@ -8895,7 +8907,7 @@
         <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8985,7 +8997,7 @@
         <v>1.63</v>
       </c>
       <c r="AT42">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU42">
         <v>1.49</v>
@@ -9086,7 +9098,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>16</v>
@@ -9277,7 +9289,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9746,7 +9758,7 @@
         <v>0.6</v>
       </c>
       <c r="AS46">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT46">
         <v>0.5</v>
@@ -9940,7 +9952,7 @@
         <v>1.78</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU47">
         <v>1.83</v>
@@ -10041,7 +10053,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10232,7 +10244,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10423,7 +10435,7 @@
         <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10996,7 +11008,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11086,7 +11098,7 @@
         <v>2.29</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU53">
         <v>1.81</v>
@@ -11277,7 +11289,7 @@
         <v>1.2</v>
       </c>
       <c r="AT54">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU54">
         <v>1.82</v>
@@ -11569,7 +11581,7 @@
         <v>78</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11951,7 +11963,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12041,7 +12053,7 @@
         <v>1.44</v>
       </c>
       <c r="AT58">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU58">
         <v>1.62</v>
@@ -12333,7 +12345,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12420,10 +12432,10 @@
         <v>1.67</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT60">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU60">
         <v>1.55</v>
@@ -12715,7 +12727,7 @@
         <v>78</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13375,10 +13387,10 @@
         <v>1.2</v>
       </c>
       <c r="AS65">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU65">
         <v>1.38</v>
@@ -13479,7 +13491,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13569,7 +13581,7 @@
         <v>1.88</v>
       </c>
       <c r="AT66">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU66">
         <v>1.66</v>
@@ -13670,7 +13682,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13757,7 +13769,7 @@
         <v>1.33</v>
       </c>
       <c r="AS67">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT67">
         <v>1.43</v>
@@ -13861,7 +13873,7 @@
         <v>78</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14052,7 +14064,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14243,7 +14255,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14434,7 +14446,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -14524,7 +14536,7 @@
         <v>1.75</v>
       </c>
       <c r="AT71">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU71">
         <v>1.4</v>
@@ -14625,7 +14637,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14715,7 +14727,7 @@
         <v>1.2</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU72">
         <v>1.74</v>
@@ -15288,7 +15300,7 @@
         <v>0.89</v>
       </c>
       <c r="AT75">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU75">
         <v>1.46</v>
@@ -15580,7 +15592,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15771,7 +15783,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -15962,7 +15974,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16049,7 +16061,7 @@
         <v>1.43</v>
       </c>
       <c r="AS79">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT79">
         <v>1.78</v>
@@ -16243,7 +16255,7 @@
         <v>1.63</v>
       </c>
       <c r="AT80">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU80">
         <v>1.43</v>
@@ -16344,7 +16356,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16535,7 +16547,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16622,7 +16634,7 @@
         <v>0.6</v>
       </c>
       <c r="AS82">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT82">
         <v>0.57</v>
@@ -16726,7 +16738,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16917,7 +16929,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17195,7 +17207,7 @@
         <v>1.6</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT85">
         <v>1.38</v>
@@ -17299,7 +17311,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17490,7 +17502,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17771,7 +17783,7 @@
         <v>2.29</v>
       </c>
       <c r="AT88">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -17872,7 +17884,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -17962,7 +17974,7 @@
         <v>1.88</v>
       </c>
       <c r="AT89">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU89">
         <v>1.64</v>
@@ -18254,7 +18266,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -18445,7 +18457,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18827,7 +18839,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -18917,7 +18929,7 @@
         <v>1.88</v>
       </c>
       <c r="AT94">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AU94">
         <v>1.67</v>
@@ -19018,7 +19030,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19209,7 +19221,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19296,7 +19308,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT96">
         <v>1.38</v>
@@ -19400,7 +19412,7 @@
         <v>78</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q97">
         <v>12</v>
@@ -19541,6 +19553,579 @@
         <v>12</v>
       </c>
       <c r="BK97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>3216098</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44975.125</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>67</v>
+      </c>
+      <c r="H98" t="s">
+        <v>66</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>105</v>
+      </c>
+      <c r="P98" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q98">
+        <v>7</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>9</v>
+      </c>
+      <c r="T98">
+        <v>2.6</v>
+      </c>
+      <c r="U98">
+        <v>2.2</v>
+      </c>
+      <c r="V98">
+        <v>4.33</v>
+      </c>
+      <c r="W98">
+        <v>1.36</v>
+      </c>
+      <c r="X98">
+        <v>3</v>
+      </c>
+      <c r="Y98">
+        <v>2.75</v>
+      </c>
+      <c r="Z98">
+        <v>1.4</v>
+      </c>
+      <c r="AA98">
+        <v>7</v>
+      </c>
+      <c r="AB98">
+        <v>1.1</v>
+      </c>
+      <c r="AC98">
+        <v>1.96</v>
+      </c>
+      <c r="AD98">
+        <v>3.72</v>
+      </c>
+      <c r="AE98">
+        <v>3.68</v>
+      </c>
+      <c r="AF98">
+        <v>1.03</v>
+      </c>
+      <c r="AG98">
+        <v>11.5</v>
+      </c>
+      <c r="AH98">
+        <v>1.26</v>
+      </c>
+      <c r="AI98">
+        <v>3.8</v>
+      </c>
+      <c r="AJ98">
+        <v>1.82</v>
+      </c>
+      <c r="AK98">
+        <v>1.93</v>
+      </c>
+      <c r="AL98">
+        <v>1.75</v>
+      </c>
+      <c r="AM98">
+        <v>2</v>
+      </c>
+      <c r="AN98">
+        <v>1.25</v>
+      </c>
+      <c r="AO98">
+        <v>1.3</v>
+      </c>
+      <c r="AP98">
+        <v>1.87</v>
+      </c>
+      <c r="AQ98">
+        <v>1</v>
+      </c>
+      <c r="AR98">
+        <v>1.14</v>
+      </c>
+      <c r="AS98">
+        <v>1</v>
+      </c>
+      <c r="AT98">
+        <v>1.13</v>
+      </c>
+      <c r="AU98">
+        <v>1.88</v>
+      </c>
+      <c r="AV98">
+        <v>1.57</v>
+      </c>
+      <c r="AW98">
+        <v>3.45</v>
+      </c>
+      <c r="AX98">
+        <v>1.69</v>
+      </c>
+      <c r="AY98">
+        <v>8.5</v>
+      </c>
+      <c r="AZ98">
+        <v>2.62</v>
+      </c>
+      <c r="BA98">
+        <v>1.12</v>
+      </c>
+      <c r="BB98">
+        <v>1.26</v>
+      </c>
+      <c r="BC98">
+        <v>1.49</v>
+      </c>
+      <c r="BD98">
+        <v>1.93</v>
+      </c>
+      <c r="BE98">
+        <v>2.4</v>
+      </c>
+      <c r="BF98">
+        <v>8</v>
+      </c>
+      <c r="BG98">
+        <v>5</v>
+      </c>
+      <c r="BH98">
+        <v>6</v>
+      </c>
+      <c r="BI98">
+        <v>4</v>
+      </c>
+      <c r="BJ98">
+        <v>14</v>
+      </c>
+      <c r="BK98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>3216097</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44975.16666666666</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" t="s">
+        <v>70</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>78</v>
+      </c>
+      <c r="P99" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q99">
+        <v>6</v>
+      </c>
+      <c r="R99">
+        <v>4</v>
+      </c>
+      <c r="S99">
+        <v>10</v>
+      </c>
+      <c r="T99">
+        <v>2.88</v>
+      </c>
+      <c r="U99">
+        <v>2.25</v>
+      </c>
+      <c r="V99">
+        <v>3.4</v>
+      </c>
+      <c r="W99">
+        <v>1.33</v>
+      </c>
+      <c r="X99">
+        <v>3.25</v>
+      </c>
+      <c r="Y99">
+        <v>2.63</v>
+      </c>
+      <c r="Z99">
+        <v>1.44</v>
+      </c>
+      <c r="AA99">
+        <v>6.5</v>
+      </c>
+      <c r="AB99">
+        <v>1.11</v>
+      </c>
+      <c r="AC99">
+        <v>2.26</v>
+      </c>
+      <c r="AD99">
+        <v>3.5</v>
+      </c>
+      <c r="AE99">
+        <v>3.11</v>
+      </c>
+      <c r="AF99">
+        <v>1</v>
+      </c>
+      <c r="AG99">
+        <v>10.5</v>
+      </c>
+      <c r="AH99">
+        <v>1.2</v>
+      </c>
+      <c r="AI99">
+        <v>3.92</v>
+      </c>
+      <c r="AJ99">
+        <v>1.94</v>
+      </c>
+      <c r="AK99">
+        <v>1.96</v>
+      </c>
+      <c r="AL99">
+        <v>1.62</v>
+      </c>
+      <c r="AM99">
+        <v>2.2</v>
+      </c>
+      <c r="AN99">
+        <v>1.41</v>
+      </c>
+      <c r="AO99">
+        <v>1.29</v>
+      </c>
+      <c r="AP99">
+        <v>1.63</v>
+      </c>
+      <c r="AQ99">
+        <v>1.63</v>
+      </c>
+      <c r="AR99">
+        <v>1</v>
+      </c>
+      <c r="AS99">
+        <v>1.44</v>
+      </c>
+      <c r="AT99">
+        <v>1.22</v>
+      </c>
+      <c r="AU99">
+        <v>1.57</v>
+      </c>
+      <c r="AV99">
+        <v>1.43</v>
+      </c>
+      <c r="AW99">
+        <v>3</v>
+      </c>
+      <c r="AX99">
+        <v>1.82</v>
+      </c>
+      <c r="AY99">
+        <v>8.5</v>
+      </c>
+      <c r="AZ99">
+        <v>2.32</v>
+      </c>
+      <c r="BA99">
+        <v>1.07</v>
+      </c>
+      <c r="BB99">
+        <v>1.17</v>
+      </c>
+      <c r="BC99">
+        <v>1.33</v>
+      </c>
+      <c r="BD99">
+        <v>1.57</v>
+      </c>
+      <c r="BE99">
+        <v>1.95</v>
+      </c>
+      <c r="BF99">
+        <v>6</v>
+      </c>
+      <c r="BG99">
+        <v>3</v>
+      </c>
+      <c r="BH99">
+        <v>6</v>
+      </c>
+      <c r="BI99">
+        <v>3</v>
+      </c>
+      <c r="BJ99">
+        <v>12</v>
+      </c>
+      <c r="BK99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>3216099</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44975.23958333334</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>71</v>
+      </c>
+      <c r="H100" t="s">
+        <v>65</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100" t="s">
+        <v>153</v>
+      </c>
+      <c r="P100" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q100">
+        <v>4</v>
+      </c>
+      <c r="R100">
+        <v>5</v>
+      </c>
+      <c r="S100">
+        <v>9</v>
+      </c>
+      <c r="T100">
+        <v>4</v>
+      </c>
+      <c r="U100">
+        <v>2.25</v>
+      </c>
+      <c r="V100">
+        <v>2.63</v>
+      </c>
+      <c r="W100">
+        <v>1.36</v>
+      </c>
+      <c r="X100">
+        <v>3</v>
+      </c>
+      <c r="Y100">
+        <v>2.63</v>
+      </c>
+      <c r="Z100">
+        <v>1.44</v>
+      </c>
+      <c r="AA100">
+        <v>7</v>
+      </c>
+      <c r="AB100">
+        <v>1.1</v>
+      </c>
+      <c r="AC100">
+        <v>3.5</v>
+      </c>
+      <c r="AD100">
+        <v>3.62</v>
+      </c>
+      <c r="AE100">
+        <v>2.05</v>
+      </c>
+      <c r="AF100">
+        <v>1.04</v>
+      </c>
+      <c r="AG100">
+        <v>12.75</v>
+      </c>
+      <c r="AH100">
+        <v>1.26</v>
+      </c>
+      <c r="AI100">
+        <v>3.75</v>
+      </c>
+      <c r="AJ100">
+        <v>1.91</v>
+      </c>
+      <c r="AK100">
+        <v>1.99</v>
+      </c>
+      <c r="AL100">
+        <v>1.7</v>
+      </c>
+      <c r="AM100">
+        <v>2.05</v>
+      </c>
+      <c r="AN100">
+        <v>1.72</v>
+      </c>
+      <c r="AO100">
+        <v>1.3</v>
+      </c>
+      <c r="AP100">
+        <v>1.3</v>
+      </c>
+      <c r="AQ100">
+        <v>1</v>
+      </c>
+      <c r="AR100">
+        <v>2.13</v>
+      </c>
+      <c r="AS100">
+        <v>1.29</v>
+      </c>
+      <c r="AT100">
+        <v>1.89</v>
+      </c>
+      <c r="AU100">
+        <v>1.55</v>
+      </c>
+      <c r="AV100">
+        <v>1.88</v>
+      </c>
+      <c r="AW100">
+        <v>3.43</v>
+      </c>
+      <c r="AX100">
+        <v>2.27</v>
+      </c>
+      <c r="AY100">
+        <v>8.5</v>
+      </c>
+      <c r="AZ100">
+        <v>1.85</v>
+      </c>
+      <c r="BA100">
+        <v>1.14</v>
+      </c>
+      <c r="BB100">
+        <v>1.28</v>
+      </c>
+      <c r="BC100">
+        <v>1.51</v>
+      </c>
+      <c r="BD100">
+        <v>2</v>
+      </c>
+      <c r="BE100">
+        <v>2.45</v>
+      </c>
+      <c r="BF100">
+        <v>6</v>
+      </c>
+      <c r="BG100">
+        <v>7</v>
+      </c>
+      <c r="BH100">
+        <v>1</v>
+      </c>
+      <c r="BI100">
+        <v>7</v>
+      </c>
+      <c r="BJ100">
+        <v>7</v>
+      </c>
+      <c r="BK100">
         <v>14</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,12 @@
     <t>['7', '46', '77']</t>
   </si>
   <si>
+    <t>['16', '51']</t>
+  </si>
+  <si>
+    <t>['32', '45+4', '67', '79']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -662,6 +668,12 @@
   </si>
   <si>
     <t>['24', '80']</t>
+  </si>
+  <si>
+    <t>['74', '81']</t>
+  </si>
+  <si>
+    <t>['45+1', '50', '63', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK100"/>
+  <dimension ref="A1:BK102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,7 +1279,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1649,7 +1661,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1840,7 +1852,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2222,7 +2234,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2413,7 +2425,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2604,7 +2616,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2694,7 +2706,7 @@
         <v>1.29</v>
       </c>
       <c r="AT9">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2795,7 +2807,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2885,7 +2897,7 @@
         <v>1.44</v>
       </c>
       <c r="AT10">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU10">
         <v>0.8100000000000001</v>
@@ -3177,7 +3189,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3368,7 +3380,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3750,7 +3762,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3941,7 +3953,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4132,7 +4144,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4323,7 +4335,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4896,7 +4908,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5087,7 +5099,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5278,7 +5290,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5365,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT23">
         <v>0.5</v>
@@ -5469,7 +5481,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6042,7 +6054,7 @@
         <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6132,7 +6144,7 @@
         <v>1.75</v>
       </c>
       <c r="AT27">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU27">
         <v>1.3</v>
@@ -6615,7 +6627,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6893,7 +6905,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT31">
         <v>0.89</v>
@@ -6997,7 +7009,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7188,7 +7200,7 @@
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7278,7 +7290,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU33">
         <v>2.41</v>
@@ -7379,7 +7391,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7570,7 +7582,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7761,7 +7773,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7952,7 +7964,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8042,7 +8054,7 @@
         <v>1.44</v>
       </c>
       <c r="AT37">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU37">
         <v>1.53</v>
@@ -8334,7 +8346,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8421,7 +8433,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT39">
         <v>0.57</v>
@@ -8525,7 +8537,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8716,7 +8728,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8907,7 +8919,7 @@
         <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9098,7 +9110,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>16</v>
@@ -9289,7 +9301,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9570,7 +9582,7 @@
         <v>1.2</v>
       </c>
       <c r="AT45">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU45">
         <v>2.27</v>
@@ -10053,7 +10065,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10143,7 +10155,7 @@
         <v>0.89</v>
       </c>
       <c r="AT48">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU48">
         <v>1.51</v>
@@ -10244,7 +10256,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10331,7 +10343,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT49">
         <v>1.38</v>
@@ -10435,7 +10447,7 @@
         <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10907,7 +10919,7 @@
         <v>2.43</v>
       </c>
       <c r="AT52">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU52">
         <v>2.05</v>
@@ -11008,7 +11020,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11095,7 +11107,7 @@
         <v>0.75</v>
       </c>
       <c r="AS53">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT53">
         <v>1.22</v>
@@ -11581,7 +11593,7 @@
         <v>78</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11963,7 +11975,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12241,7 +12253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT59">
         <v>0.5</v>
@@ -12345,7 +12357,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12623,10 +12635,10 @@
         <v>1.6</v>
       </c>
       <c r="AS61">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT61">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU61">
         <v>1.69</v>
@@ -12727,7 +12739,7 @@
         <v>78</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13491,7 +13503,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13578,7 +13590,7 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT66">
         <v>1.13</v>
@@ -13682,7 +13694,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13772,7 +13784,7 @@
         <v>1.44</v>
       </c>
       <c r="AT67">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU67">
         <v>1.5</v>
@@ -13873,7 +13885,7 @@
         <v>78</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14064,7 +14076,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14151,7 +14163,7 @@
         <v>1.17</v>
       </c>
       <c r="AS69">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT69">
         <v>0.89</v>
@@ -14255,7 +14267,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14342,7 +14354,7 @@
         <v>1.8</v>
       </c>
       <c r="AS70">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT70">
         <v>1.78</v>
@@ -14446,7 +14458,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -14637,7 +14649,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14915,7 +14927,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT73">
         <v>1</v>
@@ -15488,7 +15500,7 @@
         <v>1.14</v>
       </c>
       <c r="AS76">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT76">
         <v>0.89</v>
@@ -15592,7 +15604,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15682,7 +15694,7 @@
         <v>1.44</v>
       </c>
       <c r="AT77">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU77">
         <v>1.73</v>
@@ -15783,7 +15795,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -15873,7 +15885,7 @@
         <v>1.63</v>
       </c>
       <c r="AT78">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU78">
         <v>1.46</v>
@@ -15974,7 +15986,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16356,7 +16368,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16547,7 +16559,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16738,7 +16750,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16828,7 +16840,7 @@
         <v>1.78</v>
       </c>
       <c r="AT83">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU83">
         <v>1.98</v>
@@ -16929,7 +16941,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17311,7 +17323,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17401,7 +17413,7 @@
         <v>1</v>
       </c>
       <c r="AT86">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU86">
         <v>1.89</v>
@@ -17502,7 +17514,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17780,7 +17792,7 @@
         <v>1.33</v>
       </c>
       <c r="AS88">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT88">
         <v>1.13</v>
@@ -17884,7 +17896,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -17971,7 +17983,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT89">
         <v>1.22</v>
@@ -18266,7 +18278,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -18356,7 +18368,7 @@
         <v>0.89</v>
       </c>
       <c r="AT91">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU91">
         <v>1.48</v>
@@ -18457,7 +18469,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18839,7 +18851,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -18926,7 +18938,7 @@
         <v>2</v>
       </c>
       <c r="AS94">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT94">
         <v>1.89</v>
@@ -19030,7 +19042,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19221,7 +19233,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19412,7 +19424,7 @@
         <v>78</v>
       </c>
       <c r="P97" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q97">
         <v>12</v>
@@ -19603,7 +19615,7 @@
         <v>105</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19794,7 +19806,7 @@
         <v>78</v>
       </c>
       <c r="P99" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19985,7 +19997,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20127,6 +20139,388 @@
       </c>
       <c r="BK100">
         <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>3216017</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>44975.35416666666</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s">
+        <v>74</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101" t="s">
+        <v>154</v>
+      </c>
+      <c r="P101" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q101">
+        <v>4</v>
+      </c>
+      <c r="R101">
+        <v>16</v>
+      </c>
+      <c r="S101">
+        <v>20</v>
+      </c>
+      <c r="T101">
+        <v>3.4</v>
+      </c>
+      <c r="U101">
+        <v>2.25</v>
+      </c>
+      <c r="V101">
+        <v>2.88</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>3.25</v>
+      </c>
+      <c r="Y101">
+        <v>2.63</v>
+      </c>
+      <c r="Z101">
+        <v>1.44</v>
+      </c>
+      <c r="AA101">
+        <v>7</v>
+      </c>
+      <c r="AB101">
+        <v>1.1</v>
+      </c>
+      <c r="AC101">
+        <v>2.95</v>
+      </c>
+      <c r="AD101">
+        <v>3.55</v>
+      </c>
+      <c r="AE101">
+        <v>2.25</v>
+      </c>
+      <c r="AF101">
+        <v>1.03</v>
+      </c>
+      <c r="AG101">
+        <v>12</v>
+      </c>
+      <c r="AH101">
+        <v>1.25</v>
+      </c>
+      <c r="AI101">
+        <v>3.6</v>
+      </c>
+      <c r="AJ101">
+        <v>1.75</v>
+      </c>
+      <c r="AK101">
+        <v>2.02</v>
+      </c>
+      <c r="AL101">
+        <v>1.62</v>
+      </c>
+      <c r="AM101">
+        <v>2.2</v>
+      </c>
+      <c r="AN101">
+        <v>1.55</v>
+      </c>
+      <c r="AO101">
+        <v>1.29</v>
+      </c>
+      <c r="AP101">
+        <v>1.32</v>
+      </c>
+      <c r="AQ101">
+        <v>1.88</v>
+      </c>
+      <c r="AR101">
+        <v>1.43</v>
+      </c>
+      <c r="AS101">
+        <v>1.78</v>
+      </c>
+      <c r="AT101">
+        <v>1.38</v>
+      </c>
+      <c r="AU101">
+        <v>1.62</v>
+      </c>
+      <c r="AV101">
+        <v>1.73</v>
+      </c>
+      <c r="AW101">
+        <v>3.35</v>
+      </c>
+      <c r="AX101">
+        <v>2</v>
+      </c>
+      <c r="AY101">
+        <v>8.5</v>
+      </c>
+      <c r="AZ101">
+        <v>2</v>
+      </c>
+      <c r="BA101">
+        <v>1.12</v>
+      </c>
+      <c r="BB101">
+        <v>1.26</v>
+      </c>
+      <c r="BC101">
+        <v>1.49</v>
+      </c>
+      <c r="BD101">
+        <v>1.85</v>
+      </c>
+      <c r="BE101">
+        <v>2.37</v>
+      </c>
+      <c r="BF101">
+        <v>10</v>
+      </c>
+      <c r="BG101">
+        <v>8</v>
+      </c>
+      <c r="BH101">
+        <v>2</v>
+      </c>
+      <c r="BI101">
+        <v>6</v>
+      </c>
+      <c r="BJ101">
+        <v>12</v>
+      </c>
+      <c r="BK101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>3216101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>44976.04166666666</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>75</v>
+      </c>
+      <c r="H102" t="s">
+        <v>69</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>3</v>
+      </c>
+      <c r="L102">
+        <v>4</v>
+      </c>
+      <c r="M102">
+        <v>4</v>
+      </c>
+      <c r="N102">
+        <v>8</v>
+      </c>
+      <c r="O102" t="s">
+        <v>155</v>
+      </c>
+      <c r="P102" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q102">
+        <v>5</v>
+      </c>
+      <c r="R102">
+        <v>3</v>
+      </c>
+      <c r="S102">
+        <v>8</v>
+      </c>
+      <c r="T102">
+        <v>2.88</v>
+      </c>
+      <c r="U102">
+        <v>2.2</v>
+      </c>
+      <c r="V102">
+        <v>3.6</v>
+      </c>
+      <c r="W102">
+        <v>1.36</v>
+      </c>
+      <c r="X102">
+        <v>3</v>
+      </c>
+      <c r="Y102">
+        <v>2.75</v>
+      </c>
+      <c r="Z102">
+        <v>1.4</v>
+      </c>
+      <c r="AA102">
+        <v>7</v>
+      </c>
+      <c r="AB102">
+        <v>1.1</v>
+      </c>
+      <c r="AC102">
+        <v>2.3</v>
+      </c>
+      <c r="AD102">
+        <v>3.55</v>
+      </c>
+      <c r="AE102">
+        <v>2.97</v>
+      </c>
+      <c r="AF102">
+        <v>1.04</v>
+      </c>
+      <c r="AG102">
+        <v>13</v>
+      </c>
+      <c r="AH102">
+        <v>1.28</v>
+      </c>
+      <c r="AI102">
+        <v>3.75</v>
+      </c>
+      <c r="AJ102">
+        <v>1.83</v>
+      </c>
+      <c r="AK102">
+        <v>1.95</v>
+      </c>
+      <c r="AL102">
+        <v>1.67</v>
+      </c>
+      <c r="AM102">
+        <v>2.1</v>
+      </c>
+      <c r="AN102">
+        <v>1.25</v>
+      </c>
+      <c r="AO102">
+        <v>1.3</v>
+      </c>
+      <c r="AP102">
+        <v>1.67</v>
+      </c>
+      <c r="AQ102">
+        <v>2.29</v>
+      </c>
+      <c r="AR102">
+        <v>1.25</v>
+      </c>
+      <c r="AS102">
+        <v>2.13</v>
+      </c>
+      <c r="AT102">
+        <v>1.22</v>
+      </c>
+      <c r="AU102">
+        <v>1.63</v>
+      </c>
+      <c r="AV102">
+        <v>1.61</v>
+      </c>
+      <c r="AW102">
+        <v>3.24</v>
+      </c>
+      <c r="AX102">
+        <v>1.82</v>
+      </c>
+      <c r="AY102">
+        <v>8.5</v>
+      </c>
+      <c r="AZ102">
+        <v>2.32</v>
+      </c>
+      <c r="BA102">
+        <v>1.11</v>
+      </c>
+      <c r="BB102">
+        <v>1.23</v>
+      </c>
+      <c r="BC102">
+        <v>1.43</v>
+      </c>
+      <c r="BD102">
+        <v>1.8</v>
+      </c>
+      <c r="BE102">
+        <v>2.25</v>
+      </c>
+      <c r="BF102">
+        <v>7</v>
+      </c>
+      <c r="BG102">
+        <v>6</v>
+      </c>
+      <c r="BH102">
+        <v>4</v>
+      </c>
+      <c r="BI102">
+        <v>1</v>
+      </c>
+      <c r="BJ102">
+        <v>11</v>
+      </c>
+      <c r="BK102">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,9 @@
     <t>['32', '45+4', '67', '79']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -569,9 +572,6 @@
   </si>
   <si>
     <t>['80']</t>
-  </si>
-  <si>
-    <t>['12']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -1035,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK102"/>
+  <dimension ref="A1:BK103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1279,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1661,7 +1661,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1852,7 +1852,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2234,7 +2234,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2425,7 +2425,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2616,7 +2616,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2807,7 +2807,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3189,7 +3189,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3380,7 +3380,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3661,7 +3661,7 @@
         <v>1.63</v>
       </c>
       <c r="AT14">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU14">
         <v>1.18</v>
@@ -3762,7 +3762,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3953,7 +3953,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4144,7 +4144,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4335,7 +4335,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT18">
         <v>0.5</v>
@@ -4908,7 +4908,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT21">
         <v>0.57</v>
@@ -5099,7 +5099,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5290,7 +5290,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5481,7 +5481,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5571,7 +5571,7 @@
         <v>2.43</v>
       </c>
       <c r="AT24">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU24">
         <v>2.71</v>
@@ -6054,7 +6054,7 @@
         <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6627,7 +6627,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7009,7 +7009,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7200,7 +7200,7 @@
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7391,7 +7391,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7582,7 +7582,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7669,7 +7669,7 @@
         <v>0.67</v>
       </c>
       <c r="AS35">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT35">
         <v>1</v>
@@ -7773,7 +7773,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7964,7 +7964,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8346,7 +8346,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8537,7 +8537,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT40">
         <v>1.22</v>
@@ -8728,7 +8728,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8919,7 +8919,7 @@
         <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9110,7 +9110,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>16</v>
@@ -9388,7 +9388,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT44">
         <v>1.78</v>
@@ -9961,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT47">
         <v>1.22</v>
@@ -10346,7 +10346,7 @@
         <v>1.78</v>
       </c>
       <c r="AT49">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU49">
         <v>1.71</v>
@@ -11489,7 +11489,7 @@
         <v>1.4</v>
       </c>
       <c r="AS55">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT55">
         <v>0.89</v>
@@ -12357,7 +12357,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12829,7 +12829,7 @@
         <v>1</v>
       </c>
       <c r="AT62">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU62">
         <v>1.94</v>
@@ -13017,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT63">
         <v>1.11</v>
@@ -13975,7 +13975,7 @@
         <v>0.89</v>
       </c>
       <c r="AT68">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU68">
         <v>1.44</v>
@@ -15604,7 +15604,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16837,7 +16837,7 @@
         <v>1.29</v>
       </c>
       <c r="AS83">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT83">
         <v>1.22</v>
@@ -17222,7 +17222,7 @@
         <v>1.29</v>
       </c>
       <c r="AT85">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU85">
         <v>1.58</v>
@@ -17514,7 +17514,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -19323,7 +19323,7 @@
         <v>1.44</v>
       </c>
       <c r="AT96">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.49</v>
@@ -19514,7 +19514,7 @@
         <v>1.2</v>
       </c>
       <c r="AT97">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU97">
         <v>1.71</v>
@@ -20521,6 +20521,197 @@
       </c>
       <c r="BK102">
         <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>3216102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44981.23958333334</v>
+      </c>
+      <c r="F103">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s">
+        <v>74</v>
+      </c>
+      <c r="H103" t="s">
+        <v>68</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>156</v>
+      </c>
+      <c r="P103" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q103">
+        <v>7</v>
+      </c>
+      <c r="R103">
+        <v>6</v>
+      </c>
+      <c r="S103">
+        <v>13</v>
+      </c>
+      <c r="T103">
+        <v>2.4</v>
+      </c>
+      <c r="U103">
+        <v>2.4</v>
+      </c>
+      <c r="V103">
+        <v>4</v>
+      </c>
+      <c r="W103">
+        <v>1.29</v>
+      </c>
+      <c r="X103">
+        <v>3.5</v>
+      </c>
+      <c r="Y103">
+        <v>2.25</v>
+      </c>
+      <c r="Z103">
+        <v>1.57</v>
+      </c>
+      <c r="AA103">
+        <v>5.5</v>
+      </c>
+      <c r="AB103">
+        <v>1.14</v>
+      </c>
+      <c r="AC103">
+        <v>1.94</v>
+      </c>
+      <c r="AD103">
+        <v>3.95</v>
+      </c>
+      <c r="AE103">
+        <v>3.55</v>
+      </c>
+      <c r="AF103">
+        <v>1.02</v>
+      </c>
+      <c r="AG103">
+        <v>17</v>
+      </c>
+      <c r="AH103">
+        <v>1.15</v>
+      </c>
+      <c r="AI103">
+        <v>4.65</v>
+      </c>
+      <c r="AJ103">
+        <v>1.68</v>
+      </c>
+      <c r="AK103">
+        <v>2.15</v>
+      </c>
+      <c r="AL103">
+        <v>1.5</v>
+      </c>
+      <c r="AM103">
+        <v>2.5</v>
+      </c>
+      <c r="AN103">
+        <v>1.3</v>
+      </c>
+      <c r="AO103">
+        <v>1.26</v>
+      </c>
+      <c r="AP103">
+        <v>1.88</v>
+      </c>
+      <c r="AQ103">
+        <v>1.78</v>
+      </c>
+      <c r="AR103">
+        <v>1.38</v>
+      </c>
+      <c r="AS103">
+        <v>1.7</v>
+      </c>
+      <c r="AT103">
+        <v>1.33</v>
+      </c>
+      <c r="AU103">
+        <v>1.96</v>
+      </c>
+      <c r="AV103">
+        <v>1.57</v>
+      </c>
+      <c r="AW103">
+        <v>3.53</v>
+      </c>
+      <c r="AX103">
+        <v>1.84</v>
+      </c>
+      <c r="AY103">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ103">
+        <v>2.4</v>
+      </c>
+      <c r="BA103">
+        <v>1.16</v>
+      </c>
+      <c r="BB103">
+        <v>1.32</v>
+      </c>
+      <c r="BC103">
+        <v>1.55</v>
+      </c>
+      <c r="BD103">
+        <v>1.9</v>
+      </c>
+      <c r="BE103">
+        <v>2.4</v>
+      </c>
+      <c r="BF103">
+        <v>8</v>
+      </c>
+      <c r="BG103">
+        <v>8</v>
+      </c>
+      <c r="BH103">
+        <v>5</v>
+      </c>
+      <c r="BI103">
+        <v>5</v>
+      </c>
+      <c r="BJ103">
+        <v>13</v>
+      </c>
+      <c r="BK103">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,15 @@
     <t>['12']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['5', '13', '30']</t>
+  </si>
+  <si>
+    <t>['3', '37', '56', '61']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -674,6 +683,12 @@
   </si>
   <si>
     <t>['45+1', '50', '63', '90+5']</t>
+  </si>
+  <si>
+    <t>['3', '29', '72']</t>
+  </si>
+  <si>
+    <t>['28', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1294,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1366,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT2">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1560,7 +1575,7 @@
         <v>0.89</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1661,7 +1676,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1852,7 +1867,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2130,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT6">
         <v>0.5</v>
@@ -2234,7 +2249,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2425,7 +2440,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2512,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT8">
         <v>0.5</v>
@@ -2616,7 +2631,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2807,7 +2822,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3189,7 +3204,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3279,7 +3294,7 @@
         <v>1.2</v>
       </c>
       <c r="AT12">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3380,7 +3395,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3470,7 +3485,7 @@
         <v>1.2</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU13">
         <v>1.69</v>
@@ -3658,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT14">
         <v>1.33</v>
@@ -3762,7 +3777,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3849,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT15">
         <v>1.13</v>
@@ -3953,7 +3968,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4144,7 +4159,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4335,7 +4350,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4613,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT19">
         <v>1.22</v>
@@ -4908,7 +4923,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -4998,7 +5013,7 @@
         <v>1.7</v>
       </c>
       <c r="AT21">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU21">
         <v>1.32</v>
@@ -5099,7 +5114,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5189,7 +5204,7 @@
         <v>1.44</v>
       </c>
       <c r="AT22">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU22">
         <v>1.29</v>
@@ -5290,7 +5305,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5481,7 +5496,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5568,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT24">
         <v>1.33</v>
@@ -5950,7 +5965,7 @@
         <v>0.75</v>
       </c>
       <c r="AS26">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT26">
         <v>0.5</v>
@@ -6054,7 +6069,7 @@
         <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6141,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT27">
         <v>1.38</v>
@@ -6335,7 +6350,7 @@
         <v>1.44</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU28">
         <v>1.39</v>
@@ -6526,7 +6541,7 @@
         <v>0.89</v>
       </c>
       <c r="AT29">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU29">
         <v>1.22</v>
@@ -6627,7 +6642,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7009,7 +7024,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7096,7 +7111,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT32">
         <v>1.89</v>
@@ -7200,7 +7215,7 @@
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7391,7 +7406,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7481,7 +7496,7 @@
         <v>1.44</v>
       </c>
       <c r="AT34">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU34">
         <v>1.59</v>
@@ -7582,7 +7597,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7672,7 +7687,7 @@
         <v>1.7</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU35">
         <v>2.11</v>
@@ -7773,7 +7788,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7964,7 +7979,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8346,7 +8361,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8436,7 +8451,7 @@
         <v>1.78</v>
       </c>
       <c r="AT39">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8537,7 +8552,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8728,7 +8743,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8919,7 +8934,7 @@
         <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9006,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT42">
         <v>1.13</v>
@@ -9301,7 +9316,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9391,7 +9406,7 @@
         <v>1.7</v>
       </c>
       <c r="AT44">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU44">
         <v>1.95</v>
@@ -10065,7 +10080,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10256,7 +10271,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10447,7 +10462,7 @@
         <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10537,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU50">
         <v>2.05</v>
@@ -10916,7 +10931,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT52">
         <v>1.38</v>
@@ -11020,7 +11035,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11593,7 +11608,7 @@
         <v>78</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11680,10 +11695,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT56">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU56">
         <v>1.44</v>
@@ -11871,10 +11886,10 @@
         <v>1.6</v>
       </c>
       <c r="AS57">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU57">
         <v>1.23</v>
@@ -11975,7 +11990,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12357,7 +12372,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12739,7 +12754,7 @@
         <v>78</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13208,10 +13223,10 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT64">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU64">
         <v>2.04</v>
@@ -13503,7 +13518,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13694,7 +13709,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13885,7 +13900,7 @@
         <v>78</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14076,7 +14091,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14267,7 +14282,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14357,7 +14372,7 @@
         <v>1.78</v>
       </c>
       <c r="AT70">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU70">
         <v>1.51</v>
@@ -14458,7 +14473,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -14545,7 +14560,7 @@
         <v>2.4</v>
       </c>
       <c r="AS71">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT71">
         <v>1.89</v>
@@ -14649,7 +14664,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14930,7 +14945,7 @@
         <v>2.13</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU73">
         <v>1.67</v>
@@ -15121,7 +15136,7 @@
         <v>1.2</v>
       </c>
       <c r="AT74">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU74">
         <v>1.71</v>
@@ -15604,7 +15619,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15795,7 +15810,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -15882,7 +15897,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT78">
         <v>1.22</v>
@@ -15986,7 +16001,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16076,7 +16091,7 @@
         <v>1.29</v>
       </c>
       <c r="AT79">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU79">
         <v>1.59</v>
@@ -16264,7 +16279,7 @@
         <v>1.6</v>
       </c>
       <c r="AS80">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT80">
         <v>1.13</v>
@@ -16368,7 +16383,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16559,7 +16574,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16649,7 +16664,7 @@
         <v>1.44</v>
       </c>
       <c r="AT82">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU82">
         <v>1.56</v>
@@ -16750,7 +16765,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16941,7 +16956,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17028,7 +17043,7 @@
         <v>0.86</v>
       </c>
       <c r="AS84">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT84">
         <v>1.11</v>
@@ -17323,7 +17338,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17514,7 +17529,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17601,10 +17616,10 @@
         <v>1.14</v>
       </c>
       <c r="AS87">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU87">
         <v>2.2</v>
@@ -17896,7 +17911,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18174,10 +18189,10 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT90">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU90">
         <v>1.26</v>
@@ -18278,7 +18293,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -18469,7 +18484,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18747,10 +18762,10 @@
         <v>1.63</v>
       </c>
       <c r="AS93">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT93">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU93">
         <v>1.41</v>
@@ -18851,7 +18866,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19042,7 +19057,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19129,7 +19144,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT95">
         <v>0.89</v>
@@ -19233,7 +19248,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19424,7 +19439,7 @@
         <v>78</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q97">
         <v>12</v>
@@ -19615,7 +19630,7 @@
         <v>105</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19806,7 +19821,7 @@
         <v>78</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19997,7 +20012,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20188,7 +20203,7 @@
         <v>154</v>
       </c>
       <c r="P101" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20379,7 +20394,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20712,6 +20727,579 @@
       </c>
       <c r="BK103">
         <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>3216103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44982.125</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>70</v>
+      </c>
+      <c r="H104" t="s">
+        <v>73</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104" t="s">
+        <v>157</v>
+      </c>
+      <c r="P104" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q104">
+        <v>6</v>
+      </c>
+      <c r="R104">
+        <v>3</v>
+      </c>
+      <c r="S104">
+        <v>9</v>
+      </c>
+      <c r="T104">
+        <v>2.88</v>
+      </c>
+      <c r="U104">
+        <v>2.3</v>
+      </c>
+      <c r="V104">
+        <v>3.4</v>
+      </c>
+      <c r="W104">
+        <v>1.33</v>
+      </c>
+      <c r="X104">
+        <v>3.25</v>
+      </c>
+      <c r="Y104">
+        <v>2.63</v>
+      </c>
+      <c r="Z104">
+        <v>1.44</v>
+      </c>
+      <c r="AA104">
+        <v>6.5</v>
+      </c>
+      <c r="AB104">
+        <v>1.11</v>
+      </c>
+      <c r="AC104">
+        <v>2.25</v>
+      </c>
+      <c r="AD104">
+        <v>3.6</v>
+      </c>
+      <c r="AE104">
+        <v>3.1</v>
+      </c>
+      <c r="AF104">
+        <v>1.04</v>
+      </c>
+      <c r="AG104">
+        <v>8.5</v>
+      </c>
+      <c r="AH104">
+        <v>1.2</v>
+      </c>
+      <c r="AI104">
+        <v>3.9</v>
+      </c>
+      <c r="AJ104">
+        <v>1.73</v>
+      </c>
+      <c r="AK104">
+        <v>2.1</v>
+      </c>
+      <c r="AL104">
+        <v>1.57</v>
+      </c>
+      <c r="AM104">
+        <v>2.25</v>
+      </c>
+      <c r="AN104">
+        <v>1.4</v>
+      </c>
+      <c r="AO104">
+        <v>1.25</v>
+      </c>
+      <c r="AP104">
+        <v>1.63</v>
+      </c>
+      <c r="AQ104">
+        <v>1.63</v>
+      </c>
+      <c r="AR104">
+        <v>0.57</v>
+      </c>
+      <c r="AS104">
+        <v>1.44</v>
+      </c>
+      <c r="AT104">
+        <v>0.88</v>
+      </c>
+      <c r="AU104">
+        <v>1.41</v>
+      </c>
+      <c r="AV104">
+        <v>1.37</v>
+      </c>
+      <c r="AW104">
+        <v>2.78</v>
+      </c>
+      <c r="AX104">
+        <v>2</v>
+      </c>
+      <c r="AY104">
+        <v>8.5</v>
+      </c>
+      <c r="AZ104">
+        <v>2</v>
+      </c>
+      <c r="BA104">
+        <v>1.12</v>
+      </c>
+      <c r="BB104">
+        <v>1.21</v>
+      </c>
+      <c r="BC104">
+        <v>1.4</v>
+      </c>
+      <c r="BD104">
+        <v>1.68</v>
+      </c>
+      <c r="BE104">
+        <v>2.15</v>
+      </c>
+      <c r="BF104">
+        <v>7</v>
+      </c>
+      <c r="BG104">
+        <v>6</v>
+      </c>
+      <c r="BH104">
+        <v>9</v>
+      </c>
+      <c r="BI104">
+        <v>5</v>
+      </c>
+      <c r="BJ104">
+        <v>16</v>
+      </c>
+      <c r="BK104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>3216104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44982.125</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>65</v>
+      </c>
+      <c r="H105" t="s">
+        <v>67</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>4</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>5</v>
+      </c>
+      <c r="O105" t="s">
+        <v>158</v>
+      </c>
+      <c r="P105" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q105">
+        <v>7</v>
+      </c>
+      <c r="R105">
+        <v>7</v>
+      </c>
+      <c r="S105">
+        <v>14</v>
+      </c>
+      <c r="T105">
+        <v>2.38</v>
+      </c>
+      <c r="U105">
+        <v>2.38</v>
+      </c>
+      <c r="V105">
+        <v>4.33</v>
+      </c>
+      <c r="W105">
+        <v>1.33</v>
+      </c>
+      <c r="X105">
+        <v>3.25</v>
+      </c>
+      <c r="Y105">
+        <v>2.5</v>
+      </c>
+      <c r="Z105">
+        <v>1.5</v>
+      </c>
+      <c r="AA105">
+        <v>6</v>
+      </c>
+      <c r="AB105">
+        <v>1.13</v>
+      </c>
+      <c r="AC105">
+        <v>1.75</v>
+      </c>
+      <c r="AD105">
+        <v>4</v>
+      </c>
+      <c r="AE105">
+        <v>4.33</v>
+      </c>
+      <c r="AF105">
+        <v>1.03</v>
+      </c>
+      <c r="AG105">
+        <v>9</v>
+      </c>
+      <c r="AH105">
+        <v>1.17</v>
+      </c>
+      <c r="AI105">
+        <v>4.25</v>
+      </c>
+      <c r="AJ105">
+        <v>1.57</v>
+      </c>
+      <c r="AK105">
+        <v>2.38</v>
+      </c>
+      <c r="AL105">
+        <v>1.67</v>
+      </c>
+      <c r="AM105">
+        <v>2.1</v>
+      </c>
+      <c r="AN105">
+        <v>1.25</v>
+      </c>
+      <c r="AO105">
+        <v>1.26</v>
+      </c>
+      <c r="AP105">
+        <v>1.99</v>
+      </c>
+      <c r="AQ105">
+        <v>2.43</v>
+      </c>
+      <c r="AR105">
+        <v>1.78</v>
+      </c>
+      <c r="AS105">
+        <v>2.5</v>
+      </c>
+      <c r="AT105">
+        <v>1.6</v>
+      </c>
+      <c r="AU105">
+        <v>2.27</v>
+      </c>
+      <c r="AV105">
+        <v>1.94</v>
+      </c>
+      <c r="AW105">
+        <v>4.21</v>
+      </c>
+      <c r="AX105">
+        <v>1.64</v>
+      </c>
+      <c r="AY105">
+        <v>8.5</v>
+      </c>
+      <c r="AZ105">
+        <v>2.66</v>
+      </c>
+      <c r="BA105">
+        <v>1.16</v>
+      </c>
+      <c r="BB105">
+        <v>1.26</v>
+      </c>
+      <c r="BC105">
+        <v>1.49</v>
+      </c>
+      <c r="BD105">
+        <v>1.93</v>
+      </c>
+      <c r="BE105">
+        <v>2.4</v>
+      </c>
+      <c r="BF105">
+        <v>9</v>
+      </c>
+      <c r="BG105">
+        <v>7</v>
+      </c>
+      <c r="BH105">
+        <v>12</v>
+      </c>
+      <c r="BI105">
+        <v>9</v>
+      </c>
+      <c r="BJ105">
+        <v>21</v>
+      </c>
+      <c r="BK105">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>3216105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44982.23958333334</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>69</v>
+      </c>
+      <c r="H106" t="s">
+        <v>72</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>4</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>159</v>
+      </c>
+      <c r="P106" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q106">
+        <v>7</v>
+      </c>
+      <c r="R106">
+        <v>3</v>
+      </c>
+      <c r="S106">
+        <v>10</v>
+      </c>
+      <c r="T106">
+        <v>2.3</v>
+      </c>
+      <c r="U106">
+        <v>2.3</v>
+      </c>
+      <c r="V106">
+        <v>4.75</v>
+      </c>
+      <c r="W106">
+        <v>1.33</v>
+      </c>
+      <c r="X106">
+        <v>3.25</v>
+      </c>
+      <c r="Y106">
+        <v>2.63</v>
+      </c>
+      <c r="Z106">
+        <v>1.44</v>
+      </c>
+      <c r="AA106">
+        <v>6.5</v>
+      </c>
+      <c r="AB106">
+        <v>1.11</v>
+      </c>
+      <c r="AC106">
+        <v>1.75</v>
+      </c>
+      <c r="AD106">
+        <v>3.8</v>
+      </c>
+      <c r="AE106">
+        <v>4.5</v>
+      </c>
+      <c r="AF106">
+        <v>1.03</v>
+      </c>
+      <c r="AG106">
+        <v>13</v>
+      </c>
+      <c r="AH106">
+        <v>1.25</v>
+      </c>
+      <c r="AI106">
+        <v>3.6</v>
+      </c>
+      <c r="AJ106">
+        <v>1.75</v>
+      </c>
+      <c r="AK106">
+        <v>2.05</v>
+      </c>
+      <c r="AL106">
+        <v>1.75</v>
+      </c>
+      <c r="AM106">
+        <v>2</v>
+      </c>
+      <c r="AN106">
+        <v>1.22</v>
+      </c>
+      <c r="AO106">
+        <v>1.2</v>
+      </c>
+      <c r="AP106">
+        <v>2.05</v>
+      </c>
+      <c r="AQ106">
+        <v>1.75</v>
+      </c>
+      <c r="AR106">
+        <v>1</v>
+      </c>
+      <c r="AS106">
+        <v>1.89</v>
+      </c>
+      <c r="AT106">
+        <v>0.89</v>
+      </c>
+      <c r="AU106">
+        <v>1.45</v>
+      </c>
+      <c r="AV106">
+        <v>1.56</v>
+      </c>
+      <c r="AW106">
+        <v>3.01</v>
+      </c>
+      <c r="AX106">
+        <v>1.69</v>
+      </c>
+      <c r="AY106">
+        <v>8.5</v>
+      </c>
+      <c r="AZ106">
+        <v>2.53</v>
+      </c>
+      <c r="BA106">
+        <v>1.12</v>
+      </c>
+      <c r="BB106">
+        <v>1.21</v>
+      </c>
+      <c r="BC106">
+        <v>1.4</v>
+      </c>
+      <c r="BD106">
+        <v>1.7</v>
+      </c>
+      <c r="BE106">
+        <v>2.15</v>
+      </c>
+      <c r="BF106">
+        <v>7</v>
+      </c>
+      <c r="BG106">
+        <v>2</v>
+      </c>
+      <c r="BH106">
+        <v>9</v>
+      </c>
+      <c r="BI106">
+        <v>4</v>
+      </c>
+      <c r="BJ106">
+        <v>16</v>
+      </c>
+      <c r="BK106">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,12 @@
     <t>['3', '37', '56', '61']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['28', '45']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -689,6 +695,9 @@
   </si>
   <si>
     <t>['28', '90+6']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1303,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1572,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT3">
         <v>0.89</v>
@@ -1676,7 +1685,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1867,7 +1876,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1957,7 +1966,7 @@
         <v>1.44</v>
       </c>
       <c r="AT5">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2148,7 +2157,7 @@
         <v>1.89</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2249,7 +2258,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2336,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT7">
         <v>1.89</v>
@@ -2440,7 +2449,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2530,7 +2539,7 @@
         <v>1.44</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2631,7 +2640,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2718,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT9">
         <v>1.22</v>
@@ -2822,7 +2831,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3103,7 +3112,7 @@
         <v>1.44</v>
       </c>
       <c r="AT11">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3204,7 +3213,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3395,7 +3404,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3777,7 +3786,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3968,7 +3977,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4055,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT16">
         <v>1.89</v>
@@ -4159,7 +4168,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4249,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU17">
         <v>1.74</v>
@@ -4350,7 +4359,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4440,7 +4449,7 @@
         <v>1.7</v>
       </c>
       <c r="AT18">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4819,7 +4828,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT20">
         <v>0.89</v>
@@ -4923,7 +4932,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5114,7 +5123,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5305,7 +5314,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5395,7 +5404,7 @@
         <v>2.13</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5496,7 +5505,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5774,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT25">
         <v>1.22</v>
@@ -5968,7 +5977,7 @@
         <v>2.5</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU26">
         <v>2.03</v>
@@ -6069,7 +6078,7 @@
         <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6538,7 +6547,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT29">
         <v>1.6</v>
@@ -6642,7 +6651,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6732,7 +6741,7 @@
         <v>1.2</v>
       </c>
       <c r="AT30">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU30">
         <v>2.13</v>
@@ -7024,7 +7033,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7215,7 +7224,7 @@
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7406,7 +7415,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7597,7 +7606,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7788,7 +7797,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7875,10 +7884,10 @@
         <v>1.25</v>
       </c>
       <c r="AS36">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT36">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU36">
         <v>1.43</v>
@@ -7979,7 +7988,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8361,7 +8370,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8552,7 +8561,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8743,7 +8752,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8934,7 +8943,7 @@
         <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9215,7 +9224,7 @@
         <v>1.44</v>
       </c>
       <c r="AT43">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU43">
         <v>1.54</v>
@@ -9316,7 +9325,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9788,7 +9797,7 @@
         <v>1.44</v>
       </c>
       <c r="AT46">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU46">
         <v>1.51</v>
@@ -10080,7 +10089,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10167,7 +10176,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT48">
         <v>1.22</v>
@@ -10271,7 +10280,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10462,7 +10471,7 @@
         <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11035,7 +11044,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11608,7 +11617,7 @@
         <v>78</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11990,7 +11999,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12271,7 +12280,7 @@
         <v>2.13</v>
       </c>
       <c r="AT59">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU59">
         <v>1.79</v>
@@ -12372,7 +12381,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12459,7 +12468,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT60">
         <v>1.13</v>
@@ -12754,7 +12763,7 @@
         <v>78</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13035,7 +13044,7 @@
         <v>1.7</v>
       </c>
       <c r="AT63">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU63">
         <v>1.87</v>
@@ -13518,7 +13527,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13709,7 +13718,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13900,7 +13909,7 @@
         <v>78</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -13987,7 +13996,7 @@
         <v>1.25</v>
       </c>
       <c r="AS68">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT68">
         <v>1.33</v>
@@ -14091,7 +14100,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14282,7 +14291,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14473,7 +14482,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -14664,7 +14673,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15324,7 +15333,7 @@
         <v>2.17</v>
       </c>
       <c r="AS75">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT75">
         <v>1.89</v>
@@ -15619,7 +15628,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15810,7 +15819,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16001,7 +16010,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16088,7 +16097,7 @@
         <v>1.43</v>
       </c>
       <c r="AS79">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT79">
         <v>1.6</v>
@@ -16383,7 +16392,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16473,7 +16482,7 @@
         <v>1.44</v>
       </c>
       <c r="AT81">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU81">
         <v>1.66</v>
@@ -16574,7 +16583,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16765,7 +16774,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16956,7 +16965,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17046,7 +17055,7 @@
         <v>2.5</v>
       </c>
       <c r="AT84">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU84">
         <v>1.99</v>
@@ -17234,7 +17243,7 @@
         <v>1.6</v>
       </c>
       <c r="AS85">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT85">
         <v>1.33</v>
@@ -17338,7 +17347,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17529,7 +17538,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17911,7 +17920,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18293,7 +18302,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -18380,7 +18389,7 @@
         <v>1.17</v>
       </c>
       <c r="AS91">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT91">
         <v>1.38</v>
@@ -18484,7 +18493,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18574,7 +18583,7 @@
         <v>1.2</v>
       </c>
       <c r="AT92">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU92">
         <v>1.7</v>
@@ -18866,7 +18875,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19057,7 +19066,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19248,7 +19257,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19439,7 +19448,7 @@
         <v>78</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q97">
         <v>12</v>
@@ -19630,7 +19639,7 @@
         <v>105</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19821,7 +19830,7 @@
         <v>78</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20012,7 +20021,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20099,7 +20108,7 @@
         <v>2.13</v>
       </c>
       <c r="AS100">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT100">
         <v>1.89</v>
@@ -20203,7 +20212,7 @@
         <v>154</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20394,7 +20403,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20776,7 +20785,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20967,7 +20976,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21161,13 +21170,13 @@
         <v>78</v>
       </c>
       <c r="Q106">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R106">
         <v>3</v>
       </c>
       <c r="S106">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T106">
         <v>2.3</v>
@@ -21300,6 +21309,388 @@
       </c>
       <c r="BK106">
         <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>3216106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44983.04166666666</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>71</v>
+      </c>
+      <c r="H107" t="s">
+        <v>75</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>160</v>
+      </c>
+      <c r="P107" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q107">
+        <v>5</v>
+      </c>
+      <c r="R107">
+        <v>5</v>
+      </c>
+      <c r="S107">
+        <v>10</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
+        <v>2.3</v>
+      </c>
+      <c r="V107">
+        <v>3.6</v>
+      </c>
+      <c r="W107">
+        <v>1.33</v>
+      </c>
+      <c r="X107">
+        <v>3.25</v>
+      </c>
+      <c r="Y107">
+        <v>2.63</v>
+      </c>
+      <c r="Z107">
+        <v>1.44</v>
+      </c>
+      <c r="AA107">
+        <v>6.5</v>
+      </c>
+      <c r="AB107">
+        <v>1.11</v>
+      </c>
+      <c r="AC107">
+        <v>2.47</v>
+      </c>
+      <c r="AD107">
+        <v>3.56</v>
+      </c>
+      <c r="AE107">
+        <v>2.72</v>
+      </c>
+      <c r="AF107">
+        <v>1.04</v>
+      </c>
+      <c r="AG107">
+        <v>14</v>
+      </c>
+      <c r="AH107">
+        <v>1.22</v>
+      </c>
+      <c r="AI107">
+        <v>4.18</v>
+      </c>
+      <c r="AJ107">
+        <v>1.77</v>
+      </c>
+      <c r="AK107">
+        <v>2.05</v>
+      </c>
+      <c r="AL107">
+        <v>1.57</v>
+      </c>
+      <c r="AM107">
+        <v>2.25</v>
+      </c>
+      <c r="AN107">
+        <v>1.32</v>
+      </c>
+      <c r="AO107">
+        <v>1.32</v>
+      </c>
+      <c r="AP107">
+        <v>1.65</v>
+      </c>
+      <c r="AQ107">
+        <v>1.29</v>
+      </c>
+      <c r="AR107">
+        <v>1.11</v>
+      </c>
+      <c r="AS107">
+        <v>1.25</v>
+      </c>
+      <c r="AT107">
+        <v>1.1</v>
+      </c>
+      <c r="AU107">
+        <v>1.5</v>
+      </c>
+      <c r="AV107">
+        <v>1.72</v>
+      </c>
+      <c r="AW107">
+        <v>3.22</v>
+      </c>
+      <c r="AX107">
+        <v>1.69</v>
+      </c>
+      <c r="AY107">
+        <v>8.5</v>
+      </c>
+      <c r="AZ107">
+        <v>2.45</v>
+      </c>
+      <c r="BA107">
+        <v>1.12</v>
+      </c>
+      <c r="BB107">
+        <v>1.21</v>
+      </c>
+      <c r="BC107">
+        <v>1.4</v>
+      </c>
+      <c r="BD107">
+        <v>1.7</v>
+      </c>
+      <c r="BE107">
+        <v>2.15</v>
+      </c>
+      <c r="BF107">
+        <v>4</v>
+      </c>
+      <c r="BG107">
+        <v>6</v>
+      </c>
+      <c r="BH107">
+        <v>9</v>
+      </c>
+      <c r="BI107">
+        <v>4</v>
+      </c>
+      <c r="BJ107">
+        <v>13</v>
+      </c>
+      <c r="BK107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>3216107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44983.125</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>66</v>
+      </c>
+      <c r="H108" t="s">
+        <v>76</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>161</v>
+      </c>
+      <c r="P108" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q108">
+        <v>3</v>
+      </c>
+      <c r="R108">
+        <v>7</v>
+      </c>
+      <c r="S108">
+        <v>10</v>
+      </c>
+      <c r="T108">
+        <v>2.63</v>
+      </c>
+      <c r="U108">
+        <v>2.2</v>
+      </c>
+      <c r="V108">
+        <v>4</v>
+      </c>
+      <c r="W108">
+        <v>1.4</v>
+      </c>
+      <c r="X108">
+        <v>2.75</v>
+      </c>
+      <c r="Y108">
+        <v>3</v>
+      </c>
+      <c r="Z108">
+        <v>1.36</v>
+      </c>
+      <c r="AA108">
+        <v>8</v>
+      </c>
+      <c r="AB108">
+        <v>1.08</v>
+      </c>
+      <c r="AC108">
+        <v>2.17</v>
+      </c>
+      <c r="AD108">
+        <v>3.28</v>
+      </c>
+      <c r="AE108">
+        <v>3.48</v>
+      </c>
+      <c r="AF108">
+        <v>1.06</v>
+      </c>
+      <c r="AG108">
+        <v>10.75</v>
+      </c>
+      <c r="AH108">
+        <v>1.31</v>
+      </c>
+      <c r="AI108">
+        <v>3.38</v>
+      </c>
+      <c r="AJ108">
+        <v>1.82</v>
+      </c>
+      <c r="AK108">
+        <v>1.99</v>
+      </c>
+      <c r="AL108">
+        <v>1.8</v>
+      </c>
+      <c r="AM108">
+        <v>1.95</v>
+      </c>
+      <c r="AN108">
+        <v>1.2</v>
+      </c>
+      <c r="AO108">
+        <v>1.32</v>
+      </c>
+      <c r="AP108">
+        <v>1.75</v>
+      </c>
+      <c r="AQ108">
+        <v>0.89</v>
+      </c>
+      <c r="AR108">
+        <v>0.5</v>
+      </c>
+      <c r="AS108">
+        <v>1.1</v>
+      </c>
+      <c r="AT108">
+        <v>0.44</v>
+      </c>
+      <c r="AU108">
+        <v>1.47</v>
+      </c>
+      <c r="AV108">
+        <v>1.26</v>
+      </c>
+      <c r="AW108">
+        <v>2.73</v>
+      </c>
+      <c r="AX108">
+        <v>1.64</v>
+      </c>
+      <c r="AY108">
+        <v>8.5</v>
+      </c>
+      <c r="AZ108">
+        <v>2.66</v>
+      </c>
+      <c r="BA108">
+        <v>1.12</v>
+      </c>
+      <c r="BB108">
+        <v>1.26</v>
+      </c>
+      <c r="BC108">
+        <v>1.47</v>
+      </c>
+      <c r="BD108">
+        <v>1.82</v>
+      </c>
+      <c r="BE108">
+        <v>2.35</v>
+      </c>
+      <c r="BF108">
+        <v>7</v>
+      </c>
+      <c r="BG108">
+        <v>5</v>
+      </c>
+      <c r="BH108">
+        <v>7</v>
+      </c>
+      <c r="BI108">
+        <v>11</v>
+      </c>
+      <c r="BJ108">
+        <v>14</v>
+      </c>
+      <c r="BK108">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -21170,13 +21170,13 @@
         <v>78</v>
       </c>
       <c r="Q106">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R106">
         <v>3</v>
       </c>
       <c r="S106">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T106">
         <v>2.3</v>
@@ -21361,13 +21361,13 @@
         <v>227</v>
       </c>
       <c r="Q107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R107">
         <v>5</v>
       </c>
       <c r="S107">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T107">
         <v>2.75</v>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -21361,13 +21361,13 @@
         <v>227</v>
       </c>
       <c r="Q107">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R107">
         <v>5</v>
       </c>
       <c r="S107">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T107">
         <v>2.75</v>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,21 @@
     <t>['28', '45']</t>
   </si>
   <si>
+    <t>['45+3', '50', '57', '85']</t>
+  </si>
+  <si>
+    <t>['40', '45+6']</t>
+  </si>
+  <si>
+    <t>['42', '45+3']</t>
+  </si>
+  <si>
+    <t>['26', '60']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -698,6 +713,9 @@
   </si>
   <si>
     <t>['87']</t>
+  </si>
+  <si>
+    <t>['9', '62']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK108"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1321,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1685,7 +1703,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1772,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT4">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1876,7 +1894,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1963,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT5">
         <v>1.1</v>
@@ -2154,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT6">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2258,7 +2276,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2348,7 +2366,7 @@
         <v>1.1</v>
       </c>
       <c r="AT7">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU7">
         <v>1.4</v>
@@ -2449,7 +2467,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2539,7 +2557,7 @@
         <v>1.44</v>
       </c>
       <c r="AT8">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2640,7 +2658,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2831,7 +2849,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2918,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT10">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU10">
         <v>0.8100000000000001</v>
@@ -3213,7 +3231,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3300,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT12">
         <v>1.6</v>
@@ -3404,7 +3422,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3491,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT13">
         <v>0.89</v>
@@ -3786,7 +3804,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3873,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT15">
         <v>1.13</v>
@@ -3977,7 +3995,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4067,7 +4085,7 @@
         <v>1.25</v>
       </c>
       <c r="AT16">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU16">
         <v>1.32</v>
@@ -4168,7 +4186,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4255,7 +4273,7 @@
         <v>0.5</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT17">
         <v>1.1</v>
@@ -4359,7 +4377,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4449,7 +4467,7 @@
         <v>1.7</v>
       </c>
       <c r="AT18">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4637,10 +4655,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT19">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU19">
         <v>1.31</v>
@@ -4831,7 +4849,7 @@
         <v>1.1</v>
       </c>
       <c r="AT20">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU20">
         <v>1.25</v>
@@ -4932,7 +4950,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5123,7 +5141,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5314,7 +5332,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5401,10 +5419,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT23">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5505,7 +5523,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5786,7 +5804,7 @@
         <v>1.25</v>
       </c>
       <c r="AT25">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU25">
         <v>1.35</v>
@@ -5977,7 +5995,7 @@
         <v>2.5</v>
       </c>
       <c r="AT26">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU26">
         <v>2.03</v>
@@ -6078,7 +6096,7 @@
         <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6165,10 +6183,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT27">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU27">
         <v>1.3</v>
@@ -6356,7 +6374,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT28">
         <v>0.89</v>
@@ -6651,7 +6669,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6738,7 +6756,7 @@
         <v>0.67</v>
       </c>
       <c r="AS30">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT30">
         <v>1.1</v>
@@ -6929,10 +6947,10 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT31">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU31">
         <v>2.2</v>
@@ -7033,7 +7051,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7123,7 +7141,7 @@
         <v>1.44</v>
       </c>
       <c r="AT32">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU32">
         <v>1.2</v>
@@ -7224,7 +7242,7 @@
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7311,7 +7329,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT33">
         <v>1.22</v>
@@ -7415,7 +7433,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7502,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT34">
         <v>0.88</v>
@@ -7606,7 +7624,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7797,7 +7815,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7988,7 +8006,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8075,7 +8093,7 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT37">
         <v>1.22</v>
@@ -8266,10 +8284,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT38">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU38">
         <v>2.06</v>
@@ -8370,7 +8388,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8561,7 +8579,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8651,7 +8669,7 @@
         <v>1.7</v>
       </c>
       <c r="AT40">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU40">
         <v>2.04</v>
@@ -8752,7 +8770,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8842,7 +8860,7 @@
         <v>1.44</v>
       </c>
       <c r="AT41">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU41">
         <v>1.32</v>
@@ -8943,7 +8961,7 @@
         <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9221,7 +9239,7 @@
         <v>1.2</v>
       </c>
       <c r="AS43">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT43">
         <v>1.1</v>
@@ -9325,7 +9343,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9603,7 +9621,7 @@
         <v>2.33</v>
       </c>
       <c r="AS45">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT45">
         <v>1.22</v>
@@ -9797,7 +9815,7 @@
         <v>1.44</v>
       </c>
       <c r="AT46">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU46">
         <v>1.51</v>
@@ -9988,7 +10006,7 @@
         <v>1.7</v>
       </c>
       <c r="AT47">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU47">
         <v>1.83</v>
@@ -10089,7 +10107,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10280,7 +10298,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10471,7 +10489,7 @@
         <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10558,7 +10576,7 @@
         <v>1.25</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT50">
         <v>0.89</v>
@@ -10749,10 +10767,10 @@
         <v>1.75</v>
       </c>
       <c r="AS51">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT51">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU51">
         <v>2.02</v>
@@ -10943,7 +10961,7 @@
         <v>2.5</v>
       </c>
       <c r="AT52">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU52">
         <v>2.05</v>
@@ -11044,7 +11062,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11131,10 +11149,10 @@
         <v>0.75</v>
       </c>
       <c r="AS53">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT53">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU53">
         <v>1.81</v>
@@ -11322,7 +11340,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT54">
         <v>1.13</v>
@@ -11516,7 +11534,7 @@
         <v>1.7</v>
       </c>
       <c r="AT55">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU55">
         <v>1.95</v>
@@ -11617,7 +11635,7 @@
         <v>78</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11895,7 +11913,7 @@
         <v>1.6</v>
       </c>
       <c r="AS57">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT57">
         <v>0.89</v>
@@ -11999,7 +12017,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12086,10 +12104,10 @@
         <v>2.25</v>
       </c>
       <c r="AS58">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT58">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU58">
         <v>1.62</v>
@@ -12277,10 +12295,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT59">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU59">
         <v>1.79</v>
@@ -12381,7 +12399,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12763,7 +12781,7 @@
         <v>78</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12850,7 +12868,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT62">
         <v>1.33</v>
@@ -13426,7 +13444,7 @@
         <v>1.44</v>
       </c>
       <c r="AT65">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU65">
         <v>1.38</v>
@@ -13527,7 +13545,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13718,7 +13736,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13808,7 +13826,7 @@
         <v>1.44</v>
       </c>
       <c r="AT67">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU67">
         <v>1.5</v>
@@ -13909,7 +13927,7 @@
         <v>78</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14100,7 +14118,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14187,10 +14205,10 @@
         <v>1.17</v>
       </c>
       <c r="AS69">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT69">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU69">
         <v>1.72</v>
@@ -14291,7 +14309,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14482,7 +14500,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -14569,10 +14587,10 @@
         <v>2.4</v>
       </c>
       <c r="AS71">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT71">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU71">
         <v>1.4</v>
@@ -14673,7 +14691,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14760,10 +14778,10 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT72">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU72">
         <v>1.74</v>
@@ -14951,7 +14969,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT73">
         <v>0.89</v>
@@ -15142,7 +15160,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT74">
         <v>1.6</v>
@@ -15336,7 +15354,7 @@
         <v>1.1</v>
       </c>
       <c r="AT75">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU75">
         <v>1.46</v>
@@ -15527,7 +15545,7 @@
         <v>1.78</v>
       </c>
       <c r="AT76">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU76">
         <v>1.57</v>
@@ -15628,7 +15646,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15715,10 +15733,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT77">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU77">
         <v>1.73</v>
@@ -15819,7 +15837,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16010,7 +16028,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16392,7 +16410,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16479,10 +16497,10 @@
         <v>0.43</v>
       </c>
       <c r="AS81">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT81">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU81">
         <v>1.66</v>
@@ -16583,7 +16601,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16774,7 +16792,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16965,7 +16983,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17347,7 +17365,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17434,10 +17452,10 @@
         <v>1.4</v>
       </c>
       <c r="AS86">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT86">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU86">
         <v>1.89</v>
@@ -17538,7 +17556,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17816,7 +17834,7 @@
         <v>1.33</v>
       </c>
       <c r="AS88">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT88">
         <v>1.13</v>
@@ -17920,7 +17938,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18010,7 +18028,7 @@
         <v>1.78</v>
       </c>
       <c r="AT89">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU89">
         <v>1.64</v>
@@ -18198,7 +18216,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT90">
         <v>0.88</v>
@@ -18302,7 +18320,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -18392,7 +18410,7 @@
         <v>1.1</v>
       </c>
       <c r="AT91">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU91">
         <v>1.48</v>
@@ -18493,7 +18511,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18580,7 +18598,7 @@
         <v>0.88</v>
       </c>
       <c r="AS92">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT92">
         <v>1.1</v>
@@ -18771,7 +18789,7 @@
         <v>1.63</v>
       </c>
       <c r="AS93">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT93">
         <v>1.6</v>
@@ -18875,7 +18893,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -18965,7 +18983,7 @@
         <v>1.78</v>
       </c>
       <c r="AT94">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU94">
         <v>1.67</v>
@@ -19066,7 +19084,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19156,7 +19174,7 @@
         <v>1.44</v>
       </c>
       <c r="AT95">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU95">
         <v>1.49</v>
@@ -19257,7 +19275,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19448,7 +19466,7 @@
         <v>78</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>12</v>
@@ -19535,7 +19553,7 @@
         <v>1.14</v>
       </c>
       <c r="AS97">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT97">
         <v>1.33</v>
@@ -19639,7 +19657,7 @@
         <v>105</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19726,7 +19744,7 @@
         <v>1.14</v>
       </c>
       <c r="AS98">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT98">
         <v>1.13</v>
@@ -19830,7 +19848,7 @@
         <v>78</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19920,7 +19938,7 @@
         <v>1.44</v>
       </c>
       <c r="AT99">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU99">
         <v>1.57</v>
@@ -20021,7 +20039,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20111,7 +20129,7 @@
         <v>1.25</v>
       </c>
       <c r="AT100">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU100">
         <v>1.55</v>
@@ -20212,7 +20230,7 @@
         <v>154</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20302,7 +20320,7 @@
         <v>1.78</v>
       </c>
       <c r="AT101">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU101">
         <v>1.62</v>
@@ -20403,7 +20421,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20490,7 +20508,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT102">
         <v>1.22</v>
@@ -20785,7 +20803,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20976,7 +20994,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21254,7 +21272,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT106">
         <v>0.89</v>
@@ -21358,7 +21376,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21639,7 +21657,7 @@
         <v>1.1</v>
       </c>
       <c r="AT108">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU108">
         <v>1.47</v>
@@ -21691,6 +21709,961 @@
       </c>
       <c r="BK108">
         <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>3216108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44988.23958333334</v>
+      </c>
+      <c r="F109">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s">
+        <v>65</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>6</v>
+      </c>
+      <c r="O109" t="s">
+        <v>162</v>
+      </c>
+      <c r="P109" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q109">
+        <v>8</v>
+      </c>
+      <c r="R109">
+        <v>8</v>
+      </c>
+      <c r="S109">
+        <v>16</v>
+      </c>
+      <c r="T109">
+        <v>3.4</v>
+      </c>
+      <c r="U109">
+        <v>2.25</v>
+      </c>
+      <c r="V109">
+        <v>2.6</v>
+      </c>
+      <c r="W109">
+        <v>1.28</v>
+      </c>
+      <c r="X109">
+        <v>3.4</v>
+      </c>
+      <c r="Y109">
+        <v>2.2</v>
+      </c>
+      <c r="Z109">
+        <v>1.58</v>
+      </c>
+      <c r="AA109">
+        <v>5</v>
+      </c>
+      <c r="AB109">
+        <v>1.15</v>
+      </c>
+      <c r="AC109">
+        <v>3</v>
+      </c>
+      <c r="AD109">
+        <v>3.5</v>
+      </c>
+      <c r="AE109">
+        <v>2.1</v>
+      </c>
+      <c r="AF109">
+        <v>1.02</v>
+      </c>
+      <c r="AG109">
+        <v>15</v>
+      </c>
+      <c r="AH109">
+        <v>1.18</v>
+      </c>
+      <c r="AI109">
+        <v>4.75</v>
+      </c>
+      <c r="AJ109">
+        <v>1.53</v>
+      </c>
+      <c r="AK109">
+        <v>2.25</v>
+      </c>
+      <c r="AL109">
+        <v>1.49</v>
+      </c>
+      <c r="AM109">
+        <v>2.45</v>
+      </c>
+      <c r="AN109">
+        <v>1.66</v>
+      </c>
+      <c r="AO109">
+        <v>1.28</v>
+      </c>
+      <c r="AP109">
+        <v>1.35</v>
+      </c>
+      <c r="AQ109">
+        <v>2.13</v>
+      </c>
+      <c r="AR109">
+        <v>1.89</v>
+      </c>
+      <c r="AS109">
+        <v>2.22</v>
+      </c>
+      <c r="AT109">
+        <v>1.7</v>
+      </c>
+      <c r="AU109">
+        <v>1.61</v>
+      </c>
+      <c r="AV109">
+        <v>1.88</v>
+      </c>
+      <c r="AW109">
+        <v>3.49</v>
+      </c>
+      <c r="AX109">
+        <v>2.64</v>
+      </c>
+      <c r="AY109">
+        <v>8.5</v>
+      </c>
+      <c r="AZ109">
+        <v>1.64</v>
+      </c>
+      <c r="BA109">
+        <v>1.12</v>
+      </c>
+      <c r="BB109">
+        <v>1.25</v>
+      </c>
+      <c r="BC109">
+        <v>1.4</v>
+      </c>
+      <c r="BD109">
+        <v>1.73</v>
+      </c>
+      <c r="BE109">
+        <v>2.17</v>
+      </c>
+      <c r="BF109">
+        <v>11</v>
+      </c>
+      <c r="BG109">
+        <v>7</v>
+      </c>
+      <c r="BH109">
+        <v>4</v>
+      </c>
+      <c r="BI109">
+        <v>10</v>
+      </c>
+      <c r="BJ109">
+        <v>15</v>
+      </c>
+      <c r="BK109">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>3216109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44988.95833333334</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>68</v>
+      </c>
+      <c r="H110" t="s">
+        <v>70</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>163</v>
+      </c>
+      <c r="P110" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q110">
+        <v>3</v>
+      </c>
+      <c r="R110">
+        <v>7</v>
+      </c>
+      <c r="S110">
+        <v>10</v>
+      </c>
+      <c r="T110">
+        <v>2.45</v>
+      </c>
+      <c r="U110">
+        <v>2.2</v>
+      </c>
+      <c r="V110">
+        <v>3.8</v>
+      </c>
+      <c r="W110">
+        <v>1.32</v>
+      </c>
+      <c r="X110">
+        <v>3.1</v>
+      </c>
+      <c r="Y110">
+        <v>2.4</v>
+      </c>
+      <c r="Z110">
+        <v>1.5</v>
+      </c>
+      <c r="AA110">
+        <v>5.3</v>
+      </c>
+      <c r="AB110">
+        <v>1.12</v>
+      </c>
+      <c r="AC110">
+        <v>2</v>
+      </c>
+      <c r="AD110">
+        <v>3.6</v>
+      </c>
+      <c r="AE110">
+        <v>3.05</v>
+      </c>
+      <c r="AF110">
+        <v>1.01</v>
+      </c>
+      <c r="AG110">
+        <v>12</v>
+      </c>
+      <c r="AH110">
+        <v>1.17</v>
+      </c>
+      <c r="AI110">
+        <v>4.3</v>
+      </c>
+      <c r="AJ110">
+        <v>1.72</v>
+      </c>
+      <c r="AK110">
+        <v>2.1</v>
+      </c>
+      <c r="AL110">
+        <v>1.52</v>
+      </c>
+      <c r="AM110">
+        <v>2.35</v>
+      </c>
+      <c r="AN110">
+        <v>1.2</v>
+      </c>
+      <c r="AO110">
+        <v>1.27</v>
+      </c>
+      <c r="AP110">
+        <v>1.85</v>
+      </c>
+      <c r="AQ110">
+        <v>1.44</v>
+      </c>
+      <c r="AR110">
+        <v>1.22</v>
+      </c>
+      <c r="AS110">
+        <v>1.6</v>
+      </c>
+      <c r="AT110">
+        <v>1.1</v>
+      </c>
+      <c r="AU110">
+        <v>1.59</v>
+      </c>
+      <c r="AV110">
+        <v>1.36</v>
+      </c>
+      <c r="AW110">
+        <v>2.95</v>
+      </c>
+      <c r="AX110">
+        <v>1.55</v>
+      </c>
+      <c r="AY110">
+        <v>9</v>
+      </c>
+      <c r="AZ110">
+        <v>2.9</v>
+      </c>
+      <c r="BA110">
+        <v>1.14</v>
+      </c>
+      <c r="BB110">
+        <v>1.28</v>
+      </c>
+      <c r="BC110">
+        <v>1.49</v>
+      </c>
+      <c r="BD110">
+        <v>1.8</v>
+      </c>
+      <c r="BE110">
+        <v>2.27</v>
+      </c>
+      <c r="BF110">
+        <v>5</v>
+      </c>
+      <c r="BG110">
+        <v>7</v>
+      </c>
+      <c r="BH110">
+        <v>3</v>
+      </c>
+      <c r="BI110">
+        <v>10</v>
+      </c>
+      <c r="BJ110">
+        <v>8</v>
+      </c>
+      <c r="BK110">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>3216110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44989.125</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>73</v>
+      </c>
+      <c r="H111" t="s">
+        <v>76</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>3</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>164</v>
+      </c>
+      <c r="P111" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q111">
+        <v>9</v>
+      </c>
+      <c r="R111">
+        <v>4</v>
+      </c>
+      <c r="S111">
+        <v>13</v>
+      </c>
+      <c r="T111">
+        <v>2.64</v>
+      </c>
+      <c r="U111">
+        <v>2.25</v>
+      </c>
+      <c r="V111">
+        <v>3.78</v>
+      </c>
+      <c r="W111">
+        <v>1.33</v>
+      </c>
+      <c r="X111">
+        <v>3.25</v>
+      </c>
+      <c r="Y111">
+        <v>2.5</v>
+      </c>
+      <c r="Z111">
+        <v>1.5</v>
+      </c>
+      <c r="AA111">
+        <v>5.5</v>
+      </c>
+      <c r="AB111">
+        <v>1.12</v>
+      </c>
+      <c r="AC111">
+        <v>1.91</v>
+      </c>
+      <c r="AD111">
+        <v>3.4</v>
+      </c>
+      <c r="AE111">
+        <v>3.6</v>
+      </c>
+      <c r="AF111">
+        <v>1.04</v>
+      </c>
+      <c r="AG111">
+        <v>10</v>
+      </c>
+      <c r="AH111">
+        <v>1.22</v>
+      </c>
+      <c r="AI111">
+        <v>4</v>
+      </c>
+      <c r="AJ111">
+        <v>1.67</v>
+      </c>
+      <c r="AK111">
+        <v>2</v>
+      </c>
+      <c r="AL111">
+        <v>1.62</v>
+      </c>
+      <c r="AM111">
+        <v>2.2</v>
+      </c>
+      <c r="AN111">
+        <v>1.34</v>
+      </c>
+      <c r="AO111">
+        <v>1.29</v>
+      </c>
+      <c r="AP111">
+        <v>1.73</v>
+      </c>
+      <c r="AQ111">
+        <v>1.2</v>
+      </c>
+      <c r="AR111">
+        <v>0.44</v>
+      </c>
+      <c r="AS111">
+        <v>1.36</v>
+      </c>
+      <c r="AT111">
+        <v>0.4</v>
+      </c>
+      <c r="AU111">
+        <v>1.69</v>
+      </c>
+      <c r="AV111">
+        <v>1.33</v>
+      </c>
+      <c r="AW111">
+        <v>3.02</v>
+      </c>
+      <c r="AX111">
+        <v>1.75</v>
+      </c>
+      <c r="AY111">
+        <v>8.5</v>
+      </c>
+      <c r="AZ111">
+        <v>2.43</v>
+      </c>
+      <c r="BA111">
+        <v>1.14</v>
+      </c>
+      <c r="BB111">
+        <v>1.28</v>
+      </c>
+      <c r="BC111">
+        <v>1.49</v>
+      </c>
+      <c r="BD111">
+        <v>1.83</v>
+      </c>
+      <c r="BE111">
+        <v>2.27</v>
+      </c>
+      <c r="BF111">
+        <v>4</v>
+      </c>
+      <c r="BG111">
+        <v>8</v>
+      </c>
+      <c r="BH111">
+        <v>4</v>
+      </c>
+      <c r="BI111">
+        <v>8</v>
+      </c>
+      <c r="BJ111">
+        <v>8</v>
+      </c>
+      <c r="BK111">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>3216111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44989.125</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>69</v>
+      </c>
+      <c r="H112" t="s">
+        <v>74</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>165</v>
+      </c>
+      <c r="P112" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q112">
+        <v>5</v>
+      </c>
+      <c r="R112">
+        <v>11</v>
+      </c>
+      <c r="S112">
+        <v>16</v>
+      </c>
+      <c r="T112">
+        <v>2.65</v>
+      </c>
+      <c r="U112">
+        <v>2.2</v>
+      </c>
+      <c r="V112">
+        <v>3.4</v>
+      </c>
+      <c r="W112">
+        <v>1.32</v>
+      </c>
+      <c r="X112">
+        <v>3.1</v>
+      </c>
+      <c r="Y112">
+        <v>2.5</v>
+      </c>
+      <c r="Z112">
+        <v>1.45</v>
+      </c>
+      <c r="AA112">
+        <v>5.3</v>
+      </c>
+      <c r="AB112">
+        <v>1.12</v>
+      </c>
+      <c r="AC112">
+        <v>2.4</v>
+      </c>
+      <c r="AD112">
+        <v>3.3</v>
+      </c>
+      <c r="AE112">
+        <v>2.6</v>
+      </c>
+      <c r="AF112">
+        <v>1.03</v>
+      </c>
+      <c r="AG112">
+        <v>11</v>
+      </c>
+      <c r="AH112">
+        <v>1.22</v>
+      </c>
+      <c r="AI112">
+        <v>4</v>
+      </c>
+      <c r="AJ112">
+        <v>1.61</v>
+      </c>
+      <c r="AK112">
+        <v>2.1</v>
+      </c>
+      <c r="AL112">
+        <v>1.6</v>
+      </c>
+      <c r="AM112">
+        <v>2.25</v>
+      </c>
+      <c r="AN112">
+        <v>1.35</v>
+      </c>
+      <c r="AO112">
+        <v>1.28</v>
+      </c>
+      <c r="AP112">
+        <v>1.55</v>
+      </c>
+      <c r="AQ112">
+        <v>1.89</v>
+      </c>
+      <c r="AR112">
+        <v>1.38</v>
+      </c>
+      <c r="AS112">
+        <v>2</v>
+      </c>
+      <c r="AT112">
+        <v>1.22</v>
+      </c>
+      <c r="AU112">
+        <v>1.54</v>
+      </c>
+      <c r="AV112">
+        <v>1.78</v>
+      </c>
+      <c r="AW112">
+        <v>3.32</v>
+      </c>
+      <c r="AX112">
+        <v>1.95</v>
+      </c>
+      <c r="AY112">
+        <v>8.5</v>
+      </c>
+      <c r="AZ112">
+        <v>2.05</v>
+      </c>
+      <c r="BA112">
+        <v>1.14</v>
+      </c>
+      <c r="BB112">
+        <v>1.28</v>
+      </c>
+      <c r="BC112">
+        <v>1.49</v>
+      </c>
+      <c r="BD112">
+        <v>1.8</v>
+      </c>
+      <c r="BE112">
+        <v>2.27</v>
+      </c>
+      <c r="BF112">
+        <v>7</v>
+      </c>
+      <c r="BG112">
+        <v>4</v>
+      </c>
+      <c r="BH112">
+        <v>6</v>
+      </c>
+      <c r="BI112">
+        <v>5</v>
+      </c>
+      <c r="BJ112">
+        <v>13</v>
+      </c>
+      <c r="BK112">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>3216112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44989.23958333334</v>
+      </c>
+      <c r="F113">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>67</v>
+      </c>
+      <c r="H113" t="s">
+        <v>71</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>166</v>
+      </c>
+      <c r="P113" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q113">
+        <v>4</v>
+      </c>
+      <c r="R113">
+        <v>4</v>
+      </c>
+      <c r="S113">
+        <v>8</v>
+      </c>
+      <c r="T113">
+        <v>2.62</v>
+      </c>
+      <c r="U113">
+        <v>2.24</v>
+      </c>
+      <c r="V113">
+        <v>3.88</v>
+      </c>
+      <c r="W113">
+        <v>1.33</v>
+      </c>
+      <c r="X113">
+        <v>3.25</v>
+      </c>
+      <c r="Y113">
+        <v>2.5</v>
+      </c>
+      <c r="Z113">
+        <v>1.5</v>
+      </c>
+      <c r="AA113">
+        <v>5.5</v>
+      </c>
+      <c r="AB113">
+        <v>1.12</v>
+      </c>
+      <c r="AC113">
+        <v>2.15</v>
+      </c>
+      <c r="AD113">
+        <v>3.3</v>
+      </c>
+      <c r="AE113">
+        <v>3</v>
+      </c>
+      <c r="AF113">
+        <v>1.05</v>
+      </c>
+      <c r="AG113">
+        <v>9</v>
+      </c>
+      <c r="AH113">
+        <v>1.25</v>
+      </c>
+      <c r="AI113">
+        <v>3.75</v>
+      </c>
+      <c r="AJ113">
+        <v>1.67</v>
+      </c>
+      <c r="AK113">
+        <v>2</v>
+      </c>
+      <c r="AL113">
+        <v>1.67</v>
+      </c>
+      <c r="AM113">
+        <v>2.1</v>
+      </c>
+      <c r="AN113">
+        <v>1.33</v>
+      </c>
+      <c r="AO113">
+        <v>1.25</v>
+      </c>
+      <c r="AP113">
+        <v>1.73</v>
+      </c>
+      <c r="AQ113">
+        <v>1</v>
+      </c>
+      <c r="AR113">
+        <v>0.89</v>
+      </c>
+      <c r="AS113">
+        <v>1.22</v>
+      </c>
+      <c r="AT113">
+        <v>0.8</v>
+      </c>
+      <c r="AU113">
+        <v>1.89</v>
+      </c>
+      <c r="AV113">
+        <v>1.76</v>
+      </c>
+      <c r="AW113">
+        <v>3.65</v>
+      </c>
+      <c r="AX113">
+        <v>1.75</v>
+      </c>
+      <c r="AY113">
+        <v>8.5</v>
+      </c>
+      <c r="AZ113">
+        <v>2.43</v>
+      </c>
+      <c r="BA113">
+        <v>1.16</v>
+      </c>
+      <c r="BB113">
+        <v>1.32</v>
+      </c>
+      <c r="BC113">
+        <v>1.55</v>
+      </c>
+      <c r="BD113">
+        <v>1.88</v>
+      </c>
+      <c r="BE113">
+        <v>2.4</v>
+      </c>
+      <c r="BF113">
+        <v>2</v>
+      </c>
+      <c r="BG113">
+        <v>5</v>
+      </c>
+      <c r="BH113">
+        <v>1</v>
+      </c>
+      <c r="BI113">
+        <v>6</v>
+      </c>
+      <c r="BJ113">
+        <v>3</v>
+      </c>
+      <c r="BK113">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="236">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,9 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['14', '67', '90+5']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -716,6 +719,9 @@
   </si>
   <si>
     <t>['9', '62']</t>
+  </si>
+  <si>
+    <t>['78', '80']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,7 +1327,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1703,7 +1709,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1894,7 +1900,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2276,7 +2282,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2467,7 +2473,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2658,7 +2664,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2849,7 +2855,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3127,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT11">
         <v>1.1</v>
@@ -3231,7 +3237,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3422,7 +3428,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3804,7 +3810,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3894,7 +3900,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>1.28</v>
@@ -3995,7 +4001,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4186,7 +4192,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4377,7 +4383,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4950,7 +4956,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5141,7 +5147,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5228,7 +5234,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT22">
         <v>1.6</v>
@@ -5332,7 +5338,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5523,7 +5529,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6096,7 +6102,7 @@
         <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6669,7 +6675,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7051,7 +7057,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7242,7 +7248,7 @@
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7433,7 +7439,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7624,7 +7630,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7815,7 +7821,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8006,7 +8012,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8388,7 +8394,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8579,7 +8585,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8770,7 +8776,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8857,7 +8863,7 @@
         <v>1.33</v>
       </c>
       <c r="AS41">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT41">
         <v>0.8</v>
@@ -8961,7 +8967,7 @@
         <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9051,7 +9057,7 @@
         <v>1.44</v>
       </c>
       <c r="AT42">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>1.49</v>
@@ -9343,7 +9349,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9812,7 +9818,7 @@
         <v>0.6</v>
       </c>
       <c r="AS46">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT46">
         <v>0.4</v>
@@ -10107,7 +10113,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10298,7 +10304,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10489,7 +10495,7 @@
         <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11062,7 +11068,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11343,7 +11349,7 @@
         <v>1.36</v>
       </c>
       <c r="AT54">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>1.82</v>
@@ -11635,7 +11641,7 @@
         <v>78</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12017,7 +12023,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12399,7 +12405,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12489,7 +12495,7 @@
         <v>1.25</v>
       </c>
       <c r="AT60">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>1.55</v>
@@ -12781,7 +12787,7 @@
         <v>78</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13441,7 +13447,7 @@
         <v>1.2</v>
       </c>
       <c r="AS65">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT65">
         <v>1.1</v>
@@ -13545,7 +13551,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13635,7 +13641,7 @@
         <v>1.78</v>
       </c>
       <c r="AT66">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU66">
         <v>1.66</v>
@@ -13736,7 +13742,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13823,7 +13829,7 @@
         <v>1.33</v>
       </c>
       <c r="AS67">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT67">
         <v>1.22</v>
@@ -13927,7 +13933,7 @@
         <v>78</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14118,7 +14124,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14309,7 +14315,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14500,7 +14506,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -14691,7 +14697,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15646,7 +15652,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15837,7 +15843,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16028,7 +16034,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16309,7 +16315,7 @@
         <v>1.44</v>
       </c>
       <c r="AT80">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>1.43</v>
@@ -16410,7 +16416,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16601,7 +16607,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16688,7 +16694,7 @@
         <v>0.6</v>
       </c>
       <c r="AS82">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT82">
         <v>0.88</v>
@@ -16792,7 +16798,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16983,7 +16989,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17365,7 +17371,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17556,7 +17562,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17837,7 +17843,7 @@
         <v>2.22</v>
       </c>
       <c r="AT88">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -17938,7 +17944,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18320,7 +18326,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -18511,7 +18517,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18893,7 +18899,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19084,7 +19090,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19275,7 +19281,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19362,7 +19368,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT96">
         <v>1.33</v>
@@ -19466,7 +19472,7 @@
         <v>78</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>12</v>
@@ -19657,7 +19663,7 @@
         <v>105</v>
       </c>
       <c r="P98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19747,7 +19753,7 @@
         <v>1.22</v>
       </c>
       <c r="AT98">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.88</v>
@@ -19848,7 +19854,7 @@
         <v>78</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19935,7 +19941,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT99">
         <v>1.1</v>
@@ -20039,7 +20045,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20230,7 +20236,7 @@
         <v>154</v>
       </c>
       <c r="P101" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20421,7 +20427,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20803,7 +20809,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20994,7 +21000,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21376,7 +21382,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21758,7 +21764,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21949,7 +21955,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22664,6 +22670,197 @@
       </c>
       <c r="BK113">
         <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>3216113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44990.04166666666</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>72</v>
+      </c>
+      <c r="H114" t="s">
+        <v>66</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>5</v>
+      </c>
+      <c r="O114" t="s">
+        <v>167</v>
+      </c>
+      <c r="P114" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q114">
+        <v>2</v>
+      </c>
+      <c r="R114">
+        <v>5</v>
+      </c>
+      <c r="S114">
+        <v>7</v>
+      </c>
+      <c r="T114">
+        <v>3.2</v>
+      </c>
+      <c r="U114">
+        <v>2.2</v>
+      </c>
+      <c r="V114">
+        <v>3.2</v>
+      </c>
+      <c r="W114">
+        <v>1.36</v>
+      </c>
+      <c r="X114">
+        <v>3</v>
+      </c>
+      <c r="Y114">
+        <v>2.75</v>
+      </c>
+      <c r="Z114">
+        <v>1.4</v>
+      </c>
+      <c r="AA114">
+        <v>7</v>
+      </c>
+      <c r="AB114">
+        <v>1.1</v>
+      </c>
+      <c r="AC114">
+        <v>2.7</v>
+      </c>
+      <c r="AD114">
+        <v>3.3</v>
+      </c>
+      <c r="AE114">
+        <v>2.6</v>
+      </c>
+      <c r="AF114">
+        <v>1.04</v>
+      </c>
+      <c r="AG114">
+        <v>12</v>
+      </c>
+      <c r="AH114">
+        <v>1.28</v>
+      </c>
+      <c r="AI114">
+        <v>3.75</v>
+      </c>
+      <c r="AJ114">
+        <v>1.73</v>
+      </c>
+      <c r="AK114">
+        <v>1.92</v>
+      </c>
+      <c r="AL114">
+        <v>1.67</v>
+      </c>
+      <c r="AM114">
+        <v>2.1</v>
+      </c>
+      <c r="AN114">
+        <v>1.47</v>
+      </c>
+      <c r="AO114">
+        <v>1.25</v>
+      </c>
+      <c r="AP114">
+        <v>1.52</v>
+      </c>
+      <c r="AQ114">
+        <v>1.44</v>
+      </c>
+      <c r="AR114">
+        <v>1.13</v>
+      </c>
+      <c r="AS114">
+        <v>1.6</v>
+      </c>
+      <c r="AT114">
+        <v>1</v>
+      </c>
+      <c r="AU114">
+        <v>1.54</v>
+      </c>
+      <c r="AV114">
+        <v>1.53</v>
+      </c>
+      <c r="AW114">
+        <v>3.07</v>
+      </c>
+      <c r="AX114">
+        <v>2.1</v>
+      </c>
+      <c r="AY114">
+        <v>8.5</v>
+      </c>
+      <c r="AZ114">
+        <v>1.91</v>
+      </c>
+      <c r="BA114">
+        <v>1.1</v>
+      </c>
+      <c r="BB114">
+        <v>1.22</v>
+      </c>
+      <c r="BC114">
+        <v>1.44</v>
+      </c>
+      <c r="BD114">
+        <v>1.76</v>
+      </c>
+      <c r="BE114">
+        <v>2.22</v>
+      </c>
+      <c r="BF114">
+        <v>4</v>
+      </c>
+      <c r="BG114">
+        <v>6</v>
+      </c>
+      <c r="BH114">
+        <v>6</v>
+      </c>
+      <c r="BI114">
+        <v>6</v>
+      </c>
+      <c r="BJ114">
+        <v>10</v>
+      </c>
+      <c r="BK114">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>['14', '67', '90+5']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1083,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK114"/>
+  <dimension ref="A1:BK115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1330,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1709,7 +1712,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1900,7 +1903,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2282,7 +2285,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2473,7 +2476,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2664,7 +2667,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2754,7 +2757,7 @@
         <v>1.25</v>
       </c>
       <c r="AT9">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2855,7 +2858,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3237,7 +3240,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3428,7 +3431,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3810,7 +3813,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4001,7 +4004,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4192,7 +4195,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4383,7 +4386,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4956,7 +4959,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5147,7 +5150,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5338,7 +5341,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5529,7 +5532,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6102,7 +6105,7 @@
         <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6675,7 +6678,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7057,7 +7060,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7248,7 +7251,7 @@
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7338,7 +7341,7 @@
         <v>1.22</v>
       </c>
       <c r="AT33">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU33">
         <v>2.41</v>
@@ -7439,7 +7442,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7630,7 +7633,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7821,7 +7824,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8012,7 +8015,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8102,7 +8105,7 @@
         <v>1.6</v>
       </c>
       <c r="AT37">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU37">
         <v>1.53</v>
@@ -8394,7 +8397,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8481,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT39">
         <v>0.88</v>
@@ -8585,7 +8588,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8776,7 +8779,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8967,7 +8970,7 @@
         <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9349,7 +9352,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9630,7 +9633,7 @@
         <v>1.36</v>
       </c>
       <c r="AT45">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU45">
         <v>2.27</v>
@@ -10113,7 +10116,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10203,7 +10206,7 @@
         <v>1.1</v>
       </c>
       <c r="AT48">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU48">
         <v>1.51</v>
@@ -10304,7 +10307,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10391,7 +10394,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT49">
         <v>1.33</v>
@@ -10495,7 +10498,7 @@
         <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11068,7 +11071,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11641,7 +11644,7 @@
         <v>78</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12023,7 +12026,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12405,7 +12408,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12683,10 +12686,10 @@
         <v>1.6</v>
       </c>
       <c r="AS61">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT61">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU61">
         <v>1.69</v>
@@ -12787,7 +12790,7 @@
         <v>78</v>
       </c>
       <c r="P62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13551,7 +13554,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13638,7 +13641,7 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT66">
         <v>1</v>
@@ -13742,7 +13745,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13933,7 +13936,7 @@
         <v>78</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14124,7 +14127,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14315,7 +14318,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14402,7 +14405,7 @@
         <v>1.8</v>
       </c>
       <c r="AS70">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT70">
         <v>1.6</v>
@@ -14506,7 +14509,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -14697,7 +14700,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15548,7 +15551,7 @@
         <v>1.14</v>
       </c>
       <c r="AS76">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT76">
         <v>0.8</v>
@@ -15652,7 +15655,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15843,7 +15846,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -15933,7 +15936,7 @@
         <v>1.44</v>
       </c>
       <c r="AT78">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU78">
         <v>1.46</v>
@@ -16034,7 +16037,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16416,7 +16419,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16607,7 +16610,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16798,7 +16801,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16888,7 +16891,7 @@
         <v>1.7</v>
       </c>
       <c r="AT83">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU83">
         <v>1.98</v>
@@ -16989,7 +16992,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17371,7 +17374,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17562,7 +17565,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17944,7 +17947,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18031,7 +18034,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT89">
         <v>1.1</v>
@@ -18326,7 +18329,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -18517,7 +18520,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18899,7 +18902,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -18986,7 +18989,7 @@
         <v>2</v>
       </c>
       <c r="AS94">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT94">
         <v>1.7</v>
@@ -19090,7 +19093,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19281,7 +19284,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19472,7 +19475,7 @@
         <v>78</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>12</v>
@@ -19663,7 +19666,7 @@
         <v>105</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19854,7 +19857,7 @@
         <v>78</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20045,7 +20048,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20236,7 +20239,7 @@
         <v>154</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20323,7 +20326,7 @@
         <v>1.43</v>
       </c>
       <c r="AS101">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT101">
         <v>1.22</v>
@@ -20427,7 +20430,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20517,7 +20520,7 @@
         <v>2.22</v>
       </c>
       <c r="AT102">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU102">
         <v>1.63</v>
@@ -20809,7 +20812,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21000,7 +21003,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21382,7 +21385,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21764,7 +21767,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21955,7 +21958,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22719,7 +22722,7 @@
         <v>167</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22861,6 +22864,197 @@
       </c>
       <c r="BK114">
         <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>3216115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44995.33333333334</v>
+      </c>
+      <c r="F115">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>76</v>
+      </c>
+      <c r="H115" t="s">
+        <v>69</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>168</v>
+      </c>
+      <c r="P115" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q115">
+        <v>7</v>
+      </c>
+      <c r="R115">
+        <v>13</v>
+      </c>
+      <c r="S115">
+        <v>20</v>
+      </c>
+      <c r="T115">
+        <v>3.4</v>
+      </c>
+      <c r="U115">
+        <v>2.05</v>
+      </c>
+      <c r="V115">
+        <v>2.9</v>
+      </c>
+      <c r="W115">
+        <v>1.36</v>
+      </c>
+      <c r="X115">
+        <v>3</v>
+      </c>
+      <c r="Y115">
+        <v>2.62</v>
+      </c>
+      <c r="Z115">
+        <v>1.44</v>
+      </c>
+      <c r="AA115">
+        <v>6</v>
+      </c>
+      <c r="AB115">
+        <v>1.11</v>
+      </c>
+      <c r="AC115">
+        <v>2.94</v>
+      </c>
+      <c r="AD115">
+        <v>3.55</v>
+      </c>
+      <c r="AE115">
+        <v>2.32</v>
+      </c>
+      <c r="AF115">
+        <v>1.05</v>
+      </c>
+      <c r="AG115">
+        <v>9</v>
+      </c>
+      <c r="AH115">
+        <v>1.29</v>
+      </c>
+      <c r="AI115">
+        <v>3.5</v>
+      </c>
+      <c r="AJ115">
+        <v>1.88</v>
+      </c>
+      <c r="AK115">
+        <v>1.98</v>
+      </c>
+      <c r="AL115">
+        <v>1.67</v>
+      </c>
+      <c r="AM115">
+        <v>2.1</v>
+      </c>
+      <c r="AN115">
+        <v>1.55</v>
+      </c>
+      <c r="AO115">
+        <v>1.32</v>
+      </c>
+      <c r="AP115">
+        <v>1.38</v>
+      </c>
+      <c r="AQ115">
+        <v>1.78</v>
+      </c>
+      <c r="AR115">
+        <v>1.22</v>
+      </c>
+      <c r="AS115">
+        <v>1.9</v>
+      </c>
+      <c r="AT115">
+        <v>1.1</v>
+      </c>
+      <c r="AU115">
+        <v>1.63</v>
+      </c>
+      <c r="AV115">
+        <v>1.57</v>
+      </c>
+      <c r="AW115">
+        <v>3.2</v>
+      </c>
+      <c r="AX115">
+        <v>2.43</v>
+      </c>
+      <c r="AY115">
+        <v>8.5</v>
+      </c>
+      <c r="AZ115">
+        <v>1.75</v>
+      </c>
+      <c r="BA115">
+        <v>1.14</v>
+      </c>
+      <c r="BB115">
+        <v>1.28</v>
+      </c>
+      <c r="BC115">
+        <v>1.48</v>
+      </c>
+      <c r="BD115">
+        <v>1.8</v>
+      </c>
+      <c r="BE115">
+        <v>2.3</v>
+      </c>
+      <c r="BF115">
+        <v>3</v>
+      </c>
+      <c r="BG115">
+        <v>7</v>
+      </c>
+      <c r="BH115">
+        <v>2</v>
+      </c>
+      <c r="BI115">
+        <v>13</v>
+      </c>
+      <c r="BJ115">
+        <v>5</v>
+      </c>
+      <c r="BK115">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,12 @@
     <t>['90+5']</t>
   </si>
   <si>
+    <t>['30', '47', '51', '63']</t>
+  </si>
+  <si>
+    <t>['16', '45+3']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -725,6 +731,9 @@
   </si>
   <si>
     <t>['78', '80']</t>
+  </si>
+  <si>
+    <t>['12', '14', '44', '65']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK115"/>
+  <dimension ref="A1:BK117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1339,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1611,7 +1620,7 @@
         <v>1.1</v>
       </c>
       <c r="AT3">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1712,7 +1721,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1903,7 +1912,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1993,7 +2002,7 @@
         <v>1.6</v>
       </c>
       <c r="AT5">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2285,7 +2294,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2476,7 +2485,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2563,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT8">
         <v>0.4</v>
@@ -2667,7 +2676,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2858,7 +2867,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3139,7 +3148,7 @@
         <v>1.6</v>
       </c>
       <c r="AT11">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3240,7 +3249,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3431,7 +3440,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3521,7 +3530,7 @@
         <v>1.36</v>
       </c>
       <c r="AT13">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU13">
         <v>1.69</v>
@@ -3709,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT14">
         <v>1.33</v>
@@ -3813,7 +3822,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4004,7 +4013,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4195,7 +4204,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4285,7 +4294,7 @@
         <v>1.22</v>
       </c>
       <c r="AT17">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU17">
         <v>1.74</v>
@@ -4386,7 +4395,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4473,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT18">
         <v>0.4</v>
@@ -4959,7 +4968,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5046,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT21">
         <v>0.88</v>
@@ -5150,7 +5159,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5341,7 +5350,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5532,7 +5541,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6105,7 +6114,7 @@
         <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6386,7 +6395,7 @@
         <v>1.6</v>
       </c>
       <c r="AT28">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU28">
         <v>1.39</v>
@@ -6678,7 +6687,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6768,7 +6777,7 @@
         <v>1.36</v>
       </c>
       <c r="AT30">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU30">
         <v>2.13</v>
@@ -7060,7 +7069,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7147,7 +7156,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT32">
         <v>1.7</v>
@@ -7251,7 +7260,7 @@
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7442,7 +7451,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7633,7 +7642,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7720,10 +7729,10 @@
         <v>0.67</v>
       </c>
       <c r="AS35">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT35">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU35">
         <v>2.11</v>
@@ -7824,7 +7833,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7914,7 +7923,7 @@
         <v>1.1</v>
       </c>
       <c r="AT36">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU36">
         <v>1.43</v>
@@ -8015,7 +8024,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8397,7 +8406,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8588,7 +8597,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8675,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT40">
         <v>1.1</v>
@@ -8779,7 +8788,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8970,7 +8979,7 @@
         <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9057,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9251,7 +9260,7 @@
         <v>1.6</v>
       </c>
       <c r="AT43">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU43">
         <v>1.54</v>
@@ -9352,7 +9361,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9439,7 +9448,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT44">
         <v>1.6</v>
@@ -10012,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT47">
         <v>1.1</v>
@@ -10116,7 +10125,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10307,7 +10316,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10498,7 +10507,7 @@
         <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10588,7 +10597,7 @@
         <v>1.22</v>
       </c>
       <c r="AT50">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU50">
         <v>2.05</v>
@@ -11071,7 +11080,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11540,7 +11549,7 @@
         <v>1.4</v>
       </c>
       <c r="AS55">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT55">
         <v>0.8</v>
@@ -11644,7 +11653,7 @@
         <v>78</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11731,7 +11740,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT56">
         <v>1.6</v>
@@ -11925,7 +11934,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU57">
         <v>1.23</v>
@@ -12026,7 +12035,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12408,7 +12417,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12790,7 +12799,7 @@
         <v>78</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13068,10 +13077,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT63">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU63">
         <v>1.87</v>
@@ -13554,7 +13563,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13745,7 +13754,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13936,7 +13945,7 @@
         <v>78</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14127,7 +14136,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14318,7 +14327,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14509,7 +14518,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -14700,7 +14709,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14981,7 +14990,7 @@
         <v>2.22</v>
       </c>
       <c r="AT73">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU73">
         <v>1.67</v>
@@ -15655,7 +15664,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15846,7 +15855,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -15933,7 +15942,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT78">
         <v>1.1</v>
@@ -16037,7 +16046,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16315,7 +16324,7 @@
         <v>1.6</v>
       </c>
       <c r="AS80">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16419,7 +16428,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16610,7 +16619,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16801,7 +16810,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16888,7 +16897,7 @@
         <v>1.29</v>
       </c>
       <c r="AS83">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT83">
         <v>1.1</v>
@@ -16992,7 +17001,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17082,7 +17091,7 @@
         <v>2.5</v>
       </c>
       <c r="AT84">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU84">
         <v>1.99</v>
@@ -17374,7 +17383,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17565,7 +17574,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17655,7 +17664,7 @@
         <v>2.5</v>
       </c>
       <c r="AT87">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU87">
         <v>2.2</v>
@@ -17947,7 +17956,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18329,7 +18338,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -18520,7 +18529,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18610,7 +18619,7 @@
         <v>1.36</v>
       </c>
       <c r="AT92">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU92">
         <v>1.7</v>
@@ -18902,7 +18911,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19093,7 +19102,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19180,7 +19189,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT95">
         <v>0.8</v>
@@ -19284,7 +19293,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19475,7 +19484,7 @@
         <v>78</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>12</v>
@@ -19666,7 +19675,7 @@
         <v>105</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19857,7 +19866,7 @@
         <v>78</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20048,7 +20057,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20239,7 +20248,7 @@
         <v>154</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20430,7 +20439,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20708,7 +20717,7 @@
         <v>1.38</v>
       </c>
       <c r="AS103">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT103">
         <v>1.33</v>
@@ -20812,7 +20821,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20899,7 +20908,7 @@
         <v>0.57</v>
       </c>
       <c r="AS104">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT104">
         <v>0.88</v>
@@ -21003,7 +21012,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21284,7 +21293,7 @@
         <v>2</v>
       </c>
       <c r="AT106">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU106">
         <v>1.45</v>
@@ -21385,7 +21394,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21475,7 +21484,7 @@
         <v>1.25</v>
       </c>
       <c r="AT107">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU107">
         <v>1.5</v>
@@ -21767,7 +21776,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21958,7 +21967,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22722,7 +22731,7 @@
         <v>167</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23055,6 +23064,388 @@
       </c>
       <c r="BK115">
         <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>3216114</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44996.125</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>74</v>
+      </c>
+      <c r="H116" t="s">
+        <v>72</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>5</v>
+      </c>
+      <c r="O116" t="s">
+        <v>169</v>
+      </c>
+      <c r="P116" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q116">
+        <v>8</v>
+      </c>
+      <c r="R116">
+        <v>11</v>
+      </c>
+      <c r="S116">
+        <v>19</v>
+      </c>
+      <c r="T116">
+        <v>2.09</v>
+      </c>
+      <c r="U116">
+        <v>2.51</v>
+      </c>
+      <c r="V116">
+        <v>4.9</v>
+      </c>
+      <c r="W116">
+        <v>1.29</v>
+      </c>
+      <c r="X116">
+        <v>3.5</v>
+      </c>
+      <c r="Y116">
+        <v>2.2</v>
+      </c>
+      <c r="Z116">
+        <v>1.62</v>
+      </c>
+      <c r="AA116">
+        <v>4.5</v>
+      </c>
+      <c r="AB116">
+        <v>1.17</v>
+      </c>
+      <c r="AC116">
+        <v>1.64</v>
+      </c>
+      <c r="AD116">
+        <v>4.73</v>
+      </c>
+      <c r="AE116">
+        <v>4.52</v>
+      </c>
+      <c r="AF116">
+        <v>1.02</v>
+      </c>
+      <c r="AG116">
+        <v>12</v>
+      </c>
+      <c r="AH116">
+        <v>1.15</v>
+      </c>
+      <c r="AI116">
+        <v>4.75</v>
+      </c>
+      <c r="AJ116">
+        <v>1.47</v>
+      </c>
+      <c r="AK116">
+        <v>2.5</v>
+      </c>
+      <c r="AL116">
+        <v>1.57</v>
+      </c>
+      <c r="AM116">
+        <v>2.3</v>
+      </c>
+      <c r="AN116">
+        <v>1.18</v>
+      </c>
+      <c r="AO116">
+        <v>1.21</v>
+      </c>
+      <c r="AP116">
+        <v>2.38</v>
+      </c>
+      <c r="AQ116">
+        <v>1.7</v>
+      </c>
+      <c r="AR116">
+        <v>0.89</v>
+      </c>
+      <c r="AS116">
+        <v>1.82</v>
+      </c>
+      <c r="AT116">
+        <v>0.8</v>
+      </c>
+      <c r="AU116">
+        <v>1.93</v>
+      </c>
+      <c r="AV116">
+        <v>1.47</v>
+      </c>
+      <c r="AW116">
+        <v>3.4</v>
+      </c>
+      <c r="AX116">
+        <v>1.3</v>
+      </c>
+      <c r="AY116">
+        <v>10</v>
+      </c>
+      <c r="AZ116">
+        <v>4.42</v>
+      </c>
+      <c r="BA116">
+        <v>1.11</v>
+      </c>
+      <c r="BB116">
+        <v>1.22</v>
+      </c>
+      <c r="BC116">
+        <v>1.35</v>
+      </c>
+      <c r="BD116">
+        <v>1.61</v>
+      </c>
+      <c r="BE116">
+        <v>2.03</v>
+      </c>
+      <c r="BF116">
+        <v>12</v>
+      </c>
+      <c r="BG116">
+        <v>5</v>
+      </c>
+      <c r="BH116">
+        <v>2</v>
+      </c>
+      <c r="BI116">
+        <v>5</v>
+      </c>
+      <c r="BJ116">
+        <v>14</v>
+      </c>
+      <c r="BK116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>3216116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44996.23958333334</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" t="s">
+        <v>75</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>3</v>
+      </c>
+      <c r="K117">
+        <v>5</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+      <c r="N117">
+        <v>6</v>
+      </c>
+      <c r="O117" t="s">
+        <v>170</v>
+      </c>
+      <c r="P117" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q117">
+        <v>9</v>
+      </c>
+      <c r="R117">
+        <v>5</v>
+      </c>
+      <c r="S117">
+        <v>14</v>
+      </c>
+      <c r="T117">
+        <v>3.25</v>
+      </c>
+      <c r="U117">
+        <v>2.18</v>
+      </c>
+      <c r="V117">
+        <v>2.99</v>
+      </c>
+      <c r="W117">
+        <v>1.29</v>
+      </c>
+      <c r="X117">
+        <v>3.3</v>
+      </c>
+      <c r="Y117">
+        <v>2.25</v>
+      </c>
+      <c r="Z117">
+        <v>1.57</v>
+      </c>
+      <c r="AA117">
+        <v>5</v>
+      </c>
+      <c r="AB117">
+        <v>1.13</v>
+      </c>
+      <c r="AC117">
+        <v>2.62</v>
+      </c>
+      <c r="AD117">
+        <v>3.64</v>
+      </c>
+      <c r="AE117">
+        <v>2.61</v>
+      </c>
+      <c r="AF117">
+        <v>1.03</v>
+      </c>
+      <c r="AG117">
+        <v>11</v>
+      </c>
+      <c r="AH117">
+        <v>1.2</v>
+      </c>
+      <c r="AI117">
+        <v>4.33</v>
+      </c>
+      <c r="AJ117">
+        <v>1.55</v>
+      </c>
+      <c r="AK117">
+        <v>2.36</v>
+      </c>
+      <c r="AL117">
+        <v>1.53</v>
+      </c>
+      <c r="AM117">
+        <v>2.38</v>
+      </c>
+      <c r="AN117">
+        <v>1.46</v>
+      </c>
+      <c r="AO117">
+        <v>1.27</v>
+      </c>
+      <c r="AP117">
+        <v>1.42</v>
+      </c>
+      <c r="AQ117">
+        <v>1.44</v>
+      </c>
+      <c r="AR117">
+        <v>1.1</v>
+      </c>
+      <c r="AS117">
+        <v>1.3</v>
+      </c>
+      <c r="AT117">
+        <v>1.27</v>
+      </c>
+      <c r="AU117">
+        <v>1.48</v>
+      </c>
+      <c r="AV117">
+        <v>1.68</v>
+      </c>
+      <c r="AW117">
+        <v>3.16</v>
+      </c>
+      <c r="AX117">
+        <v>2.1</v>
+      </c>
+      <c r="AY117">
+        <v>8.5</v>
+      </c>
+      <c r="AZ117">
+        <v>1.91</v>
+      </c>
+      <c r="BA117">
+        <v>1.12</v>
+      </c>
+      <c r="BB117">
+        <v>1.25</v>
+      </c>
+      <c r="BC117">
+        <v>1.39</v>
+      </c>
+      <c r="BD117">
+        <v>1.65</v>
+      </c>
+      <c r="BE117">
+        <v>2.1</v>
+      </c>
+      <c r="BF117">
+        <v>4</v>
+      </c>
+      <c r="BG117">
+        <v>6</v>
+      </c>
+      <c r="BH117">
+        <v>4</v>
+      </c>
+      <c r="BI117">
+        <v>5</v>
+      </c>
+      <c r="BJ117">
+        <v>8</v>
+      </c>
+      <c r="BK117">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>['16', '45+3']</t>
+  </si>
+  <si>
+    <t>['22', '88']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1095,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK117"/>
+  <dimension ref="A1:BK119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1342,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1426,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT2">
         <v>0.88</v>
@@ -1721,7 +1724,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1912,7 +1915,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1999,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT5">
         <v>1.27</v>
@@ -2294,7 +2297,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2485,7 +2488,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2676,7 +2679,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2867,7 +2870,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2954,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT10">
         <v>1.22</v>
@@ -3249,7 +3252,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3339,7 +3342,7 @@
         <v>1.36</v>
       </c>
       <c r="AT12">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3440,7 +3443,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3822,7 +3825,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3912,7 +3915,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU15">
         <v>1.28</v>
@@ -4013,7 +4016,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4204,7 +4207,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4395,7 +4398,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4968,7 +4971,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5159,7 +5162,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5249,7 +5252,7 @@
         <v>1.6</v>
       </c>
       <c r="AT22">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU22">
         <v>1.29</v>
@@ -5350,7 +5353,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5541,7 +5544,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5628,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT24">
         <v>1.33</v>
@@ -6010,7 +6013,7 @@
         <v>0.75</v>
       </c>
       <c r="AS26">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT26">
         <v>0.4</v>
@@ -6114,7 +6117,7 @@
         <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6392,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT28">
         <v>0.8</v>
@@ -6586,7 +6589,7 @@
         <v>1.1</v>
       </c>
       <c r="AT29">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU29">
         <v>1.22</v>
@@ -6687,7 +6690,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7069,7 +7072,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7260,7 +7263,7 @@
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7451,7 +7454,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7538,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT34">
         <v>0.88</v>
@@ -7642,7 +7645,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7833,7 +7836,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8024,7 +8027,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8111,7 +8114,7 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT37">
         <v>1.1</v>
@@ -8406,7 +8409,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8597,7 +8600,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8788,7 +8791,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8979,7 +8982,7 @@
         <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9069,7 +9072,7 @@
         <v>1.3</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU42">
         <v>1.49</v>
@@ -9257,7 +9260,7 @@
         <v>1.2</v>
       </c>
       <c r="AS43">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT43">
         <v>1.27</v>
@@ -9361,7 +9364,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9451,7 +9454,7 @@
         <v>1.82</v>
       </c>
       <c r="AT44">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU44">
         <v>1.95</v>
@@ -10125,7 +10128,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10316,7 +10319,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10507,7 +10510,7 @@
         <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10976,7 +10979,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT52">
         <v>1.22</v>
@@ -11080,7 +11083,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11361,7 +11364,7 @@
         <v>1.36</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU54">
         <v>1.82</v>
@@ -11653,7 +11656,7 @@
         <v>78</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11743,7 +11746,7 @@
         <v>1.3</v>
       </c>
       <c r="AT56">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU56">
         <v>1.44</v>
@@ -12035,7 +12038,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12122,7 +12125,7 @@
         <v>2.25</v>
       </c>
       <c r="AS58">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT58">
         <v>1.7</v>
@@ -12417,7 +12420,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12507,7 +12510,7 @@
         <v>1.25</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU60">
         <v>1.55</v>
@@ -12799,7 +12802,7 @@
         <v>78</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13268,7 +13271,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT64">
         <v>0.88</v>
@@ -13563,7 +13566,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13653,7 +13656,7 @@
         <v>1.9</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU66">
         <v>1.66</v>
@@ -13754,7 +13757,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13945,7 +13948,7 @@
         <v>78</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14136,7 +14139,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14327,7 +14330,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14417,7 +14420,7 @@
         <v>1.9</v>
       </c>
       <c r="AT70">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU70">
         <v>1.51</v>
@@ -14518,7 +14521,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -14709,7 +14712,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15181,7 +15184,7 @@
         <v>1.36</v>
       </c>
       <c r="AT74">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU74">
         <v>1.71</v>
@@ -15664,7 +15667,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15751,7 +15754,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT77">
         <v>1.22</v>
@@ -15855,7 +15858,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16046,7 +16049,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16136,7 +16139,7 @@
         <v>1.25</v>
       </c>
       <c r="AT79">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU79">
         <v>1.59</v>
@@ -16327,7 +16330,7 @@
         <v>1.3</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU80">
         <v>1.43</v>
@@ -16428,7 +16431,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16515,7 +16518,7 @@
         <v>0.43</v>
       </c>
       <c r="AS81">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT81">
         <v>0.4</v>
@@ -16619,7 +16622,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16810,7 +16813,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17001,7 +17004,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17088,7 +17091,7 @@
         <v>0.86</v>
       </c>
       <c r="AS84">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT84">
         <v>1.27</v>
@@ -17383,7 +17386,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17574,7 +17577,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q87">
         <v>9</v>
@@ -17661,7 +17664,7 @@
         <v>1.14</v>
       </c>
       <c r="AS87">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT87">
         <v>0.8</v>
@@ -17855,7 +17858,7 @@
         <v>2.22</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -17956,7 +17959,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18338,7 +18341,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -18529,7 +18532,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18810,7 +18813,7 @@
         <v>2</v>
       </c>
       <c r="AT93">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU93">
         <v>1.41</v>
@@ -18911,7 +18914,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19102,7 +19105,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19293,7 +19296,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19484,7 +19487,7 @@
         <v>78</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q97">
         <v>12</v>
@@ -19675,7 +19678,7 @@
         <v>105</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19765,7 +19768,7 @@
         <v>1.22</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU98">
         <v>1.88</v>
@@ -19866,7 +19869,7 @@
         <v>78</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20057,7 +20060,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20248,7 +20251,7 @@
         <v>154</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20439,7 +20442,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20821,7 +20824,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21012,7 +21015,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21099,10 +21102,10 @@
         <v>1.78</v>
       </c>
       <c r="AS105">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT105">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU105">
         <v>2.27</v>
@@ -21394,7 +21397,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21776,7 +21779,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21967,7 +21970,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22054,7 +22057,7 @@
         <v>1.22</v>
       </c>
       <c r="AS110">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT110">
         <v>1.1</v>
@@ -22731,7 +22734,7 @@
         <v>167</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22821,7 +22824,7 @@
         <v>1.6</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU114">
         <v>1.54</v>
@@ -23113,7 +23116,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23304,7 +23307,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>9</v>
@@ -23430,7 +23433,7 @@
         <v>2.1</v>
       </c>
       <c r="BF117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG117">
         <v>6</v>
@@ -23439,13 +23442,395 @@
         <v>4</v>
       </c>
       <c r="BI117">
+        <v>4</v>
+      </c>
+      <c r="BJ117">
+        <v>9</v>
+      </c>
+      <c r="BK117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>3216117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44996.95833333334</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" t="s">
+        <v>67</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>90</v>
+      </c>
+      <c r="P118" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q118">
+        <v>2</v>
+      </c>
+      <c r="R118">
         <v>5</v>
       </c>
-      <c r="BJ117">
+      <c r="S118">
+        <v>7</v>
+      </c>
+      <c r="T118">
+        <v>3.2</v>
+      </c>
+      <c r="U118">
+        <v>2.3</v>
+      </c>
+      <c r="V118">
+        <v>3.1</v>
+      </c>
+      <c r="W118">
+        <v>1.33</v>
+      </c>
+      <c r="X118">
+        <v>3.25</v>
+      </c>
+      <c r="Y118">
+        <v>2.5</v>
+      </c>
+      <c r="Z118">
+        <v>1.5</v>
+      </c>
+      <c r="AA118">
+        <v>6.5</v>
+      </c>
+      <c r="AB118">
+        <v>1.11</v>
+      </c>
+      <c r="AC118">
+        <v>2.67</v>
+      </c>
+      <c r="AD118">
+        <v>3.2</v>
+      </c>
+      <c r="AE118">
+        <v>2.42</v>
+      </c>
+      <c r="AF118">
+        <v>1.04</v>
+      </c>
+      <c r="AG118">
+        <v>11</v>
+      </c>
+      <c r="AH118">
+        <v>1.21</v>
+      </c>
+      <c r="AI118">
+        <v>4</v>
+      </c>
+      <c r="AJ118">
+        <v>1.67</v>
+      </c>
+      <c r="AK118">
+        <v>2.2</v>
+      </c>
+      <c r="AL118">
+        <v>1.57</v>
+      </c>
+      <c r="AM118">
+        <v>2.25</v>
+      </c>
+      <c r="AN118">
+        <v>1.51</v>
+      </c>
+      <c r="AO118">
+        <v>1.3</v>
+      </c>
+      <c r="AP118">
+        <v>1.44</v>
+      </c>
+      <c r="AQ118">
+        <v>1.6</v>
+      </c>
+      <c r="AR118">
+        <v>1.6</v>
+      </c>
+      <c r="AS118">
+        <v>1.73</v>
+      </c>
+      <c r="AT118">
+        <v>1.45</v>
+      </c>
+      <c r="AU118">
+        <v>1.54</v>
+      </c>
+      <c r="AV118">
+        <v>1.95</v>
+      </c>
+      <c r="AW118">
+        <v>3.49</v>
+      </c>
+      <c r="AX118">
+        <v>2</v>
+      </c>
+      <c r="AY118">
+        <v>8.5</v>
+      </c>
+      <c r="AZ118">
+        <v>2</v>
+      </c>
+      <c r="BA118">
+        <v>1.16</v>
+      </c>
+      <c r="BB118">
+        <v>1.32</v>
+      </c>
+      <c r="BC118">
+        <v>1.55</v>
+      </c>
+      <c r="BD118">
+        <v>1.85</v>
+      </c>
+      <c r="BE118">
+        <v>2.4</v>
+      </c>
+      <c r="BF118">
+        <v>3</v>
+      </c>
+      <c r="BG118">
+        <v>4</v>
+      </c>
+      <c r="BH118">
+        <v>5</v>
+      </c>
+      <c r="BI118">
+        <v>13</v>
+      </c>
+      <c r="BJ118">
         <v>8</v>
       </c>
-      <c r="BK117">
-        <v>11</v>
+      <c r="BK118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>3216118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44997.04166666666</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>65</v>
+      </c>
+      <c r="H119" t="s">
+        <v>66</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>171</v>
+      </c>
+      <c r="P119" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q119">
+        <v>6</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>8</v>
+      </c>
+      <c r="T119">
+        <v>1.95</v>
+      </c>
+      <c r="U119">
+        <v>2.5</v>
+      </c>
+      <c r="V119">
+        <v>6.5</v>
+      </c>
+      <c r="W119">
+        <v>1.3</v>
+      </c>
+      <c r="X119">
+        <v>3.4</v>
+      </c>
+      <c r="Y119">
+        <v>2.5</v>
+      </c>
+      <c r="Z119">
+        <v>1.5</v>
+      </c>
+      <c r="AA119">
+        <v>6</v>
+      </c>
+      <c r="AB119">
+        <v>1.13</v>
+      </c>
+      <c r="AC119">
+        <v>1.41</v>
+      </c>
+      <c r="AD119">
+        <v>4.49</v>
+      </c>
+      <c r="AE119">
+        <v>5.99</v>
+      </c>
+      <c r="AF119">
+        <v>1.03</v>
+      </c>
+      <c r="AG119">
+        <v>12</v>
+      </c>
+      <c r="AH119">
+        <v>1.2</v>
+      </c>
+      <c r="AI119">
+        <v>4.1</v>
+      </c>
+      <c r="AJ119">
+        <v>1.66</v>
+      </c>
+      <c r="AK119">
+        <v>2.23</v>
+      </c>
+      <c r="AL119">
+        <v>1.8</v>
+      </c>
+      <c r="AM119">
+        <v>1.95</v>
+      </c>
+      <c r="AN119">
+        <v>1.11</v>
+      </c>
+      <c r="AO119">
+        <v>1.19</v>
+      </c>
+      <c r="AP119">
+        <v>2.7</v>
+      </c>
+      <c r="AQ119">
+        <v>2.5</v>
+      </c>
+      <c r="AR119">
+        <v>1</v>
+      </c>
+      <c r="AS119">
+        <v>2.56</v>
+      </c>
+      <c r="AT119">
+        <v>0.9</v>
+      </c>
+      <c r="AU119">
+        <v>2.27</v>
+      </c>
+      <c r="AV119">
+        <v>1.55</v>
+      </c>
+      <c r="AW119">
+        <v>3.82</v>
+      </c>
+      <c r="AX119">
+        <v>1.37</v>
+      </c>
+      <c r="AY119">
+        <v>9.5</v>
+      </c>
+      <c r="AZ119">
+        <v>3.8</v>
+      </c>
+      <c r="BA119">
+        <v>1.16</v>
+      </c>
+      <c r="BB119">
+        <v>1.32</v>
+      </c>
+      <c r="BC119">
+        <v>1.55</v>
+      </c>
+      <c r="BD119">
+        <v>1.98</v>
+      </c>
+      <c r="BE119">
+        <v>2.4</v>
+      </c>
+      <c r="BF119">
+        <v>4</v>
+      </c>
+      <c r="BG119">
+        <v>3</v>
+      </c>
+      <c r="BH119">
+        <v>4</v>
+      </c>
+      <c r="BI119">
+        <v>1</v>
+      </c>
+      <c r="BJ119">
+        <v>8</v>
+      </c>
+      <c r="BK119">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,9 @@
     <t>['22', '88']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -559,9 +562,6 @@
     <t>['24']</t>
   </si>
   <si>
-    <t>['50']</t>
-  </si>
-  <si>
     <t>['17', '19']</t>
   </si>
   <si>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>['12', '14', '44', '65']</t>
+  </si>
+  <si>
+    <t>['38', '69']</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK119"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,7 +1345,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -1432,7 +1435,7 @@
         <v>2.56</v>
       </c>
       <c r="AT2">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1724,7 +1727,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1915,7 +1918,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2297,7 +2300,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2488,7 +2491,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2679,7 +2682,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2766,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT9">
         <v>1.1</v>
@@ -2870,7 +2873,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3252,7 +3255,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3443,7 +3446,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3825,7 +3828,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4103,7 +4106,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT16">
         <v>1.7</v>
@@ -5061,7 +5064,7 @@
         <v>1.82</v>
       </c>
       <c r="AT21">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU21">
         <v>1.32</v>
@@ -5822,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT25">
         <v>1.1</v>
@@ -7544,7 +7547,7 @@
         <v>1.73</v>
       </c>
       <c r="AT34">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU34">
         <v>1.59</v>
@@ -8499,7 +8502,7 @@
         <v>1.9</v>
       </c>
       <c r="AT39">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -12420,7 +12423,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12507,7 +12510,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT60">
         <v>0.9</v>
@@ -13274,7 +13277,7 @@
         <v>2.56</v>
       </c>
       <c r="AT64">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU64">
         <v>2.04</v>
@@ -15667,7 +15670,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16136,7 +16139,7 @@
         <v>1.43</v>
       </c>
       <c r="AS79">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT79">
         <v>1.45</v>
@@ -16712,7 +16715,7 @@
         <v>1.6</v>
       </c>
       <c r="AT82">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU82">
         <v>1.56</v>
@@ -17282,7 +17285,7 @@
         <v>1.6</v>
       </c>
       <c r="AS85">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT85">
         <v>1.33</v>
@@ -18240,7 +18243,7 @@
         <v>2</v>
       </c>
       <c r="AT90">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU90">
         <v>1.26</v>
@@ -20147,7 +20150,7 @@
         <v>2.13</v>
       </c>
       <c r="AS100">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT100">
         <v>1.7</v>
@@ -20914,7 +20917,7 @@
         <v>1.3</v>
       </c>
       <c r="AT104">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU104">
         <v>1.41</v>
@@ -21484,7 +21487,7 @@
         <v>1.11</v>
       </c>
       <c r="AS107">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT107">
         <v>1.27</v>
@@ -23831,6 +23834,197 @@
       </c>
       <c r="BK119">
         <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>3216119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44998.16666666666</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>71</v>
+      </c>
+      <c r="H120" t="s">
+        <v>73</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>172</v>
+      </c>
+      <c r="P120" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q120">
+        <v>5</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>7</v>
+      </c>
+      <c r="T120">
+        <v>2.5</v>
+      </c>
+      <c r="U120">
+        <v>2.3</v>
+      </c>
+      <c r="V120">
+        <v>4</v>
+      </c>
+      <c r="W120">
+        <v>1.33</v>
+      </c>
+      <c r="X120">
+        <v>3.25</v>
+      </c>
+      <c r="Y120">
+        <v>2.63</v>
+      </c>
+      <c r="Z120">
+        <v>1.44</v>
+      </c>
+      <c r="AA120">
+        <v>6.5</v>
+      </c>
+      <c r="AB120">
+        <v>1.11</v>
+      </c>
+      <c r="AC120">
+        <v>1.96</v>
+      </c>
+      <c r="AD120">
+        <v>3.45</v>
+      </c>
+      <c r="AE120">
+        <v>3.3</v>
+      </c>
+      <c r="AF120">
+        <v>1.03</v>
+      </c>
+      <c r="AG120">
+        <v>13</v>
+      </c>
+      <c r="AH120">
+        <v>1.22</v>
+      </c>
+      <c r="AI120">
+        <v>4</v>
+      </c>
+      <c r="AJ120">
+        <v>1.73</v>
+      </c>
+      <c r="AK120">
+        <v>2.1</v>
+      </c>
+      <c r="AL120">
+        <v>1.62</v>
+      </c>
+      <c r="AM120">
+        <v>2.2</v>
+      </c>
+      <c r="AN120">
+        <v>1.3</v>
+      </c>
+      <c r="AO120">
+        <v>1.22</v>
+      </c>
+      <c r="AP120">
+        <v>1.87</v>
+      </c>
+      <c r="AQ120">
+        <v>1.25</v>
+      </c>
+      <c r="AR120">
+        <v>0.88</v>
+      </c>
+      <c r="AS120">
+        <v>1.11</v>
+      </c>
+      <c r="AT120">
+        <v>1.11</v>
+      </c>
+      <c r="AU120">
+        <v>1.49</v>
+      </c>
+      <c r="AV120">
+        <v>1.38</v>
+      </c>
+      <c r="AW120">
+        <v>2.87</v>
+      </c>
+      <c r="AX120">
+        <v>1.64</v>
+      </c>
+      <c r="AY120">
+        <v>8.5</v>
+      </c>
+      <c r="AZ120">
+        <v>2.64</v>
+      </c>
+      <c r="BA120">
+        <v>1.08</v>
+      </c>
+      <c r="BB120">
+        <v>1.26</v>
+      </c>
+      <c r="BC120">
+        <v>1.47</v>
+      </c>
+      <c r="BD120">
+        <v>1.85</v>
+      </c>
+      <c r="BE120">
+        <v>2.15</v>
+      </c>
+      <c r="BF120">
+        <v>6</v>
+      </c>
+      <c r="BG120">
+        <v>5</v>
+      </c>
+      <c r="BH120">
+        <v>7</v>
+      </c>
+      <c r="BI120">
+        <v>7</v>
+      </c>
+      <c r="BJ120">
+        <v>13</v>
+      </c>
+      <c r="BK120">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.56</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT3" t="n">
         <v>0.8</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT4" t="n">
         <v>0.8</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT7" t="n">
         <v>1.7</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.11</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT14" t="n">
         <v>1.2</v>
@@ -3945,7 +3945,7 @@
         <v>0.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT17" t="n">
         <v>1.27</v>
@@ -4151,7 +4151,7 @@
         <v>1.82</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT20" t="n">
         <v>0.8</v>
@@ -4760,7 +4760,7 @@
         <v>1.82</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>1.32</v>
@@ -5166,7 +5166,7 @@
         <v>2.3</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>2.56</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU26" t="n">
         <v>2.03</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT29" t="n">
         <v>1.45</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT32" t="n">
         <v>1.7</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU33" t="n">
         <v>2.41</v>
@@ -7399,7 +7399,7 @@
         <v>1.73</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>1.59</v>
@@ -7802,7 +7802,7 @@
         <v>1.25</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT36" t="n">
         <v>1.27</v>
@@ -8008,7 +8008,7 @@
         <v>1.73</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU37" t="n">
         <v>1.53</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT38" t="n">
         <v>1.7</v>
@@ -8414,7 +8414,7 @@
         <v>1.9</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT42" t="n">
         <v>0.9</v>
@@ -9632,7 +9632,7 @@
         <v>1.36</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU45" t="n">
         <v>2.27</v>
@@ -9835,7 +9835,7 @@
         <v>1.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU46" t="n">
         <v>1.51</v>
@@ -10238,10 +10238,10 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU48" t="n">
         <v>1.51</v>
@@ -10644,7 +10644,7 @@
         <v>1.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT50" t="n">
         <v>0.8</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT56" t="n">
         <v>1.45</v>
@@ -12474,7 +12474,7 @@
         <v>2.3</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU59" t="n">
         <v>1.79</v>
@@ -12880,7 +12880,7 @@
         <v>1.9</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU61" t="n">
         <v>1.69</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT62" t="n">
         <v>1.2</v>
@@ -13489,7 +13489,7 @@
         <v>2.56</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>2.04</v>
@@ -14298,7 +14298,7 @@
         <v>1.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT68" t="n">
         <v>1.2</v>
@@ -15719,7 +15719,7 @@
         <v>2.17</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT75" t="n">
         <v>1.7</v>
@@ -16328,10 +16328,10 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU78" t="n">
         <v>1.46</v>
@@ -16734,7 +16734,7 @@
         <v>1.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT80" t="n">
         <v>0.9</v>
@@ -16940,7 +16940,7 @@
         <v>1.73</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU81" t="n">
         <v>1.66</v>
@@ -17143,7 +17143,7 @@
         <v>1.6</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.56</v>
@@ -17346,7 +17346,7 @@
         <v>1.82</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU83" t="n">
         <v>1.98</v>
@@ -17952,7 +17952,7 @@
         <v>1.4</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT86" t="n">
         <v>1.22</v>
@@ -18767,7 +18767,7 @@
         <v>2</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU90" t="n">
         <v>1.26</v>
@@ -18967,7 +18967,7 @@
         <v>1.17</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT91" t="n">
         <v>1.22</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT95" t="n">
         <v>0.8</v>
@@ -20388,7 +20388,7 @@
         <v>1.14</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT98" t="n">
         <v>0.9</v>
@@ -21203,7 +21203,7 @@
         <v>2.3</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU102" t="n">
         <v>1.63</v>
@@ -21606,10 +21606,10 @@
         <v>0.57</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU104" t="n">
         <v>1.41</v>
@@ -22418,10 +22418,10 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU108" t="n">
         <v>1.47</v>
@@ -23030,7 +23030,7 @@
         <v>1.36</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU111" t="n">
         <v>1.69</v>
@@ -23433,7 +23433,7 @@
         <v>0.89</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT113" t="n">
         <v>0.8</v>
@@ -23842,7 +23842,7 @@
         <v>1.9</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU115" t="n">
         <v>1.63</v>
@@ -24245,7 +24245,7 @@
         <v>1.1</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT117" t="n">
         <v>1.27</v>
@@ -24857,7 +24857,7 @@
         <v>1.11</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU120" t="n">
         <v>1.49</v>
@@ -25112,6 +25112,615 @@
       </c>
       <c r="BK121" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3216121</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45003.125</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2</v>
+      </c>
+      <c r="N122" t="n">
+        <v>4</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['36', '79']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['52', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>9</v>
+      </c>
+      <c r="R122" t="n">
+        <v>5</v>
+      </c>
+      <c r="S122" t="n">
+        <v>14</v>
+      </c>
+      <c r="T122" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X122" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3216122</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45003.125</v>
+      </c>
+      <c r="F123" t="n">
+        <v>21</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>2</v>
+      </c>
+      <c r="R123" t="n">
+        <v>6</v>
+      </c>
+      <c r="S123" t="n">
+        <v>8</v>
+      </c>
+      <c r="T123" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X123" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3216123</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45003.23958333334</v>
+      </c>
+      <c r="F124" t="n">
+        <v>21</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>4</v>
+      </c>
+      <c r="N124" t="n">
+        <v>4</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['13', '21', '62', '75']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>8</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1</v>
+      </c>
+      <c r="S124" t="n">
+        <v>9</v>
+      </c>
+      <c r="T124" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X124" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>1.27</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT6" t="n">
         <v>0.45</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT10" t="n">
         <v>1.1</v>
@@ -2730,7 +2730,7 @@
         <v>1.55</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.36</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU13" t="n">
         <v>1.69</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU15" t="n">
         <v>1.28</v>
@@ -3945,10 +3945,10 @@
         <v>0.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU17" t="n">
         <v>1.74</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT18" t="n">
         <v>0.45</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU19" t="n">
         <v>1.31</v>
@@ -4557,7 +4557,7 @@
         <v>1.27</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>1.25</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT24" t="n">
         <v>1.2</v>
@@ -5572,7 +5572,7 @@
         <v>1.3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU25" t="n">
         <v>1.35</v>
@@ -5772,7 +5772,7 @@
         <v>0.75</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT26" t="n">
         <v>0.45</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT27" t="n">
         <v>1.1</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU28" t="n">
         <v>1.39</v>
@@ -6587,7 +6587,7 @@
         <v>1.36</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU30" t="n">
         <v>2.13</v>
@@ -6790,7 +6790,7 @@
         <v>2.3</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>2.2</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT33" t="n">
         <v>1.27</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7599,10 +7599,10 @@
         <v>0.67</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU35" t="n">
         <v>2.11</v>
@@ -7805,7 +7805,7 @@
         <v>1.27</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU36" t="n">
         <v>1.43</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT37" t="n">
         <v>1.27</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT38" t="n">
         <v>1.64</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU40" t="n">
         <v>2.04</v>
@@ -8820,7 +8820,7 @@
         <v>1.55</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.32</v>
@@ -9023,7 +9023,7 @@
         <v>1.27</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU42" t="n">
         <v>1.49</v>
@@ -9223,10 +9223,10 @@
         <v>1.2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU43" t="n">
         <v>1.54</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT44" t="n">
         <v>1.45</v>
@@ -10035,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU47" t="n">
         <v>1.83</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
         <v>1.2</v>
@@ -10644,10 +10644,10 @@
         <v>1.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU50" t="n">
         <v>2.05</v>
@@ -10850,7 +10850,7 @@
         <v>1.36</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>2.02</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT52" t="n">
         <v>1.1</v>
@@ -11256,7 +11256,7 @@
         <v>2.3</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU53" t="n">
         <v>1.81</v>
@@ -11459,7 +11459,7 @@
         <v>1.36</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU54" t="n">
         <v>1.82</v>
@@ -11659,10 +11659,10 @@
         <v>1.4</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.95</v>
@@ -12065,10 +12065,10 @@
         <v>1.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU57" t="n">
         <v>1.23</v>
@@ -12268,7 +12268,7 @@
         <v>2.25</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT58" t="n">
         <v>1.64</v>
@@ -12677,7 +12677,7 @@
         <v>1.3</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU60" t="n">
         <v>1.55</v>
@@ -12877,7 +12877,7 @@
         <v>1.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>1.27</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU62" t="n">
         <v>1.87</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT63" t="n">
         <v>1.2</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT64" t="n">
         <v>1</v>
@@ -13692,7 +13692,7 @@
         <v>1.55</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU65" t="n">
         <v>1.38</v>
@@ -13892,10 +13892,10 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU66" t="n">
         <v>1.66</v>
@@ -14504,7 +14504,7 @@
         <v>2.3</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>1.72</v>
@@ -14704,7 +14704,7 @@
         <v>1.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT70" t="n">
         <v>1.45</v>
@@ -14907,7 +14907,7 @@
         <v>2.4</v>
       </c>
       <c r="AS71" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT71" t="n">
         <v>1.64</v>
@@ -15113,7 +15113,7 @@
         <v>1.36</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU72" t="n">
         <v>1.74</v>
@@ -15316,7 +15316,7 @@
         <v>2.3</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU73" t="n">
         <v>1.67</v>
@@ -15922,10 +15922,10 @@
         <v>1.14</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.57</v>
@@ -16125,7 +16125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT77" t="n">
         <v>1.1</v>
@@ -16737,7 +16737,7 @@
         <v>1.27</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU80" t="n">
         <v>1.43</v>
@@ -16937,7 +16937,7 @@
         <v>0.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT81" t="n">
         <v>0.45</v>
@@ -17343,7 +17343,7 @@
         <v>1.29</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT83" t="n">
         <v>1.27</v>
@@ -17546,10 +17546,10 @@
         <v>0.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU84" t="n">
         <v>1.99</v>
@@ -17952,10 +17952,10 @@
         <v>1.14</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU86" t="n">
         <v>2.2</v>
@@ -18155,7 +18155,7 @@
         <v>1.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT87" t="n">
         <v>1.1</v>
@@ -18361,7 +18361,7 @@
         <v>2.3</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU88" t="n">
         <v>1.62</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU89" t="n">
         <v>1.64</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>1.36</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU92" t="n">
         <v>1.7</v>
@@ -19373,7 +19373,7 @@
         <v>1.63</v>
       </c>
       <c r="AS93" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT93" t="n">
         <v>1.45</v>
@@ -19576,7 +19576,7 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
         <v>1.64</v>
@@ -19782,7 +19782,7 @@
         <v>1.27</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU95" t="n">
         <v>1.49</v>
@@ -20388,10 +20388,10 @@
         <v>1.14</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU98" t="n">
         <v>1.88</v>
@@ -20594,7 +20594,7 @@
         <v>1.55</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU99" t="n">
         <v>1.57</v>
@@ -20997,7 +20997,7 @@
         <v>1.43</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT101" t="n">
         <v>1.1</v>
@@ -21403,7 +21403,7 @@
         <v>1.38</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT103" t="n">
         <v>1.2</v>
@@ -21809,7 +21809,7 @@
         <v>1.78</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT105" t="n">
         <v>1.45</v>
@@ -22012,10 +22012,10 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU106" t="n">
         <v>1.45</v>
@@ -22218,7 +22218,7 @@
         <v>1.3</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU107" t="n">
         <v>1.5</v>
@@ -22824,10 +22824,10 @@
         <v>1.22</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU110" t="n">
         <v>1.59</v>
@@ -23027,7 +23027,7 @@
         <v>1.38</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT111" t="n">
         <v>1.1</v>
@@ -23433,10 +23433,10 @@
         <v>0.89</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.89</v>
@@ -23639,7 +23639,7 @@
         <v>1.55</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU114" t="n">
         <v>1.54</v>
@@ -23839,7 +23839,7 @@
         <v>1.22</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
         <v>1.27</v>
@@ -24042,10 +24042,10 @@
         <v>0.89</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU116" t="n">
         <v>1.93</v>
@@ -24248,7 +24248,7 @@
         <v>1.27</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU117" t="n">
         <v>1.48</v>
@@ -24448,7 +24448,7 @@
         <v>1.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT118" t="n">
         <v>1.45</v>
@@ -24651,10 +24651,10 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU119" t="n">
         <v>2.27</v>
@@ -25666,7 +25666,7 @@
         <v>1.1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT124" t="n">
         <v>1.27</v>
@@ -26127,6 +26127,1224 @@
       </c>
       <c r="BK126" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3216126</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45016.23958333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>22</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2</v>
+      </c>
+      <c r="L127" t="n">
+        <v>2</v>
+      </c>
+      <c r="M127" t="n">
+        <v>3</v>
+      </c>
+      <c r="N127" t="n">
+        <v>5</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['44', '60']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['37', '49', '55']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>4</v>
+      </c>
+      <c r="R127" t="n">
+        <v>11</v>
+      </c>
+      <c r="S127" t="n">
+        <v>15</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V127" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3216127</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45016.95833333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>22</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['58', '76']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>5</v>
+      </c>
+      <c r="R128" t="n">
+        <v>7</v>
+      </c>
+      <c r="S128" t="n">
+        <v>12</v>
+      </c>
+      <c r="T128" t="n">
+        <v>3</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V128" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X128" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3216128</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45017.125</v>
+      </c>
+      <c r="F129" t="n">
+        <v>22</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>3</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>3</v>
+      </c>
+      <c r="L129" t="n">
+        <v>4</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>5</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['15', '17', '30', '58']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>2</v>
+      </c>
+      <c r="R129" t="n">
+        <v>7</v>
+      </c>
+      <c r="S129" t="n">
+        <v>9</v>
+      </c>
+      <c r="T129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V129" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3216129</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45017.23958333334</v>
+      </c>
+      <c r="F130" t="n">
+        <v>22</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2</v>
+      </c>
+      <c r="K130" t="n">
+        <v>3</v>
+      </c>
+      <c r="L130" t="n">
+        <v>3</v>
+      </c>
+      <c r="M130" t="n">
+        <v>3</v>
+      </c>
+      <c r="N130" t="n">
+        <v>6</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['22', '59', '89']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['14', '25', '56']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>11</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1</v>
+      </c>
+      <c r="S130" t="n">
+        <v>12</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V130" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X130" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3216130</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45017.33333333334</v>
+      </c>
+      <c r="F131" t="n">
+        <v>22</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="n">
+        <v>3</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['69', '74']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>7</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2</v>
+      </c>
+      <c r="S131" t="n">
+        <v>9</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V131" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X131" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3216131</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45018.08333333334</v>
+      </c>
+      <c r="F132" t="n">
+        <v>22</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="n">
+        <v>2</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>9</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2</v>
+      </c>
+      <c r="S132" t="n">
+        <v>11</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V132" t="n">
+        <v>6</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X132" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK132"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>1.09</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.27</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU20" t="n">
         <v>1.25</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT24" t="n">
         <v>1.2</v>
@@ -5772,7 +5772,7 @@
         <v>0.75</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT26" t="n">
         <v>0.45</v>
@@ -6790,7 +6790,7 @@
         <v>2.3</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU31" t="n">
         <v>2.2</v>
@@ -8820,7 +8820,7 @@
         <v>1.55</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU41" t="n">
         <v>1.32</v>
@@ -10850,7 +10850,7 @@
         <v>1.36</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU51" t="n">
         <v>2.02</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT52" t="n">
         <v>1.1</v>
@@ -11662,7 +11662,7 @@
         <v>1.92</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU55" t="n">
         <v>1.95</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT64" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>2.3</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU69" t="n">
         <v>1.72</v>
@@ -15925,7 +15925,7 @@
         <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU76" t="n">
         <v>1.57</v>
@@ -17546,7 +17546,7 @@
         <v>0.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT84" t="n">
         <v>1.42</v>
@@ -17952,7 +17952,7 @@
         <v>1.14</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT86" t="n">
         <v>0.73</v>
@@ -19782,7 +19782,7 @@
         <v>1.27</v>
       </c>
       <c r="AT95" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU95" t="n">
         <v>1.49</v>
@@ -21809,7 +21809,7 @@
         <v>1.78</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT105" t="n">
         <v>1.45</v>
@@ -23436,7 +23436,7 @@
         <v>1.09</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU113" t="n">
         <v>1.89</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT119" t="n">
         <v>0.82</v>
@@ -26481,7 +26481,7 @@
         <v>1.58</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU128" t="n">
         <v>1.48</v>
@@ -27290,7 +27290,7 @@
         <v>1.1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT132" t="n">
         <v>1.09</v>
@@ -27345,6 +27345,209 @@
       </c>
       <c r="BK132" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3216045</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45021.25</v>
+      </c>
+      <c r="F133" t="n">
+        <v>8</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>3</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['11', '57']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>7</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2</v>
+      </c>
+      <c r="S133" t="n">
+        <v>9</v>
+      </c>
+      <c r="T133" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V133" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X133" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT3" t="n">
         <v>0.73</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT7" t="n">
         <v>1.64</v>
@@ -2324,7 +2324,7 @@
         <v>1.3</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.58</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU10" t="n">
         <v>0.8100000000000001</v>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
         <v>1.42</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT13" t="n">
         <v>0.73</v>
@@ -4354,7 +4354,7 @@
         <v>1.82</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.31</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT20" t="n">
         <v>0.92</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU22" t="n">
         <v>1.29</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT23" t="n">
         <v>0.45</v>
@@ -5572,7 +5572,7 @@
         <v>1.3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.35</v>
@@ -5978,7 +5978,7 @@
         <v>1.82</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU29" t="n">
         <v>1.22</v>
@@ -6584,7 +6584,7 @@
         <v>0.67</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT30" t="n">
         <v>1.42</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT31" t="n">
         <v>0.92</v>
@@ -7196,7 +7196,7 @@
         <v>1.09</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>2.41</v>
@@ -7802,7 +7802,7 @@
         <v>1.25</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT36" t="n">
         <v>1.42</v>
@@ -8008,7 +8008,7 @@
         <v>1.58</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU37" t="n">
         <v>1.53</v>
@@ -8617,7 +8617,7 @@
         <v>1.92</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>2.04</v>
@@ -8817,7 +8817,7 @@
         <v>1.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>0.92</v>
@@ -9429,7 +9429,7 @@
         <v>1.92</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU44" t="n">
         <v>1.95</v>
@@ -9629,10 +9629,10 @@
         <v>2.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU45" t="n">
         <v>2.27</v>
@@ -9832,7 +9832,7 @@
         <v>0.6</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT46" t="n">
         <v>0.45</v>
@@ -10038,7 +10038,7 @@
         <v>1.92</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.83</v>
@@ -10238,10 +10238,10 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU48" t="n">
         <v>1.51</v>
@@ -10847,7 +10847,7 @@
         <v>1.75</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT51" t="n">
         <v>0.92</v>
@@ -11053,7 +11053,7 @@
         <v>2.45</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU52" t="n">
         <v>2.05</v>
@@ -11253,10 +11253,10 @@
         <v>0.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.81</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT54" t="n">
         <v>0.82</v>
@@ -11865,7 +11865,7 @@
         <v>1.27</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU56" t="n">
         <v>1.44</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT59" t="n">
         <v>0.45</v>
@@ -12880,7 +12880,7 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU61" t="n">
         <v>1.69</v>
@@ -13689,10 +13689,10 @@
         <v>1.2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.38</v>
@@ -14095,10 +14095,10 @@
         <v>1.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU67" t="n">
         <v>1.5</v>
@@ -14298,7 +14298,7 @@
         <v>1.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT68" t="n">
         <v>1.2</v>
@@ -14501,7 +14501,7 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT69" t="n">
         <v>0.92</v>
@@ -14707,7 +14707,7 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU70" t="n">
         <v>1.51</v>
@@ -15110,10 +15110,10 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.74</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT73" t="n">
         <v>0.73</v>
@@ -15516,10 +15516,10 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -15719,7 +15719,7 @@
         <v>2.17</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT75" t="n">
         <v>1.64</v>
@@ -16128,7 +16128,7 @@
         <v>1.58</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU77" t="n">
         <v>1.73</v>
@@ -16331,7 +16331,7 @@
         <v>1.27</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU78" t="n">
         <v>1.46</v>
@@ -16534,7 +16534,7 @@
         <v>1.3</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU79" t="n">
         <v>1.59</v>
@@ -17140,7 +17140,7 @@
         <v>0.6</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17346,7 +17346,7 @@
         <v>1.92</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU83" t="n">
         <v>1.98</v>
@@ -18158,7 +18158,7 @@
         <v>1.09</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU87" t="n">
         <v>1.89</v>
@@ -18358,7 +18358,7 @@
         <v>1.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT88" t="n">
         <v>0.82</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU89" t="n">
         <v>1.64</v>
@@ -18967,10 +18967,10 @@
         <v>1.17</v>
       </c>
       <c r="AS91" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT91" t="n">
         <v>1.27</v>
-      </c>
-      <c r="AT91" t="n">
-        <v>1.1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.48</v>
@@ -19170,7 +19170,7 @@
         <v>0.88</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT92" t="n">
         <v>1.42</v>
@@ -19376,7 +19376,7 @@
         <v>1.82</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU93" t="n">
         <v>1.41</v>
@@ -19982,7 +19982,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
         <v>1.2</v>
@@ -20185,7 +20185,7 @@
         <v>1.14</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT97" t="n">
         <v>1.2</v>
@@ -20591,10 +20591,10 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.57</v>
@@ -21000,7 +21000,7 @@
         <v>2</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU101" t="n">
         <v>1.62</v>
@@ -21200,10 +21200,10 @@
         <v>1.25</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU102" t="n">
         <v>1.63</v>
@@ -21812,7 +21812,7 @@
         <v>2.45</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU105" t="n">
         <v>2.27</v>
@@ -22418,7 +22418,7 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT108" t="n">
         <v>0.45</v>
@@ -22621,7 +22621,7 @@
         <v>1.89</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT109" t="n">
         <v>1.64</v>
@@ -22827,7 +22827,7 @@
         <v>1.58</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>1.59</v>
@@ -23030,7 +23030,7 @@
         <v>1.82</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU111" t="n">
         <v>1.54</v>
@@ -23230,7 +23230,7 @@
         <v>0.44</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT112" t="n">
         <v>0.45</v>
@@ -23636,7 +23636,7 @@
         <v>1.13</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT114" t="n">
         <v>0.82</v>
@@ -23842,7 +23842,7 @@
         <v>2</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU115" t="n">
         <v>1.63</v>
@@ -24451,7 +24451,7 @@
         <v>1.58</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU118" t="n">
         <v>1.54</v>
@@ -25057,7 +25057,7 @@
         <v>1.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT121" t="n">
         <v>1.2</v>
@@ -25463,7 +25463,7 @@
         <v>1.11</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25669,7 +25669,7 @@
         <v>1.09</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU124" t="n">
         <v>1.75</v>
@@ -25872,7 +25872,7 @@
         <v>1.3</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU125" t="n">
         <v>1.51</v>
@@ -26072,7 +26072,7 @@
         <v>1.7</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT126" t="n">
         <v>1.64</v>
@@ -27293,7 +27293,7 @@
         <v>2.45</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU132" t="n">
         <v>2.18</v>
@@ -27547,6 +27547,818 @@
         <v>7</v>
       </c>
       <c r="BK133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3216172</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45023.08333333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>23</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>3</v>
+      </c>
+      <c r="N134" t="n">
+        <v>3</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['21', '35', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>6</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>8</v>
+      </c>
+      <c r="T134" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3216173</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45023.16666666666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>23</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>6</v>
+      </c>
+      <c r="R135" t="n">
+        <v>5</v>
+      </c>
+      <c r="S135" t="n">
+        <v>11</v>
+      </c>
+      <c r="T135" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X135" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3216174</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45024.16666666666</v>
+      </c>
+      <c r="F136" t="n">
+        <v>23</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>3</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>3</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['34', '70', '90+3']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>7</v>
+      </c>
+      <c r="R136" t="n">
+        <v>8</v>
+      </c>
+      <c r="S136" t="n">
+        <v>15</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X136" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3216175</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45024.28125</v>
+      </c>
+      <c r="F137" t="n">
+        <v>23</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2</v>
+      </c>
+      <c r="N137" t="n">
+        <v>4</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['66', '90+1']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['42', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>2</v>
+      </c>
+      <c r="R137" t="n">
+        <v>9</v>
+      </c>
+      <c r="S137" t="n">
+        <v>11</v>
+      </c>
+      <c r="T137" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V137" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK137" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>1.82</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.27</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT9" t="n">
         <v>1.25</v>
@@ -3339,7 +3339,7 @@
         <v>1.27</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU14" t="n">
         <v>1.18</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT16" t="n">
         <v>1.64</v>
@@ -4151,7 +4151,7 @@
         <v>1.92</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>2.18</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU24" t="n">
         <v>2.71</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5772,10 +5772,10 @@
         <v>0.75</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>2.03</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU46" t="n">
         <v>1.51</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU49" t="n">
         <v>1.71</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT52" t="n">
         <v>1.27</v>
@@ -12474,7 +12474,7 @@
         <v>2.18</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU59" t="n">
         <v>1.79</v>
@@ -12674,7 +12674,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT60" t="n">
         <v>0.82</v>
@@ -13286,7 +13286,7 @@
         <v>1.09</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU63" t="n">
         <v>1.94</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT64" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         <v>1.42</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU68" t="n">
         <v>1.44</v>
@@ -16531,7 +16531,7 @@
         <v>1.43</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT79" t="n">
         <v>1.42</v>
@@ -16940,7 +16940,7 @@
         <v>1.58</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.66</v>
@@ -17546,7 +17546,7 @@
         <v>0.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT84" t="n">
         <v>1.42</v>
@@ -17749,10 +17749,10 @@
         <v>1.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU85" t="n">
         <v>1.58</v>
@@ -17952,7 +17952,7 @@
         <v>1.14</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT86" t="n">
         <v>0.73</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU96" t="n">
         <v>1.49</v>
@@ -20188,7 +20188,7 @@
         <v>1.25</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU97" t="n">
         <v>1.71</v>
@@ -20794,7 +20794,7 @@
         <v>2.13</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT100" t="n">
         <v>1.64</v>
@@ -21406,7 +21406,7 @@
         <v>1.92</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU103" t="n">
         <v>1.96</v>
@@ -21809,7 +21809,7 @@
         <v>1.78</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT105" t="n">
         <v>1.42</v>
@@ -22215,7 +22215,7 @@
         <v>1.11</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT107" t="n">
         <v>1.42</v>
@@ -22421,7 +22421,7 @@
         <v>1.42</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU108" t="n">
         <v>1.47</v>
@@ -23233,7 +23233,7 @@
         <v>1.25</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU112" t="n">
         <v>1.69</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT119" t="n">
         <v>0.82</v>
@@ -24854,7 +24854,7 @@
         <v>0.88</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT120" t="n">
         <v>1</v>
@@ -25060,7 +25060,7 @@
         <v>2.18</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU121" t="n">
         <v>1.68</v>
@@ -25263,7 +25263,7 @@
         <v>1.27</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU122" t="n">
         <v>1.47</v>
@@ -25869,7 +25869,7 @@
         <v>1.22</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT125" t="n">
         <v>1.27</v>
@@ -27290,7 +27290,7 @@
         <v>1.1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT132" t="n">
         <v>1</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT133" t="n">
         <v>0.92</v>
@@ -28360,6 +28360,412 @@
       </c>
       <c r="BK137" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3216176</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45025.08333333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>23</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>7</v>
+      </c>
+      <c r="R138" t="n">
+        <v>5</v>
+      </c>
+      <c r="S138" t="n">
+        <v>12</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V138" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X138" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3216177</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45026.125</v>
+      </c>
+      <c r="F139" t="n">
+        <v>23</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>4</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>5</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['34', '52', '57', '83']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>7</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2</v>
+      </c>
+      <c r="S139" t="n">
+        <v>9</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V139" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X139" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.42</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT8" t="n">
         <v>0.5</v>
@@ -3136,7 +3136,7 @@
         <v>1.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU13" t="n">
         <v>1.69</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT14" t="n">
         <v>1.09</v>
@@ -6181,7 +6181,7 @@
         <v>1.58</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU28" t="n">
         <v>1.39</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT32" t="n">
         <v>1.64</v>
@@ -7602,7 +7602,7 @@
         <v>1.92</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU35" t="n">
         <v>2.11</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT42" t="n">
         <v>0.82</v>
@@ -10647,7 +10647,7 @@
         <v>1.09</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU50" t="n">
         <v>2.05</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT56" t="n">
         <v>1.42</v>
@@ -12068,7 +12068,7 @@
         <v>1.82</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU57" t="n">
         <v>1.23</v>
@@ -15316,7 +15316,7 @@
         <v>2.18</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU73" t="n">
         <v>1.67</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT78" t="n">
         <v>1.25</v>
@@ -16734,7 +16734,7 @@
         <v>1.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT80" t="n">
         <v>0.82</v>
@@ -17955,7 +17955,7 @@
         <v>2.5</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU86" t="n">
         <v>2.2</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT95" t="n">
         <v>0.92</v>
@@ -21606,7 +21606,7 @@
         <v>0.57</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT104" t="n">
         <v>1</v>
@@ -22015,7 +22015,7 @@
         <v>1.82</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU106" t="n">
         <v>1.45</v>
@@ -24045,7 +24045,7 @@
         <v>1.92</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU116" t="n">
         <v>1.93</v>
@@ -24245,7 +24245,7 @@
         <v>1.1</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT117" t="n">
         <v>1.42</v>
@@ -25260,7 +25260,7 @@
         <v>0.4</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT122" t="n">
         <v>0.5</v>
@@ -27090,7 +27090,7 @@
         <v>2</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU131" t="n">
         <v>1.54</v>
@@ -28765,6 +28765,209 @@
         <v>21</v>
       </c>
       <c r="BK139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3216178</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45030.28125</v>
+      </c>
+      <c r="F140" t="n">
+        <v>24</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>2</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['79', '90+5']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>9</v>
+      </c>
+      <c r="R140" t="n">
+        <v>4</v>
+      </c>
+      <c r="S140" t="n">
+        <v>13</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V140" t="n">
+        <v>4</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK140" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK140"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT5" t="n">
         <v>1.42</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.42</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU7" t="n">
         <v>1.4</v>
@@ -2121,7 +2121,7 @@
         <v>1.42</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT10" t="n">
         <v>1.27</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU15" t="n">
         <v>1.28</v>
@@ -3745,7 +3745,7 @@
         <v>1.27</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU16" t="n">
         <v>1.32</v>
@@ -3945,7 +3945,7 @@
         <v>0.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT17" t="n">
         <v>1.42</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>1.42</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU20" t="n">
         <v>1.25</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU21" t="n">
         <v>1.32</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>2.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU26" t="n">
         <v>2.03</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT27" t="n">
         <v>1.27</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT28" t="n">
         <v>0.67</v>
@@ -6787,10 +6787,10 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU31" t="n">
         <v>2.2</v>
@@ -6993,7 +6993,7 @@
         <v>1.42</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU32" t="n">
         <v>1.2</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT33" t="n">
         <v>1.25</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU34" t="n">
         <v>1.59</v>
@@ -7599,7 +7599,7 @@
         <v>0.67</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT35" t="n">
         <v>0.67</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT37" t="n">
         <v>1.25</v>
@@ -8208,10 +8208,10 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU38" t="n">
         <v>2.06</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU41" t="n">
         <v>1.32</v>
@@ -9023,7 +9023,7 @@
         <v>1.42</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU42" t="n">
         <v>1.49</v>
@@ -9223,7 +9223,7 @@
         <v>1.2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT43" t="n">
         <v>1.42</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT44" t="n">
         <v>1.42</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU46" t="n">
         <v>1.51</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10644,7 +10644,7 @@
         <v>1.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT50" t="n">
         <v>0.67</v>
@@ -10850,7 +10850,7 @@
         <v>1.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU51" t="n">
         <v>2.02</v>
@@ -11253,7 +11253,7 @@
         <v>0.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -11459,7 +11459,7 @@
         <v>1.25</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU54" t="n">
         <v>1.82</v>
@@ -11659,10 +11659,10 @@
         <v>1.4</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU55" t="n">
         <v>1.95</v>
@@ -12065,7 +12065,7 @@
         <v>1.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT57" t="n">
         <v>0.67</v>
@@ -12268,10 +12268,10 @@
         <v>2.25</v>
       </c>
       <c r="AS58" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT58" t="n">
         <v>1.58</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>1.64</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -12471,10 +12471,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU59" t="n">
         <v>1.79</v>
@@ -12677,7 +12677,7 @@
         <v>1.27</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU60" t="n">
         <v>1.55</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT62" t="n">
         <v>1.42</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT63" t="n">
         <v>1.09</v>
@@ -13489,7 +13489,7 @@
         <v>2.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU64" t="n">
         <v>2.04</v>
@@ -13895,7 +13895,7 @@
         <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU66" t="n">
         <v>1.66</v>
@@ -14501,10 +14501,10 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU69" t="n">
         <v>1.72</v>
@@ -14907,10 +14907,10 @@
         <v>2.4</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU71" t="n">
         <v>1.4</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT73" t="n">
         <v>0.67</v>
@@ -15722,7 +15722,7 @@
         <v>1.42</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -15925,7 +15925,7 @@
         <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU76" t="n">
         <v>1.57</v>
@@ -16125,7 +16125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT77" t="n">
         <v>1.27</v>
@@ -16737,7 +16737,7 @@
         <v>1.42</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU80" t="n">
         <v>1.43</v>
@@ -16937,10 +16937,10 @@
         <v>0.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU81" t="n">
         <v>1.66</v>
@@ -17143,7 +17143,7 @@
         <v>1.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU82" t="n">
         <v>1.56</v>
@@ -17343,7 +17343,7 @@
         <v>1.29</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT83" t="n">
         <v>1.25</v>
@@ -18155,7 +18155,7 @@
         <v>1.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT87" t="n">
         <v>1.27</v>
@@ -18358,10 +18358,10 @@
         <v>1.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU88" t="n">
         <v>1.62</v>
@@ -18764,10 +18764,10 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU90" t="n">
         <v>1.26</v>
@@ -19373,7 +19373,7 @@
         <v>1.63</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT93" t="n">
         <v>1.42</v>
@@ -19579,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU94" t="n">
         <v>1.67</v>
@@ -19782,7 +19782,7 @@
         <v>1.42</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU95" t="n">
         <v>1.49</v>
@@ -20388,10 +20388,10 @@
         <v>1.14</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU98" t="n">
         <v>1.88</v>
@@ -20797,7 +20797,7 @@
         <v>1.27</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU100" t="n">
         <v>1.55</v>
@@ -21200,7 +21200,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT102" t="n">
         <v>1.25</v>
@@ -21403,7 +21403,7 @@
         <v>1.38</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT103" t="n">
         <v>1.09</v>
@@ -21609,7 +21609,7 @@
         <v>1.42</v>
       </c>
       <c r="AT104" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU104" t="n">
         <v>1.41</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT106" t="n">
         <v>0.67</v>
@@ -22421,7 +22421,7 @@
         <v>1.42</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU108" t="n">
         <v>1.47</v>
@@ -22621,10 +22621,10 @@
         <v>1.89</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU109" t="n">
         <v>1.61</v>
@@ -22824,7 +22824,7 @@
         <v>1.22</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23027,7 +23027,7 @@
         <v>1.38</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT111" t="n">
         <v>1.27</v>
@@ -23233,7 +23233,7 @@
         <v>1.25</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU112" t="n">
         <v>1.69</v>
@@ -23433,10 +23433,10 @@
         <v>0.89</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU113" t="n">
         <v>1.89</v>
@@ -23639,7 +23639,7 @@
         <v>1.5</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU114" t="n">
         <v>1.54</v>
@@ -24042,7 +24042,7 @@
         <v>0.89</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT116" t="n">
         <v>0.67</v>
@@ -24448,7 +24448,7 @@
         <v>1.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT118" t="n">
         <v>1.42</v>
@@ -24654,7 +24654,7 @@
         <v>2.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU119" t="n">
         <v>2.27</v>
@@ -24857,7 +24857,7 @@
         <v>1.27</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU120" t="n">
         <v>1.49</v>
@@ -25057,7 +25057,7 @@
         <v>1.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT121" t="n">
         <v>1.09</v>
@@ -25263,7 +25263,7 @@
         <v>1.42</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU122" t="n">
         <v>1.47</v>
@@ -25466,7 +25466,7 @@
         <v>1.42</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU123" t="n">
         <v>1.48</v>
@@ -25666,7 +25666,7 @@
         <v>1.1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT124" t="n">
         <v>1.25</v>
@@ -26075,7 +26075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU126" t="n">
         <v>1.51</v>
@@ -26275,7 +26275,7 @@
         <v>1.27</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT127" t="n">
         <v>1.42</v>
@@ -26478,10 +26478,10 @@
         <v>0.8</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU128" t="n">
         <v>1.48</v>
@@ -26681,10 +26681,10 @@
         <v>0.9</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU129" t="n">
         <v>1.95</v>
@@ -26884,10 +26884,10 @@
         <v>1</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU130" t="n">
         <v>1.8</v>
@@ -27496,7 +27496,7 @@
         <v>2.5</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU133" t="n">
         <v>2.14</v>
@@ -27899,7 +27899,7 @@
         <v>1.45</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT135" t="n">
         <v>1.42</v>
@@ -28511,7 +28511,7 @@
         <v>1.27</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU138" t="n">
         <v>1.47</v>
@@ -28969,6 +28969,1021 @@
       </c>
       <c r="BK140" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3216179</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45031.16666666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>24</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="n">
+        <v>2</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>11</v>
+      </c>
+      <c r="R141" t="n">
+        <v>7</v>
+      </c>
+      <c r="S141" t="n">
+        <v>18</v>
+      </c>
+      <c r="T141" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V141" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3216180</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45031.28125</v>
+      </c>
+      <c r="F142" t="n">
+        <v>24</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['45+1', '81']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>6</v>
+      </c>
+      <c r="R142" t="n">
+        <v>4</v>
+      </c>
+      <c r="S142" t="n">
+        <v>10</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3216181</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45032</v>
+      </c>
+      <c r="F143" t="n">
+        <v>24</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>2</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2</v>
+      </c>
+      <c r="N143" t="n">
+        <v>4</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['35', '56']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['8', '82']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>9</v>
+      </c>
+      <c r="R143" t="n">
+        <v>5</v>
+      </c>
+      <c r="S143" t="n">
+        <v>14</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3216182</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45032.08333333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>24</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2</v>
+      </c>
+      <c r="L144" t="n">
+        <v>4</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>5</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['8', '51', '62', '72']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>6</v>
+      </c>
+      <c r="R144" t="n">
+        <v>6</v>
+      </c>
+      <c r="S144" t="n">
+        <v>12</v>
+      </c>
+      <c r="T144" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V144" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3216183</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45032.16666666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>24</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>10</v>
+      </c>
+      <c r="R145" t="n">
+        <v>6</v>
+      </c>
+      <c r="S145" t="n">
+        <v>16</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="V145" t="n">
+        <v>4</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
